--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6469,7 +6469,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Union of Juche States</t>
+          <t>Lemon feetz</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6478,19 +6478,19 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:08:16</t>
+          <t>0:08:15</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:12:24</t>
+          <t>0:12:23</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,19 +6498,19 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_juche_states</t>
+          <t>https://www.nationstates.net/region=lemon_feetz</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>ez ur bad</t>
+          <t>Union of Juche States</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6519,19 +6519,19 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:08:17</t>
+          <t>0:08:16</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:12:25</t>
+          <t>0:12:24</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,40 +6539,40 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ez_ur_bad</t>
+          <t>https://www.nationstates.net/region=union_of_juche_states</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>The League of Free Nations</t>
+          <t>ez ur bad</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:08:18</t>
+          <t>0:08:17</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:12:27</t>
+          <t>0:12:25</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,19 +6580,19 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_league_of_free_nations</t>
+          <t>https://www.nationstates.net/region=ez_ur_bad</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>The Nebezian Pact of Commonwealth</t>
+          <t>The League of Free Nations</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6601,19 +6601,19 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:08:21</t>
+          <t>0:08:18</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:12:31</t>
+          <t>0:12:27</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,40 +6621,40 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_nebezian_pact_of_commonwealth</t>
+          <t>https://www.nationstates.net/region=the_league_of_free_nations</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The Nebezian Pact of Commonwealth</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:08:34</t>
+          <t>0:08:21</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:12:50</t>
+          <t>0:12:31</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6662,40 +6662,40 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_nebezian_pact_of_commonwealth</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:08:36</t>
+          <t>0:08:34</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:12:53</t>
+          <t>0:12:50</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,19 +6703,19 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6724,19 +6724,19 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:08:38</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:12:57</t>
+          <t>0:12:53</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6744,40 +6744,40 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>The Average Confederacy</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:08:40</t>
+          <t>0:08:38</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:13:00</t>
+          <t>0:12:57</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6785,19 +6785,19 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_average_confederacy</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Alma Mater</t>
+          <t>The Average Confederacy</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6826,40 +6826,40 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alma_mater</t>
+          <t>https://www.nationstates.net/region=the_average_confederacy</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>Alma Mater</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:08:49</t>
+          <t>0:08:40</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:13:14</t>
+          <t>0:13:00</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6867,24 +6867,24 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fantastic</t>
+          <t>https://www.nationstates.net/region=alma_mater</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>scavobia</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=scavobia</t>
+          <t>https://www.nationstates.net/region=fantastic</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -6920,7 +6920,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>The Planes of Discord</t>
+          <t>scavobia</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6929,19 +6929,19 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:08:50</t>
+          <t>0:08:49</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:13:15</t>
+          <t>0:13:14</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
+          <t>https://www.nationstates.net/region=scavobia</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>The Planes of Discord</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:08:52</t>
+          <t>0:08:50</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:13:19</t>
+          <t>0:13:15</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,24 +6990,24 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Thr Embassy</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -7031,40 +7031,40 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=thr_embassy</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>The Irish underwater</t>
+          <t>Thr Embassy</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:08:53</t>
+          <t>0:08:52</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:13:20</t>
+          <t>0:13:19</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,40 +7072,40 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_irish_underwater</t>
+          <t>https://www.nationstates.net/region=thr_embassy</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Erethia</t>
+          <t>The Irish underwater</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:09:14</t>
+          <t>0:08:53</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:13:51</t>
+          <t>0:13:20</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,19 +7113,19 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=erethia</t>
+          <t>https://www.nationstates.net/region=the_irish_underwater</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>The Straw Hat Pirates</t>
+          <t>Erethia</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7134,19 +7134,19 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>683</v>
+        <v>554</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:11:23</t>
+          <t>0:09:14</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1024</v>
+        <v>831</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:17:04</t>
+          <t>0:13:51</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,40 +7154,40 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_straw_hat_pirates</t>
+          <t>https://www.nationstates.net/region=erethia</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Union of Asia and the Pacific</t>
+          <t>The Straw Hat Pirates</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:11:28</t>
+          <t>0:11:23</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:17:12</t>
+          <t>0:17:04</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,19 +7195,19 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_asia_and_the_pacific</t>
+          <t>https://www.nationstates.net/region=the_straw_hat_pirates</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
+          <t>Union of Asia and the Pacific</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7216,19 +7216,19 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:11:29</t>
+          <t>0:11:28</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:17:13</t>
+          <t>0:17:12</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -7236,40 +7236,40 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
+          <t>https://www.nationstates.net/region=union_of_asia_and_the_pacific</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Podil</t>
+          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:11:44</t>
+          <t>0:11:29</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:17:35</t>
+          <t>0:17:13</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,40 +7277,40 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=podil</t>
+          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Federation Of Andom</t>
+          <t>Podil</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:11:48</t>
+          <t>0:11:44</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:17:41</t>
+          <t>0:17:35</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,19 +7318,19 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=federation_of_andom</t>
+          <t>https://www.nationstates.net/region=podil</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>The International Puppet Storge</t>
+          <t>Federation Of Andom</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7339,19 +7339,19 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:11:49</t>
+          <t>0:11:48</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:17:43</t>
+          <t>0:17:41</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -7359,40 +7359,40 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_international_puppet_storge</t>
+          <t>https://www.nationstates.net/region=federation_of_andom</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Chick Fil A</t>
+          <t>The International Puppet Storge</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:11:50</t>
+          <t>0:11:49</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:17:45</t>
+          <t>0:17:43</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chick_fil_a</t>
+          <t>https://www.nationstates.net/region=the_international_puppet_storge</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7412,28 +7412,28 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Debate club</t>
+          <t>Chick Fil A</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:11:52</t>
+          <t>0:11:50</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:17:47</t>
+          <t>0:17:45</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7441,40 +7441,40 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=debate_club</t>
+          <t>https://www.nationstates.net/region=chick_fil_a</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Greater Newlandia</t>
+          <t>Debate club</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:11:54</t>
+          <t>0:11:52</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:17:52</t>
+          <t>0:17:47</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,40 +7482,40 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_newlandia</t>
+          <t>https://www.nationstates.net/region=debate_club</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>AnCap Alliance</t>
+          <t>Greater Newlandia</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:12:02</t>
+          <t>0:11:54</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:18:04</t>
+          <t>0:17:52</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7523,19 +7523,19 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ancap_alliance</t>
+          <t>https://www.nationstates.net/region=greater_newlandia</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>AnCap Alliance</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7544,19 +7544,19 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:12:03</t>
+          <t>0:12:02</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:18:05</t>
+          <t>0:18:04</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,24 +7564,24 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=ancap_alliance</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -7605,19 +7605,19 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7646,40 +7646,40 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Aegeus</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:12:25</t>
+          <t>0:12:03</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1117</v>
+        <v>1085</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:18:37</t>
+          <t>0:18:05</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7687,65 +7687,65 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aegeus</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Democratic for a reason</t>
+          <t>Aegeus</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:12:39</t>
+          <t>0:12:25</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1138</v>
+        <v>1117</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:18:58</t>
+          <t>0:18:37</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=democratic_for_a_reason</t>
+          <t>https://www.nationstates.net/region=aegeus</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>accidental</t>
+          <t>Democratic for a reason</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -7757,52 +7757,52 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:18:59</t>
+          <t>0:18:58</t>
         </is>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accidental</t>
+          <t>https://www.nationstates.net/region=democratic_for_a_reason</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of PCHS</t>
+          <t>accidental</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:12:40</t>
+          <t>0:12:39</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:19:00</t>
+          <t>0:18:59</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_pchs</t>
+          <t>https://www.nationstates.net/region=accidental</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -7822,28 +7822,28 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>The Iron Century</t>
+          <t>The Confederacy of PCHS</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:12:41</t>
+          <t>0:12:40</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:19:01</t>
+          <t>0:19:00</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,19 +7851,19 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_iron_century</t>
+          <t>https://www.nationstates.net/region=the_confederacy_of_pchs</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>abundant</t>
+          <t>The Iron Century</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7872,19 +7872,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:12:45</t>
+          <t>0:12:41</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:19:07</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,40 +7892,40 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abundant</t>
+          <t>https://www.nationstates.net/region=the_iron_century</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>El Gran Planeta</t>
+          <t>abundant</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:12:51</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:19:16</t>
+          <t>0:19:07</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=el_gran_planeta</t>
+          <t>https://www.nationstates.net/region=abundant</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -7945,7 +7945,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>the roman north german confederation</t>
+          <t>El Gran Planeta</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
+          <t>https://www.nationstates.net/region=el_gran_planeta</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -7986,28 +7986,28 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>ELITE</t>
+          <t>the roman north german confederation</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:12:52</t>
+          <t>0:12:51</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:19:18</t>
+          <t>0:19:16</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,40 +8015,40 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=elite</t>
+          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Lutsk</t>
+          <t>ELITE</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:12:53</t>
+          <t>0:12:52</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:19:19</t>
+          <t>0:19:18</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,40 +8056,40 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lutsk</t>
+          <t>https://www.nationstates.net/region=elite</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>North Texas Idiots</t>
+          <t>Lutsk</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:12:54</t>
+          <t>0:12:53</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:19:20</t>
+          <t>0:19:19</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -8097,24 +8097,24 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_texas_idiots</t>
+          <t>https://www.nationstates.net/region=lutsk</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>North Texas Idiots</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -8138,40 +8138,40 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=north_texas_idiots</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>SRN</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:12:54</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0:19:23</t>
+          <t>0:19:20</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -8179,40 +8179,40 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=srn</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>SRN</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0:13:00</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>0:19:30</t>
+          <t>0:19:23</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -8220,19 +8220,19 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=srn</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>Haisyn</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8241,19 +8241,19 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0:13:01</t>
+          <t>0:13:00</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0:19:32</t>
+          <t>0:19:30</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -8261,24 +8261,24 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=haisyn</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -8314,28 +8314,28 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Penguin Union</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0:13:10</t>
+          <t>0:13:01</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0:19:46</t>
+          <t>0:19:32</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -8343,60 +8343,60 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=penguin_union</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>afreurasia</t>
+          <t>Penguin Union</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0:13:13</t>
+          <t>0:13:10</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0:19:49</t>
+          <t>0:19:46</t>
         </is>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=afreurasia</t>
+          <t>https://www.nationstates.net/region=penguin_union</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Walsingford</t>
+          <t>afreurasia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8405,27 +8405,27 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>853</v>
+        <v>793</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0:14:13</t>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1280</v>
+        <v>1189</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0:21:20</t>
+          <t>0:19:49</t>
         </is>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walsingford</t>
+          <t>https://www.nationstates.net/region=afreurasia</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -8437,28 +8437,28 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Arctic League</t>
+          <t>Walsingford</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0:14:19</t>
+          <t>0:14:13</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>0:21:28</t>
+          <t>0:21:20</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -8466,40 +8466,40 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=arctic_league</t>
+          <t>https://www.nationstates.net/region=walsingford</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Complexo da Baviera</t>
+          <t>Arctic League</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0:14:30</t>
+          <t>0:14:19</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>0:21:45</t>
+          <t>0:21:28</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -8507,40 +8507,40 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=complexo_da_baviera</t>
+          <t>https://www.nationstates.net/region=arctic_league</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Kamianets Podilskyi</t>
+          <t>Complexo da Baviera</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0:14:42</t>
+          <t>0:14:30</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1323</v>
+        <v>1305</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>0:22:03</t>
+          <t>0:21:45</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -8548,19 +8548,19 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kamianets_podilskyi</t>
+          <t>https://www.nationstates.net/region=complexo_da_baviera</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Homework folder do not open</t>
+          <t>Kamianets Podilskyi</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8569,19 +8569,19 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0:14:44</t>
+          <t>0:14:42</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0:22:06</t>
+          <t>0:22:03</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=homework_folder_do_not_open</t>
+          <t>https://www.nationstates.net/region=kamianets_podilskyi</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -8601,28 +8601,28 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Kingdoms league</t>
+          <t>Homework folder do not open</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0:14:52</t>
+          <t>0:14:44</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0:22:17</t>
+          <t>0:22:06</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -8630,19 +8630,19 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kingdoms_league</t>
+          <t>https://www.nationstates.net/region=homework_folder_do_not_open</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>NBF</t>
+          <t>Kingdoms league</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -8671,24 +8671,24 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nbf</t>
+          <t>https://www.nationstates.net/region=kingdoms_league</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Regiao falantes da Lingua Portuguesa</t>
+          <t>NBF</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -8712,24 +8712,24 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regiao_falantes_da_lingua_portuguesa</t>
+          <t>https://www.nationstates.net/region=nbf</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Provinces of Rome</t>
+          <t>Regiao falantes da Lingua Portuguesa</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -8741,11 +8741,11 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>0:22:18</t>
+          <t>0:22:17</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -8753,40 +8753,40 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=provinces_of_rome</t>
+          <t>https://www.nationstates.net/region=regiao_falantes_da_lingua_portuguesa</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Omaha Pact</t>
+          <t>Provinces of Rome</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0:14:54</t>
+          <t>0:14:52</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0:22:21</t>
+          <t>0:22:18</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -8794,24 +8794,24 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=omaha_pact</t>
+          <t>https://www.nationstates.net/region=provinces_of_rome</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Shevchenko</t>
+          <t>Omaha Pact</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -8835,40 +8835,40 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shevchenko</t>
+          <t>https://www.nationstates.net/region=omaha_pact</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Cobalt Continent</t>
+          <t>Shevchenko</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:14:54</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0:22:22</t>
+          <t>0:22:21</t>
         </is>
       </c>
       <c r="G206" t="b">
@@ -8876,19 +8876,19 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cobalt_continent</t>
+          <t>https://www.nationstates.net/region=shevchenko</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Yalta</t>
+          <t>Cobalt Continent</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -8897,19 +8897,19 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0:14:56</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0:22:24</t>
+          <t>0:22:22</t>
         </is>
       </c>
       <c r="G207" t="b">
@@ -8917,40 +8917,40 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yalta</t>
+          <t>https://www.nationstates.net/region=cobalt_continent</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>abstains</t>
+          <t>Yalta</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1039</v>
+        <v>896</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0:17:19</t>
+          <t>0:14:56</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1559</v>
+        <v>1344</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>0:25:59</t>
+          <t>0:22:24</t>
         </is>
       </c>
       <c r="G208" t="b">
@@ -8958,40 +8958,40 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstains</t>
+          <t>https://www.nationstates.net/region=yalta</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>abstains</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0:17:23</t>
+          <t>0:17:19</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0:26:04</t>
+          <t>0:25:59</t>
         </is>
       </c>
       <c r="G209" t="b">
@@ -8999,24 +8999,24 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=abstains</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Card2050</t>
+          <t>Acta non verba</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -9028,11 +9028,11 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0:26:05</t>
+          <t>0:26:04</t>
         </is>
       </c>
       <c r="G210" t="b">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2050</t>
+          <t>https://www.nationstates.net/region=acta_non_verba</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -9052,28 +9052,28 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Romny</t>
+          <t>Card2050</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0:17:26</t>
+          <t>0:17:23</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>0:26:09</t>
+          <t>0:26:05</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -9081,40 +9081,40 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=romny</t>
+          <t>https://www.nationstates.net/region=card2050</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>The British Commonwealth</t>
+          <t>Romny</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0:17:27</t>
+          <t>0:17:26</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>0:26:11</t>
+          <t>0:26:09</t>
         </is>
       </c>
       <c r="G212" t="b">
@@ -9122,40 +9122,40 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_british_commonwealth</t>
+          <t>https://www.nationstates.net/region=romny</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>The Island of Norbert</t>
+          <t>The British Commonwealth</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0:17:29</t>
+          <t>0:17:27</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0:26:13</t>
+          <t>0:26:11</t>
         </is>
       </c>
       <c r="G213" t="b">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
+          <t>https://www.nationstates.net/region=the_british_commonwealth</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -9175,28 +9175,28 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>The Island of Norbert</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0:17:31</t>
+          <t>0:17:29</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>0:26:17</t>
+          <t>0:26:13</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -9204,40 +9204,40 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Random Puppets United</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0:17:45</t>
+          <t>0:17:31</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0:26:38</t>
+          <t>0:26:17</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -9245,19 +9245,19 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=random_puppets_united</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>The Governors Alliance of Virgil Twelve</t>
+          <t>Random Puppets United</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -9266,19 +9266,19 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0:17:56</t>
+          <t>0:17:45</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>0:26:54</t>
+          <t>0:26:38</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_governors_alliance_of_virgil_twelve</t>
+          <t>https://www.nationstates.net/region=random_puppets_united</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -9298,7 +9298,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Fandaristanian Kingdom</t>
+          <t>The Governors Alliance of Virgil Twelve</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fandaristanian_kingdom</t>
+          <t>https://www.nationstates.net/region=the_governors_alliance_of_virgil_twelve</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -9339,7 +9339,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>Fandaristanian Kingdom</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -9348,19 +9348,19 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0:17:57</t>
+          <t>0:17:56</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>0:26:55</t>
+          <t>0:26:54</t>
         </is>
       </c>
       <c r="G218" t="b">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=fandaristanian_kingdom</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -9380,28 +9380,28 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Techno gays</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0:18:00</t>
+          <t>0:17:57</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>0:26:59</t>
+          <t>0:26:55</t>
         </is>
       </c>
       <c r="G219" t="b">
@@ -9409,40 +9409,40 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=techno_gays</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Rakhiv</t>
+          <t>Techno gays</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0:18:05</t>
+          <t>0:18:00</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>0:27:07</t>
+          <t>0:26:59</t>
         </is>
       </c>
       <c r="G220" t="b">
@@ -9450,19 +9450,19 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rakhiv</t>
+          <t>https://www.nationstates.net/region=techno_gays</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>accepted</t>
+          <t>Rakhiv</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -9471,19 +9471,19 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0:18:14</t>
+          <t>0:18:05</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1641</v>
+        <v>1627</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>0:27:21</t>
+          <t>0:27:07</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -9491,40 +9491,40 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accepted</t>
+          <t>https://www.nationstates.net/region=rakhiv</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Enomenos</t>
+          <t>accepted</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0:18:16</t>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0:27:24</t>
+          <t>0:27:21</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=enomenos</t>
+          <t>https://www.nationstates.net/region=accepted</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -9544,7 +9544,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Plius Thil</t>
+          <t>Enomenos</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -9553,19 +9553,19 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0:18:19</t>
+          <t>0:18:16</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0:27:29</t>
+          <t>0:27:24</t>
         </is>
       </c>
       <c r="G223" t="b">
@@ -9573,40 +9573,40 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=plius_thil</t>
+          <t>https://www.nationstates.net/region=enomenos</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Austria and Hungary</t>
+          <t>Plius Thil</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0:18:23</t>
+          <t>0:18:19</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>0:27:34</t>
+          <t>0:27:29</t>
         </is>
       </c>
       <c r="G224" t="b">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=austria_and_hungary</t>
+          <t>https://www.nationstates.net/region=plius_thil</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -9626,12 +9626,12 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>The Boglings</t>
+          <t>Austria and Hungary</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -9643,11 +9643,11 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>0:27:35</t>
+          <t>0:27:34</t>
         </is>
       </c>
       <c r="G225" t="b">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boglings</t>
+          <t>https://www.nationstates.net/region=austria_and_hungary</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -9667,7 +9667,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Dyzia</t>
+          <t>The Boglings</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -9676,19 +9676,19 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0:18:27</t>
+          <t>0:18:23</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:27:35</t>
         </is>
       </c>
       <c r="G226" t="b">
@@ -9696,19 +9696,19 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dyzia</t>
+          <t>https://www.nationstates.net/region=the_boglings</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Union of Xitizian States</t>
+          <t>Dyzia</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -9717,19 +9717,19 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:18:27</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>0:27:43</t>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="G227" t="b">
@@ -9737,24 +9737,24 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_xitizian_states</t>
+          <t>https://www.nationstates.net/region=dyzia</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Blood and Iron Community of States</t>
+          <t>Union of Xitizian States</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -9766,11 +9766,11 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0:27:44</t>
+          <t>0:27:43</t>
         </is>
       </c>
       <c r="G228" t="b">
@@ -9778,40 +9778,40 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
+          <t>https://www.nationstates.net/region=union_of_xitizian_states</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>Blood and Iron Community of States</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0:18:31</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0:27:47</t>
+          <t>0:27:44</t>
         </is>
       </c>
       <c r="G229" t="b">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -9831,12 +9831,12 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>The Royal Sovereign Nations</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -9860,19 +9860,19 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_royal_sovereign_nations</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Greater Region of Xavod</t>
+          <t>The Royal Sovereign Nations</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -9881,19 +9881,19 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0:18:32</t>
+          <t>0:18:31</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>0:27:48</t>
+          <t>0:27:47</t>
         </is>
       </c>
       <c r="G231" t="b">
@@ -9901,40 +9901,40 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_region_of_xavod</t>
+          <t>https://www.nationstates.net/region=the_royal_sovereign_nations</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Banject Bois</t>
+          <t>Greater Region of Xavod</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0:18:33</t>
+          <t>0:18:32</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>0:27:49</t>
+          <t>0:27:48</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=banject_bois</t>
+          <t>https://www.nationstates.net/region=greater_region_of_xavod</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -9954,28 +9954,28 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Das grosse reich William und Ludvig</t>
+          <t>Banject Bois</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1129</v>
+        <v>1113</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0:18:49</t>
+          <t>0:18:33</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1694</v>
+        <v>1669</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>0:28:14</t>
+          <t>0:27:49</t>
         </is>
       </c>
       <c r="G233" t="b">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=das_grosse_reich_william_und_ludvig</t>
+          <t>https://www.nationstates.net/region=banject_bois</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -9995,28 +9995,28 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Facist European Union</t>
+          <t>Das grosse reich William und Ludvig</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0:28:17</t>
+          <t>0:28:14</t>
         </is>
       </c>
       <c r="G234" t="b">
@@ -10024,40 +10024,40 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=facist_european_union</t>
+          <t>https://www.nationstates.net/region=das_grosse_reich_william_und_ludvig</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>Facist European Union</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0:28:18</t>
+          <t>0:28:17</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -10065,19 +10065,19 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=facist_european_union</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Berehove</t>
+          <t>Alvindor</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -10086,19 +10086,19 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0:18:54</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0:28:20</t>
+          <t>0:28:18</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -10106,19 +10106,19 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=berehove</t>
+          <t>https://www.nationstates.net/region=alvindor</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>United Unnameland</t>
+          <t>Berehove</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -10147,19 +10147,19 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_unnameland</t>
+          <t>https://www.nationstates.net/region=berehove</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Speedgecko Isle</t>
+          <t>United Unnameland</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -10168,19 +10168,19 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1158</v>
+        <v>1134</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0:19:18</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1737</v>
+        <v>1700</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>0:28:57</t>
+          <t>0:28:20</t>
         </is>
       </c>
       <c r="G238" t="b">
@@ -10188,24 +10188,24 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=speedgecko_isle</t>
+          <t>https://www.nationstates.net/region=united_unnameland</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>prima corona region</t>
+          <t>Speedgecko Isle</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -10229,40 +10229,40 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=prima_corona_region</t>
+          <t>https://www.nationstates.net/region=speedgecko_isle</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>the confederate Territories Of fizieliea</t>
+          <t>prima corona region</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0:19:31</t>
+          <t>0:19:18</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1756</v>
+        <v>1737</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>0:29:16</t>
+          <t>0:28:57</t>
         </is>
       </c>
       <c r="G240" t="b">
@@ -10270,19 +10270,19 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederate_territories_of_fizieliea</t>
+          <t>https://www.nationstates.net/region=prima_corona_region</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>the confederate Territories Of fizieliea</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -10291,19 +10291,19 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0:19:35</t>
+          <t>0:19:31</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>0:29:22</t>
+          <t>0:29:16</t>
         </is>
       </c>
       <c r="G241" t="b">
@@ -10311,40 +10311,40 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accent</t>
+          <t>https://www.nationstates.net/region=the_confederate_territories_of_fizieliea</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>African Continent</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0:19:37</t>
+          <t>0:19:35</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0:29:26</t>
+          <t>0:29:22</t>
         </is>
       </c>
       <c r="G242" t="b">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=african_continent</t>
+          <t>https://www.nationstates.net/region=accent</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -10364,28 +10364,28 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>The Ulster Isles</t>
+          <t>African Continent</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0:19:43</t>
+          <t>0:19:37</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>0:29:34</t>
+          <t>0:29:26</t>
         </is>
       </c>
       <c r="G243" t="b">
@@ -10393,40 +10393,40 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_ulster_isles</t>
+          <t>https://www.nationstates.net/region=african_continent</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>The Community of the Liberty</t>
+          <t>The Ulster Isles</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0:19:48</t>
+          <t>0:19:43</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>0:29:42</t>
+          <t>0:29:34</t>
         </is>
       </c>
       <c r="G244" t="b">
@@ -10434,24 +10434,24 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_community_of_the_liberty</t>
+          <t>https://www.nationstates.net/region=the_ulster_isles</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Trebuchet Storage</t>
+          <t>The Community of the Liberty</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -10475,40 +10475,40 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trebuchet_storage</t>
+          <t>https://www.nationstates.net/region=the_community_of_the_liberty</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Land of Freedom Call</t>
+          <t>Trebuchet Storage</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0:19:57</t>
+          <t>0:19:48</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1795</v>
+        <v>1782</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:29:42</t>
         </is>
       </c>
       <c r="G246" t="b">
@@ -10516,19 +10516,19 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=land_of_freedom_call</t>
+          <t>https://www.nationstates.net/region=trebuchet_storage</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Ijaka, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>The Collective of Blue Footed Booby Fans</t>
+          <t>Land of Freedom Call</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -10537,19 +10537,19 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0:20:09</t>
+          <t>0:19:57</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1813</v>
+        <v>1795</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>0:30:13</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="G247" t="b">
@@ -10557,40 +10557,40 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective_of_blue_footed_booby_fans</t>
+          <t>https://www.nationstates.net/region=land_of_freedom_call</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka, TBH</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>The Collective of Blue Footed Booby Fans</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0:20:11</t>
+          <t>0:20:09</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>0:30:17</t>
+          <t>0:30:13</t>
         </is>
       </c>
       <c r="G248" t="b">
@@ -10598,40 +10598,40 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=karlovy_vary</t>
+          <t>https://www.nationstates.net/region=the_collective_of_blue_footed_booby_fans</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>accolades</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0:20:14</t>
+          <t>0:20:11</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>0:30:22</t>
+          <t>0:30:17</t>
         </is>
       </c>
       <c r="G249" t="b">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accolades</t>
+          <t>https://www.nationstates.net/region=karlovy_vary</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -10651,28 +10651,28 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Techno Union</t>
+          <t>accolades</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0:20:23</t>
+          <t>0:20:14</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1835</v>
+        <v>1822</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>0:30:35</t>
+          <t>0:30:22</t>
         </is>
       </c>
       <c r="G250" t="b">
@@ -10680,40 +10680,40 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=techno_union</t>
+          <t>https://www.nationstates.net/region=accolades</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Berdyansk</t>
+          <t>Techno Union</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0:20:25</t>
+          <t>0:20:23</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>0:30:38</t>
+          <t>0:30:35</t>
         </is>
       </c>
       <c r="G251" t="b">
@@ -10721,40 +10721,40 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=berdyansk</t>
+          <t>https://www.nationstates.net/region=techno_union</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Unirea Popoarelor Marii</t>
+          <t>Berdyansk</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0:20:26</t>
+          <t>0:20:25</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>0:30:39</t>
+          <t>0:30:38</t>
         </is>
       </c>
       <c r="G252" t="b">
@@ -10762,19 +10762,19 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
+          <t>https://www.nationstates.net/region=berdyansk</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Palos</t>
+          <t>Unirea Popoarelor Marii</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -10783,19 +10783,19 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0:20:27</t>
+          <t>0:20:26</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>0:30:41</t>
+          <t>0:30:39</t>
         </is>
       </c>
       <c r="G253" t="b">
@@ -10803,24 +10803,24 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=palos</t>
+          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Palos</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -10844,40 +10844,40 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=palos</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Allied Nations of Glioca</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>0:20:29</t>
+          <t>0:20:27</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>0:30:43</t>
+          <t>0:30:41</t>
         </is>
       </c>
       <c r="G255" t="b">
@@ -10885,24 +10885,24 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>EPSA, Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Allied Nations of Glioca</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -10926,40 +10926,40 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>EPSA, Ijaka</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0:20:30</t>
+          <t>0:20:29</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>0:30:45</t>
+          <t>0:30:43</t>
         </is>
       </c>
       <c r="G257" t="b">
@@ -10967,40 +10967,40 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:20:30</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:30:45</t>
         </is>
       </c>
       <c r="G258" t="b">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -11020,28 +11020,28 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0:20:33</t>
+          <t>0:20:31</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="G259" t="b">
@@ -11049,24 +11049,24 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -11078,11 +11078,11 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>0:30:50</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -11102,12 +11102,12 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>Imperial Roman Coprosperity Sphere</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -11131,40 +11131,40 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>YuB</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>0:20:38</t>
+          <t>0:20:33</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>0:30:57</t>
+          <t>0:30:50</t>
         </is>
       </c>
       <c r="G262" t="b">
@@ -11172,19 +11172,19 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yub</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Nizhyn</t>
+          <t>YuB</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nizhyn</t>
+          <t>https://www.nationstates.net/region=yub</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -11225,28 +11225,28 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>Nizhyn</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0:20:40</t>
+          <t>0:20:38</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:30:57</t>
         </is>
       </c>
       <c r="G264" t="b">
@@ -11254,40 +11254,40 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=nizhyn</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>0:20:45</t>
+          <t>0:20:40</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>0:31:08</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="G265" t="b">
@@ -11295,40 +11295,40 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1334</v>
+        <v>1245</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>0:22:14</t>
+          <t>0:20:45</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>2001</v>
+        <v>1868</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>0:33:21</t>
+          <t>0:31:08</t>
         </is>
       </c>
       <c r="G266" t="b">
@@ -11336,40 +11336,40 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Auralesia</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1363</v>
+        <v>1334</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0:22:43</t>
+          <t>0:22:14</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2044</v>
+        <v>2001</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>0:34:04</t>
+          <t>0:33:21</t>
         </is>
       </c>
       <c r="G267" t="b">
@@ -11377,24 +11377,24 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=auralesia</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Unknown Lands</t>
+          <t>Auralesia</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -11406,11 +11406,11 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>0:34:05</t>
+          <t>0:34:04</t>
         </is>
       </c>
       <c r="G268" t="b">
@@ -11418,40 +11418,40 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unknown_lands</t>
+          <t>https://www.nationstates.net/region=auralesia</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Hykandia</t>
+          <t>Unknown Lands</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0:22:47</t>
+          <t>0:22:43</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>0:34:11</t>
+          <t>0:34:05</t>
         </is>
       </c>
       <c r="G269" t="b">
@@ -11459,19 +11459,19 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hykandia</t>
+          <t>https://www.nationstates.net/region=unknown_lands</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Fastiv</t>
+          <t>Hykandia</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
+          <t>https://www.nationstates.net/region=hykandia</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -11512,28 +11512,28 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Northeast Pacific</t>
+          <t>Fastiv</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0:22:48</t>
+          <t>0:22:47</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>0:34:12</t>
+          <t>0:34:11</t>
         </is>
       </c>
       <c r="G271" t="b">
@@ -11541,19 +11541,19 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northeast_pacific</t>
+          <t>https://www.nationstates.net/region=fastiv</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>The Breadlands</t>
+          <t>Northeast Pacific</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -11562,19 +11562,19 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0:22:50</t>
+          <t>0:22:48</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>0:34:15</t>
+          <t>0:34:12</t>
         </is>
       </c>
       <c r="G272" t="b">
@@ -11582,40 +11582,40 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_breadlands</t>
+          <t>https://www.nationstates.net/region=northeast_pacific</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>The Order of the Black Circle</t>
+          <t>The Breadlands</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0:22:59</t>
+          <t>0:22:50</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>2068</v>
+        <v>2055</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>0:34:28</t>
+          <t>0:34:15</t>
         </is>
       </c>
       <c r="G273" t="b">
@@ -11623,40 +11623,40 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_order_of_the_black_circle</t>
+          <t>https://www.nationstates.net/region=the_breadlands</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>The Pines</t>
+          <t>The Order of the Black Circle</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>0:23:12</t>
+          <t>0:22:59</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2088</v>
+        <v>2068</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>0:34:48</t>
+          <t>0:34:28</t>
         </is>
       </c>
       <c r="G274" t="b">
@@ -11664,40 +11664,40 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_pines</t>
+          <t>https://www.nationstates.net/region=the_order_of_the_black_circle</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Tropicalia</t>
+          <t>The Pines</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>0:23:22</t>
+          <t>0:23:12</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2104</v>
+        <v>2088</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>0:35:04</t>
+          <t>0:34:48</t>
         </is>
       </c>
       <c r="G275" t="b">
@@ -11705,24 +11705,24 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropicalia</t>
+          <t>https://www.nationstates.net/region=the_pines</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>EPSA, Ijaka</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Dominions</t>
+          <t>Tropicalia</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -11746,40 +11746,40 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_dominions</t>
+          <t>https://www.nationstates.net/region=tropicalia</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>EPSA, Ijaka</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>New Cyngland</t>
+          <t>Commonwealth of Dominions</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0:23:24</t>
+          <t>0:23:22</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0:35:07</t>
+          <t>0:35:04</t>
         </is>
       </c>
       <c r="G277" t="b">
@@ -11787,40 +11787,40 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_cyngland</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_dominions</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>LWU</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Axis X Union</t>
+          <t>New Cyngland</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1424</v>
+        <v>1404</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>0:23:44</t>
+          <t>0:23:24</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2136</v>
+        <v>2107</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>0:35:36</t>
+          <t>0:35:07</t>
         </is>
       </c>
       <c r="G278" t="b">
@@ -11828,40 +11828,40 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=axis_x_union</t>
+          <t>https://www.nationstates.net/region=new_cyngland</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>LWU</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>accentuated</t>
+          <t>Axis X Union</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0:23:51</t>
+          <t>0:23:44</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>2147</v>
+        <v>2136</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>0:35:47</t>
+          <t>0:35:36</t>
         </is>
       </c>
       <c r="G279" t="b">
@@ -11869,40 +11869,40 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accentuated</t>
+          <t>https://www.nationstates.net/region=axis_x_union</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Europa Union</t>
+          <t>accentuated</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>0:23:55</t>
+          <t>0:23:51</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>0:35:52</t>
+          <t>0:35:47</t>
         </is>
       </c>
       <c r="G280" t="b">
@@ -11910,19 +11910,19 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europa_union</t>
+          <t>https://www.nationstates.net/region=accentuated</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Europa Union</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -11931,19 +11931,19 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>0:23:58</t>
+          <t>0:23:55</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>0:35:57</t>
+          <t>0:35:52</t>
         </is>
       </c>
       <c r="G281" t="b">
@@ -11951,19 +11951,19 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=europa_union</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>acclamatory</t>
+          <t>The Alternate Community</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -11972,19 +11972,19 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>0:23:59</t>
+          <t>0:23:58</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>0:35:58</t>
+          <t>0:35:57</t>
         </is>
       </c>
       <c r="G282" t="b">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acclamatory</t>
+          <t>https://www.nationstates.net/region=the_alternate_community</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -12004,7 +12004,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Artificial Earth</t>
+          <t>acclamatory</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -12013,19 +12013,19 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>0:24:01</t>
+          <t>0:23:59</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>0:36:01</t>
+          <t>0:35:58</t>
         </is>
       </c>
       <c r="G283" t="b">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=artificial_earth</t>
+          <t>https://www.nationstates.net/region=acclamatory</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -12045,7 +12045,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>ChatGPT</t>
+          <t>Artificial Earth</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -12054,19 +12054,19 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1539</v>
+        <v>1441</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>0:25:39</t>
+          <t>0:24:01</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>2309</v>
+        <v>2161</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>0:38:29</t>
+          <t>0:36:01</t>
         </is>
       </c>
       <c r="G284" t="b">
@@ -12074,19 +12074,19 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chatgpt</t>
+          <t>https://www.nationstates.net/region=artificial_earth</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Ruuussiya</t>
+          <t>ChatGPT</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -12095,19 +12095,19 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1804</v>
+        <v>1539</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>0:30:04</t>
+          <t>0:25:39</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>2706</v>
+        <v>2309</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>0:45:06</t>
+          <t>0:38:29</t>
         </is>
       </c>
       <c r="G285" t="b">
@@ -12115,40 +12115,40 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ruuussiya</t>
+          <t>https://www.nationstates.net/region=chatgpt</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Fenrir</t>
+          <t>Ruuussiya</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1813</v>
+        <v>1804</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>0:30:13</t>
+          <t>0:30:04</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2720</v>
+        <v>2706</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>0:45:20</t>
+          <t>0:45:06</t>
         </is>
       </c>
       <c r="G286" t="b">
@@ -12156,40 +12156,40 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fenrir</t>
+          <t>https://www.nationstates.net/region=ruuussiya</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Card2037</t>
+          <t>Fenrir</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>0:30:16</t>
+          <t>0:30:13</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>0:45:24</t>
+          <t>0:45:20</t>
         </is>
       </c>
       <c r="G287" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2037</t>
+          <t>https://www.nationstates.net/region=fenrir</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -12209,28 +12209,28 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>shimon</t>
+          <t>Card2037</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>0:30:17</t>
+          <t>0:30:16</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>0:45:25</t>
+          <t>0:45:24</t>
         </is>
       </c>
       <c r="G288" t="b">
@@ -12238,40 +12238,40 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shimon</t>
+          <t>https://www.nationstates.net/region=card2037</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Echo Chamber</t>
+          <t>shimon</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>0:30:21</t>
+          <t>0:30:17</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2731</v>
+        <v>2725</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>0:45:31</t>
+          <t>0:45:25</t>
         </is>
       </c>
       <c r="G289" t="b">
@@ -12279,19 +12279,19 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=echo_chamber</t>
+          <t>https://www.nationstates.net/region=shimon</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Calebs Haven</t>
+          <t>Echo Chamber</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -12300,19 +12300,19 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1873</v>
+        <v>1821</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>0:31:13</t>
+          <t>0:30:21</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>2809</v>
+        <v>2731</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>0:46:49</t>
+          <t>0:45:31</t>
         </is>
       </c>
       <c r="G290" t="b">
@@ -12320,40 +12320,40 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=calebs_haven</t>
+          <t>https://www.nationstates.net/region=echo_chamber</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Target Region 21</t>
+          <t>Calebs Haven</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>0:31:17</t>
+          <t>0:31:13</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>2815</v>
+        <v>2809</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>0:46:55</t>
+          <t>0:46:49</t>
         </is>
       </c>
       <c r="G291" t="b">
@@ -12361,40 +12361,40 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=target_region_21</t>
+          <t>https://www.nationstates.net/region=calebs_haven</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Kurman</t>
+          <t>Target Region 21</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0:31:27</t>
+          <t>0:31:17</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>2830</v>
+        <v>2815</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>0:47:10</t>
+          <t>0:46:55</t>
         </is>
       </c>
       <c r="G292" t="b">
@@ -12402,40 +12402,40 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kurman</t>
+          <t>https://www.nationstates.net/region=target_region_21</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Weed Nation</t>
+          <t>Kurman</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1929</v>
+        <v>1887</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>0:32:09</t>
+          <t>0:31:27</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2894</v>
+        <v>2830</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>0:48:14</t>
+          <t>0:47:10</t>
         </is>
       </c>
       <c r="G293" t="b">
@@ -12443,40 +12443,40 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=weed_nation</t>
+          <t>https://www.nationstates.net/region=kurman</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Holosiiv</t>
+          <t>Weed Nation</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>0:32:11</t>
+          <t>0:32:09</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>0:48:17</t>
+          <t>0:48:14</t>
         </is>
       </c>
       <c r="G294" t="b">
@@ -12484,40 +12484,40 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=holosiiv</t>
+          <t>https://www.nationstates.net/region=weed_nation</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Uzhhorod</t>
+          <t>Holosiiv</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>0:32:13</t>
+          <t>0:32:11</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>0:48:19</t>
+          <t>0:48:17</t>
         </is>
       </c>
       <c r="G295" t="b">
@@ -12525,24 +12525,24 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzhhorod</t>
+          <t>https://www.nationstates.net/region=holosiiv</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Deezer Sea</t>
+          <t>Uzhhorod</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -12566,40 +12566,40 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=deezer_sea</t>
+          <t>https://www.nationstates.net/region=uzhhorod</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>The great region of Eli</t>
+          <t>Deezer Sea</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:32:13</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>0:48:21</t>
+          <t>0:48:19</t>
         </is>
       </c>
       <c r="G297" t="b">
@@ -12607,40 +12607,40 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
+          <t>https://www.nationstates.net/region=deezer_sea</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Peoples Federation of Qandaristan</t>
+          <t>The great region of Eli</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>0:32:15</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>0:48:22</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="G298" t="b">
@@ -12648,24 +12648,24 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=peoples_federation_of_qandaristan</t>
+          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Holy Eastern Roman Empire</t>
+          <t>Peoples Federation of Qandaristan</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -12689,24 +12689,24 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=holy_eastern_roman_empire</t>
+          <t>https://www.nationstates.net/region=peoples_federation_of_qandaristan</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>killers of birds</t>
+          <t>Holy Eastern Roman Empire</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -12718,11 +12718,11 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>0:48:23</t>
+          <t>0:48:22</t>
         </is>
       </c>
       <c r="G300" t="b">
@@ -12730,40 +12730,40 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=killers_of_birds</t>
+          <t>https://www.nationstates.net/region=holy_eastern_roman_empire</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Aquaria</t>
+          <t>killers of birds</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1946</v>
+        <v>1935</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>0:32:26</t>
+          <t>0:32:15</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2918</v>
+        <v>2903</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>0:48:38</t>
+          <t>0:48:23</t>
         </is>
       </c>
       <c r="G301" t="b">
@@ -12771,24 +12771,24 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aquaria</t>
+          <t>https://www.nationstates.net/region=killers_of_birds</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Aquaria</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -12812,40 +12812,40 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=aquaria</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>BoM, TBH, TCB</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>The New Union of All States and Lands</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>0:32:27</t>
+          <t>0:32:26</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>0:48:40</t>
+          <t>0:48:38</t>
         </is>
       </c>
       <c r="G303" t="b">
@@ -12853,19 +12853,19 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_union_of_all_states_and_lands</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM, TBH, TCB</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Arbor</t>
+          <t>The New Union of All States and Lands</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -12874,19 +12874,19 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:32:27</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>0:48:45</t>
+          <t>0:48:40</t>
         </is>
       </c>
       <c r="G304" t="b">
@@ -12894,40 +12894,40 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=arbor</t>
+          <t>https://www.nationstates.net/region=the_new_union_of_all_states_and_lands</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Gagarin</t>
+          <t>Arbor</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1966</v>
+        <v>1950</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0:32:46</t>
+          <t>0:32:30</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>2950</v>
+        <v>2925</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>0:49:10</t>
+          <t>0:48:45</t>
         </is>
       </c>
       <c r="G305" t="b">
@@ -12935,19 +12935,19 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gagarin</t>
+          <t>https://www.nationstates.net/region=arbor</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Realpolitik</t>
+          <t>Gagarin</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -12956,19 +12956,19 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2004</v>
+        <v>1966</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>0:33:24</t>
+          <t>0:32:46</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3006</v>
+        <v>2950</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>0:50:06</t>
+          <t>0:49:10</t>
         </is>
       </c>
       <c r="G306" t="b">
@@ -12976,40 +12976,40 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=realpolitik</t>
+          <t>https://www.nationstates.net/region=gagarin</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Group Space Version Two</t>
+          <t>Free Nations of Polzone</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0:33:24</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>3006</v>
+        <v>2964</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>0:50:06</t>
+          <t>0:49:24</t>
         </is>
       </c>
       <c r="G307" t="b">
@@ -13017,19 +13017,19 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=group_space_version_two</t>
+          <t>https://www.nationstates.net/region=free_nations_of_polzone</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>The Autumn Alliance</t>
+          <t>Realpolitik</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -13038,19 +13038,19 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0:33:26</t>
+          <t>0:33:24</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>0:50:09</t>
+          <t>0:50:06</t>
         </is>
       </c>
       <c r="G308" t="b">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_autumn_alliance</t>
+          <t>https://www.nationstates.net/region=realpolitik</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -13070,7 +13070,7 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Chratesia</t>
+          <t>Group Space Version Two</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -13079,19 +13079,19 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0:33:29</t>
+          <t>0:33:24</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>3013</v>
+        <v>3006</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:50:06</t>
         </is>
       </c>
       <c r="G309" t="b">
@@ -13099,19 +13099,19 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chratesia</t>
+          <t>https://www.nationstates.net/region=group_space_version_two</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Lily 3 2</t>
+          <t>The Autumn Alliance</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -13120,19 +13120,19 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>0:33:34</t>
+          <t>0:33:26</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>3020</v>
+        <v>3009</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>0:50:20</t>
+          <t>0:50:09</t>
         </is>
       </c>
       <c r="G310" t="b">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lily_3_2</t>
+          <t>https://www.nationstates.net/region=the_autumn_alliance</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -13152,28 +13152,28 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Megacorp</t>
+          <t>Chratesia</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0:33:35</t>
+          <t>0:33:29</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>3022</v>
+        <v>3013</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>0:50:22</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="G311" t="b">
@@ -13181,40 +13181,40 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=megacorp</t>
+          <t>https://www.nationstates.net/region=chratesia</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Madyan</t>
+          <t>Lily 3 2</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>0:33:35</t>
+          <t>0:33:34</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>0:50:22</t>
+          <t>0:50:20</t>
         </is>
       </c>
       <c r="G312" t="b">
@@ -13222,40 +13222,40 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=madyan</t>
+          <t>https://www.nationstates.net/region=lily_3_2</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>United States Space Force</t>
+          <t>Megacorp</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2041</v>
+        <v>2015</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0:34:01</t>
+          <t>0:33:35</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>3062</v>
+        <v>3022</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>0:51:02</t>
+          <t>0:50:22</t>
         </is>
       </c>
       <c r="G313" t="b">
@@ -13263,19 +13263,19 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_states_space_force</t>
+          <t>https://www.nationstates.net/region=megacorp</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Anti World Assembly Alliance AWAA</t>
+          <t>Madyan</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -13284,19 +13284,19 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2102</v>
+        <v>2015</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>0:35:02</t>
+          <t>0:33:35</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>3153</v>
+        <v>3022</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>0:52:33</t>
+          <t>0:50:22</t>
         </is>
       </c>
       <c r="G314" t="b">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=anti_world_assembly_alliance_awaa</t>
+          <t>https://www.nationstates.net/region=madyan</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -13316,7 +13316,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>United States Space Force</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -13325,19 +13325,19 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2289</v>
+        <v>2041</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>0:38:09</t>
+          <t>0:34:01</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>3433</v>
+        <v>3062</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>0:57:13</t>
+          <t>0:51:02</t>
         </is>
       </c>
       <c r="G315" t="b">
@@ -13345,40 +13345,40 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=united_states_space_force</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Anti World Assembly Alliance AWAA</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2328</v>
+        <v>2102</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>0:38:48</t>
+          <t>0:35:02</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>3492</v>
+        <v>3153</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>0:58:12</t>
+          <t>0:52:33</t>
         </is>
       </c>
       <c r="G316" t="b">
@@ -13386,40 +13386,40 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=anti_world_assembly_alliance_awaa</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2330</v>
+        <v>2289</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>0:38:50</t>
+          <t>0:38:09</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>3496</v>
+        <v>3433</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>0:58:16</t>
+          <t>0:57:13</t>
         </is>
       </c>
       <c r="G317" t="b">
@@ -13427,40 +13427,40 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Brave New World</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>0:38:53</t>
+          <t>0:38:48</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>3500</v>
+        <v>3492</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>0:58:20</t>
+          <t>0:58:12</t>
         </is>
       </c>
       <c r="G318" t="b">
@@ -13468,81 +13468,81 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=brave_new_world</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Loopion Pact</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2451</v>
+        <v>2330</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>0:40:51</t>
+          <t>0:38:50</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>3676</v>
+        <v>3496</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1:01:16</t>
+          <t>0:58:16</t>
         </is>
       </c>
       <c r="G319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=loopion_pact</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Brave New World</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2667</v>
+        <v>2333</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>0:44:27</t>
+          <t>0:38:53</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>4001</v>
+        <v>3500</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>1:06:41</t>
+          <t>0:58:20</t>
         </is>
       </c>
       <c r="G320" t="b">
@@ -13550,60 +13550,60 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=brave_new_world</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Loopion Pact</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2870</v>
+        <v>2451</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>0:47:50</t>
+          <t>0:40:51</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>4305</v>
+        <v>3676</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>1:11:45</t>
+          <t>1:01:16</t>
         </is>
       </c>
       <c r="G321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=loopion_pact</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>SpacePizza Coralation</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -13612,19 +13612,19 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2912</v>
+        <v>2667</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0:48:32</t>
+          <t>0:44:27</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4368</v>
+        <v>4001</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1:12:48</t>
+          <t>1:06:41</t>
         </is>
       </c>
       <c r="G322" t="b">
@@ -13632,19 +13632,19 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>BoM, Lily</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -13653,19 +13653,19 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2915</v>
+        <v>2870</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>0:48:35</t>
+          <t>0:47:50</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4372</v>
+        <v>4305</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1:12:52</t>
+          <t>1:11:45</t>
         </is>
       </c>
       <c r="G323" t="b">
@@ -13673,19 +13673,19 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>SpacePizza Coralation</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -13694,71 +13694,194 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3125</v>
+        <v>2912</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0:52:05</t>
+          <t>0:48:32</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>4687</v>
+        <v>4368</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1:18:07</t>
+          <t>1:12:48</t>
         </is>
       </c>
       <c r="G324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>2915</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0:48:35</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>4372</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>1:12:52</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>Nordic Intelligent Freedom</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2944</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>0:49:04</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>4416</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>1:13:36</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=nordic_intelligent_freedom</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>3125</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>0:52:05</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>4687</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>1:18:07</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
           <t>Insane Asylum</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="C325" t="n">
+      <c r="C328" t="n">
         <v>3306</v>
       </c>
-      <c r="D325" t="inlineStr">
+      <c r="D328" t="inlineStr">
         <is>
           <t>0:55:06</t>
         </is>
       </c>
-      <c r="E325" t="n">
+      <c r="E328" t="n">
         <v>4958</v>
       </c>
-      <c r="F325" t="inlineStr">
+      <c r="F328" t="inlineStr">
         <is>
           <t>1:22:38</t>
         </is>
       </c>
-      <c r="G325" t="b">
-        <v>0</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G328" t="b">
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=insane_asylum</t>
         </is>
       </c>
-      <c r="I325" t="inlineStr">
+      <c r="I328" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12 February 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="13 February 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Conspiracy Residue RP</t>
+          <t>ELITE ACE TEAM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:11</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:16</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,12 +512,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=conspiracy_residue_rp</t>
+          <t>https://www.nationstates.net/region=elite_ace_team</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:00:43</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:39</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:40</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,23 +656,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:40</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:40</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:01:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:01:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:01:00</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:00:48</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:13</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:13</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:13</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2456,23 +2456,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:34</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2747,23 +2747,23 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2829,19 +2829,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2952,19 +2952,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2984,28 +2984,28 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Mutually Assured Posting</t>
+          <t>Kiansia Continent</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mutually_assured_posting</t>
+          <t>https://www.nationstates.net/region=kiansia_continent</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Kiansia Continent</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kiansia_continent</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The New Empire of Northern Ireland</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,19 +3136,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_new_empire_of_northern_ireland</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>The New Empire of Northern Ireland</t>
+          <t>Nova Evropa</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_empire_of_northern_ireland</t>
+          <t>https://www.nationstates.net/region=nova_evropa</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Nova Evropa</t>
+          <t>SUSSY DICTATORS UNITED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:04:03</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,40 +3218,40 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nova_evropa</t>
+          <t>https://www.nationstates.net/region=sussy_dictators_united</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>SUSSY DICTATORS UNITED</t>
+          <t>abortion</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sussy_dictators_united</t>
+          <t>https://www.nationstates.net/region=abortion</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>abortion</t>
+          <t>Kostenlos</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:04:19</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abortion</t>
+          <t>https://www.nationstates.net/region=kostenlos</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3312,28 +3312,28 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Kostenlos</t>
+          <t>Cid Archipelago Reserve</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:04:20</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,19 +3341,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kostenlos</t>
+          <t>https://www.nationstates.net/region=cid_archipelago_reserve</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Cid Archipelago Reserve</t>
+          <t>Water Water Everywhere But Not a Drop To</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3362,19 +3362,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:54</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:04:21</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,40 +3382,40 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cid_archipelago_reserve</t>
+          <t>https://www.nationstates.net/region=water_water_everywhere_but_not_a_drop_to</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Water Water Everywhere But Not a Drop To</t>
+          <t>Manchuria Conscription</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:54</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,19 +3423,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=water_water_everywhere_but_not_a_drop_to</t>
+          <t>https://www.nationstates.net/region=manchuria_conscription</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Manchuria Conscription</t>
+          <t>Piglandpoop</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3444,19 +3444,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:04:45</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,40 +3464,40 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=manchuria_conscription</t>
+          <t>https://www.nationstates.net/region=piglandpoop</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Idle Nations of the World</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,19 +3505,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=idle_nations_of_the_world</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Piglandpoop</t>
+          <t>Greater Alpines</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3526,19 +3526,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,40 +3546,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=piglandpoop</t>
+          <t>https://www.nationstates.net/region=greater_alpines</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Unitarian Union</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=unitarian_union</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Greater Alpines</t>
+          <t>Union of Democratic Republics</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3608,19 +3608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_alpines</t>
+          <t>https://www.nationstates.net/region=union_of_democratic_republics</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Unitarian Union</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unitarian_union</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Union of Democratic Republics</t>
+          <t>The Family</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:05:17</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_democratic_republics</t>
+          <t>https://www.nationstates.net/region=the_family</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>Teds Nationstate Emporium</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,40 +3751,40 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=teds_nationstate_emporium</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>abusing</t>
+          <t>The CCU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,19 +3792,19 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abusing</t>
+          <t>https://www.nationstates.net/region=the_ccu</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Teds Nationstate Emporium</t>
+          <t>Yavoriv</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3813,27 +3813,27 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=teds_nationstate_emporium</t>
+          <t>https://www.nationstates.net/region=yavoriv</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3845,28 +3845,28 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>The CCU</t>
+          <t>absolved</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:05:45</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,81 +3874,81 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_ccu</t>
+          <t>https://www.nationstates.net/region=absolved</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Yavoriv</t>
+          <t>Mykolaiv Raion</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:04:41</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yavoriv</t>
+          <t>https://www.nationstates.net/region=mykolaiv_raion</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>absolved</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:04:45</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolved</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Mykolaiv Raion</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,40 +3997,40 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mykolaiv_raion</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,40 +4038,40 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:05:00</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,40 +4079,40 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>300</v>
+        <v>373</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:05:00</t>
+          <t>0:06:13</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:04:10</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:05:07</t>
+          <t>0:06:15</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Egaliat</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=egaliat</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4223,19 +4223,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:06:17</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4255,28 +4255,28 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Egaliat</t>
+          <t>Coral Reef 8</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:06:19</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,19 +4284,19 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=egaliat</t>
+          <t>https://www.nationstates.net/region=coral_reef_8</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Taylor Swift Stans</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4305,27 +4305,27 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=taylor_swift_stans</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4337,28 +4337,28 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 8</t>
+          <t>Europeans union</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:04:14</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:05:11</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,40 +4366,40 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_8</t>
+          <t>https://www.nationstates.net/region=europeans_union</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Taylor Swift Stans</t>
+          <t>Buzzistan</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:04:14</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:05:13</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=taylor_swift_stans</t>
+          <t>https://www.nationstates.net/region=buzzistan</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4419,28 +4419,28 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Europeans union</t>
+          <t>NFT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:06:22</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europeans_union</t>
+          <t>https://www.nationstates.net/region=nft</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Buzzistan</t>
+          <t>The Solar System</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:06:22</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=buzzistan</t>
+          <t>https://www.nationstates.net/region=the_solar_system</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>NFT</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:04:23</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nft</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>The Solar System</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_solar_system</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>The Union of Rightwing Nations</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:03:42</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:05:33</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka, Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:05:34</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,40 +4653,40 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>The Union of Rightwing Nations</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:05:34</t>
+          <t>0:06:55</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Ijaka, Lily, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>Mokawawa</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:07:04</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,19 +4735,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=mokawawa</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Mokawawa</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4756,19 +4756,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:06:00</t>
+          <t>0:07:09</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,40 +4776,40 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mokawawa</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>Amesatiana</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:06:14</t>
+          <t>0:07:10</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=amesatiana</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Amesatiana</t>
+          <t>Dol Amroth</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:06:15</t>
+          <t>0:07:18</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,40 +4858,40 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=amesatiana</t>
+          <t>https://www.nationstates.net/region=dol_amroth</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>Jxa</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:04:14</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:07:19</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,40 +4899,40 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=jxa</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Jxa</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:07:59</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,81 +4940,81 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jxa</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nevil region</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>382</v>
+        <v>490</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:08:10</t>
         </is>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nevil_region</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Ataphia</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:04:38</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:06:57</t>
+          <t>0:08:10</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,40 +5022,40 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=ataphia</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>Kalush</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:04:44</t>
+          <t>0:05:31</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:07:06</t>
+          <t>0:08:17</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,19 +5063,19 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=kalush</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Kalush</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5084,19 +5084,19 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:07:11</t>
+          <t>0:08:25</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,19 +5104,19 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kalush</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Celtica</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5125,19 +5125,19 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>436</v>
+        <v>514</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:07:16</t>
+          <t>0:08:34</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=celtica</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5157,28 +5157,28 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Glory Universalis</t>
+          <t>NationStates Fanfics</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:05:22</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:08:03</t>
+          <t>0:09:13</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=glory_universalis</t>
+          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>NationStates Fanfics</t>
+          <t>Caprecia</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:08:05</t>
+          <t>0:09:13</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
+          <t>https://www.nationstates.net/region=caprecia</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Caprecia</t>
+          <t>Principality of Lyraidia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:06:10</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:08:05</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,19 +5268,19 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caprecia</t>
+          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Principality of Lyraidia</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5289,19 +5289,19 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:05:25</t>
+          <t>0:06:10</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:08:07</t>
+          <t>0:09:15</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>mason elemantery</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:06:14</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:08:08</t>
+          <t>0:09:21</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=mason_elemantery</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>mason elemantery</t>
+          <t>Tyrona</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5371,19 +5371,19 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>494</v>
+        <v>571</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:08:14</t>
+          <t>0:09:31</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,19 +5391,19 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mason_elemantery</t>
+          <t>https://www.nationstates.net/region=tyrona</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:08:28</t>
+          <t>0:09:32</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,81 +5432,81 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>The Crab Port</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:06:29</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:08:30</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=the_crab_port</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Caestaeleshamm</t>
+          <t>Union of National Freedom</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:06:56</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:10:24</t>
+          <t>0:09:53</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,53 +5514,53 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caestaeleshamm</t>
+          <t>https://www.nationstates.net/region=union_of_national_freedom</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>CBTO</t>
+          <t>Londinium</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:10:28</t>
+          <t>0:11:21</t>
         </is>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cbto</t>
+          <t>https://www.nationstates.net/region=londinium</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
@@ -5576,19 +5576,19 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:06:59</t>
+          <t>0:08:16</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>629</v>
+        <v>744</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:10:29</t>
+          <t>0:12:24</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5617,19 +5617,19 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:06:59</t>
+          <t>0:08:17</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>629</v>
+        <v>745</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:10:29</t>
+          <t>0:12:25</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5658,19 +5658,19 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>634</v>
+        <v>759</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:10:34</t>
+          <t>0:12:39</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5699,19 +5699,19 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>427</v>
+        <v>511</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:07:07</t>
+          <t>0:08:31</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>640</v>
+        <v>767</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:10:40</t>
+          <t>0:12:47</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5740,19 +5740,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:07:09</t>
+          <t>0:08:34</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>643</v>
+        <v>771</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:10:43</t>
+          <t>0:12:51</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5781,19 +5781,19 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:07:11</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>646</v>
+        <v>774</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:10:46</t>
+          <t>0:12:54</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5822,19 +5822,19 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:07:12</t>
+          <t>0:08:38</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>648</v>
+        <v>777</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:10:48</t>
+          <t>0:12:57</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5863,19 +5863,19 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>432</v>
+        <v>518</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:07:12</t>
+          <t>0:08:38</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>648</v>
+        <v>777</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:10:48</t>
+          <t>0:12:57</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5895,69 +5895,69 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>The Planes of Discord</t>
+          <t>Co Prosperity Commonwealth</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:07:27</t>
+          <t>0:08:42</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>670</v>
+        <v>784</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:11:10</t>
+          <t>0:13:04</t>
         </is>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
+          <t>https://www.nationstates.net/region=co_prosperity_commonwealth</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>The Planes of Discord</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:07:28</t>
+          <t>0:08:45</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>672</v>
+        <v>787</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:11:12</t>
+          <t>0:13:07</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,40 +5965,40 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Thr Embassy</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>673</v>
+        <v>791</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:11:13</t>
+          <t>0:13:11</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,40 +6006,40 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=thr_embassy</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>The Irish underwater</t>
+          <t>Thr Embassy</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>674</v>
+        <v>792</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:11:14</t>
+          <t>0:13:12</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_irish_underwater</t>
+          <t>https://www.nationstates.net/region=thr_embassy</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Dictators Of Nationstates</t>
+          <t>The Irish underwater</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:07:31</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>676</v>
+        <v>792</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:11:16</t>
+          <t>0:13:12</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,40 +6088,40 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dictators_of_nationstates</t>
+          <t>https://www.nationstates.net/region=the_irish_underwater</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>abrasively</t>
+          <t>Dictators Of Nationstates</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:07:35</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>683</v>
+        <v>796</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:11:23</t>
+          <t>0:13:16</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abrasively</t>
+          <t>https://www.nationstates.net/region=dictators_of_nationstates</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Debate club</t>
+          <t>abrasively</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>643</v>
+        <v>535</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:10:43</t>
+          <t>0:08:55</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>965</v>
+        <v>802</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:16:05</t>
+          <t>0:13:22</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=debate_club</t>
+          <t>https://www.nationstates.net/region=abrasively</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>AnCap Alliance</t>
+          <t>Debate club</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>652</v>
+        <v>706</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:11:46</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>978</v>
+        <v>1060</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:16:18</t>
+          <t>0:17:40</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ancap_alliance</t>
+          <t>https://www.nationstates.net/region=debate_club</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -6223,28 +6223,28 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>AnCap Alliance</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:16:18</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,40 +6252,40 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=ancap_alliance</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:16:18</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,19 +6293,19 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6314,19 +6314,19 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:16:18</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,19 +6334,19 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6355,19 +6355,19 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:16:18</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,53 +6375,53 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Frozen Wastes of Ralarii</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:11:28</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1032</v>
+        <v>1075</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:17:12</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frozen_wastes_of_ralarii</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:11:32</t>
+          <t>0:12:29</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1037</v>
+        <v>1124</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:17:17</t>
+          <t>0:18:44</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6478,19 +6478,19 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>695</v>
+        <v>753</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:11:35</t>
+          <t>0:12:33</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1042</v>
+        <v>1129</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:17:22</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6519,19 +6519,19 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>696</v>
+        <v>753</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:12:33</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1043</v>
+        <v>1130</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:17:23</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6560,19 +6560,19 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>696</v>
+        <v>753</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:12:33</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1043</v>
+        <v>1130</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:17:23</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6601,19 +6601,19 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>696</v>
+        <v>754</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:12:34</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1044</v>
+        <v>1131</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:17:24</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6642,19 +6642,19 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>697</v>
+        <v>755</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:11:37</t>
+          <t>0:12:35</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1045</v>
+        <v>1132</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:17:25</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6683,19 +6683,19 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>698</v>
+        <v>756</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:12:36</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1046</v>
+        <v>1134</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:17:26</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6724,19 +6724,19 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>699</v>
+        <v>757</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:11:39</t>
+          <t>0:12:37</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1049</v>
+        <v>1136</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:17:29</t>
+          <t>0:18:56</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6765,19 +6765,19 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>706</v>
+        <v>760</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:11:46</t>
+          <t>0:12:40</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1059</v>
+        <v>1141</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6806,19 +6806,19 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0:11:47</t>
+          <t>0:12:42</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1061</v>
+        <v>1143</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0:17:41</t>
+          <t>0:19:03</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6847,19 +6847,19 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:11:47</t>
+          <t>0:12:42</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1061</v>
+        <v>1143</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:17:41</t>
+          <t>0:19:03</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6888,19 +6888,19 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>708</v>
+        <v>762</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0:11:48</t>
+          <t>0:12:42</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1062</v>
+        <v>1143</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0:17:42</t>
+          <t>0:19:03</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6920,28 +6920,28 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Kamianets Podilskyi</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>808</v>
+        <v>1025</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:17:05</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1212</v>
+        <v>1538</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:20:12</t>
+          <t>0:25:38</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kamianets_podilskyi</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Shevchenko</t>
+          <t>Ballers</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>823</v>
+        <v>1052</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:13:43</t>
+          <t>0:17:32</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1235</v>
+        <v>1578</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:20:35</t>
+          <t>0:26:18</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,40 +6990,40 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shevchenko</t>
+          <t>https://www.nationstates.net/region=ballers</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Mountair Card System</t>
+          <t>Techno gays</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>961</v>
+        <v>1054</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0:16:01</t>
+          <t>0:17:34</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1442</v>
+        <v>1581</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0:24:02</t>
+          <t>0:26:21</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mountair_card_system</t>
+          <t>https://www.nationstates.net/region=techno_gays</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7043,28 +7043,28 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>Union of Xitizian States</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>994</v>
+        <v>1080</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:16:34</t>
+          <t>0:18:00</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1492</v>
+        <v>1620</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:24:52</t>
+          <t>0:27:00</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,40 +7072,40 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=union_of_xitizian_states</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>Blood and Iron Community of States</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1023</v>
+        <v>1081</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:17:03</t>
+          <t>0:18:01</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1534</v>
+        <v>1621</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:25:34</t>
+          <t>0:27:01</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,40 +7113,40 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Ballers</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1024</v>
+        <v>1083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:17:04</t>
+          <t>0:18:03</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1536</v>
+        <v>1625</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:25:36</t>
+          <t>0:27:05</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,40 +7154,40 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballers</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Techno gays</t>
+          <t>The Royal Sovereign Nations</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1025</v>
+        <v>1083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:17:05</t>
+          <t>0:18:03</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1538</v>
+        <v>1625</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:25:38</t>
+          <t>0:27:05</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,19 +7195,19 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=techno_gays</t>
+          <t>https://www.nationstates.net/region=the_royal_sovereign_nations</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>From The End</t>
+          <t>Banject Bois</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7216,27 +7216,27 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1045</v>
+        <v>1085</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:17:25</t>
+          <t>0:18:05</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1568</v>
+        <v>1627</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:26:08</t>
+          <t>0:27:07</t>
         </is>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=from_the_end</t>
+          <t>https://www.nationstates.net/region=banject_bois</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -7248,28 +7248,28 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Union of Xitizian States</t>
+          <t>United countrys</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1056</v>
+        <v>1102</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:17:36</t>
+          <t>0:18:22</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1583</v>
+        <v>1653</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:26:23</t>
+          <t>0:27:33</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,19 +7277,19 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_xitizian_states</t>
+          <t>https://www.nationstates.net/region=united_countrys</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Blood and Iron Community of States</t>
+          <t>Alvindor</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7298,19 +7298,19 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1056</v>
+        <v>1103</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:17:36</t>
+          <t>0:18:23</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1583</v>
+        <v>1655</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:26:23</t>
+          <t>0:27:35</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,60 +7318,60 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
+          <t>https://www.nationstates.net/region=alvindor</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>The Union Of Republics</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1058</v>
+        <v>1157</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:17:38</t>
+          <t>0:19:17</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1586</v>
+        <v>1736</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:26:26</t>
+          <t>0:28:56</t>
         </is>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=the_union_of_republics</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>The Royal Sovereign Nations</t>
+          <t>The Collective of Blue Footed Booby Fans</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7380,19 +7380,19 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1058</v>
+        <v>1174</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:17:38</t>
+          <t>0:19:34</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1586</v>
+        <v>1761</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:26:26</t>
+          <t>0:29:21</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,40 +7400,40 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_royal_sovereign_nations</t>
+          <t>https://www.nationstates.net/region=the_collective_of_blue_footed_booby_fans</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Banject Bois</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1059</v>
+        <v>1175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:19:35</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1588</v>
+        <v>1763</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:26:28</t>
+          <t>0:29:23</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7441,40 +7441,40 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=banject_bois</t>
+          <t>https://www.nationstates.net/region=karlovy_vary</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>to be forgotten</t>
+          <t>Za Za garden</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1078</v>
+        <v>1179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:17:58</t>
+          <t>0:19:39</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1617</v>
+        <v>1769</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:26:57</t>
+          <t>0:29:29</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,40 +7482,40 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=to_be_forgotten</t>
+          <t>https://www.nationstates.net/region=za_za_garden</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>United countrys</t>
+          <t>Unirea Popoarelor Marii</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1078</v>
+        <v>1191</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:17:58</t>
+          <t>0:19:51</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1618</v>
+        <v>1787</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:26:58</t>
+          <t>0:29:47</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7523,19 +7523,19 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_countrys</t>
+          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>Palos</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7544,19 +7544,19 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1079</v>
+        <v>1192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:17:59</t>
+          <t>0:19:52</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1619</v>
+        <v>1788</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:26:59</t>
+          <t>0:29:48</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,40 +7564,40 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=palos</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Kingdomofnorth</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1130</v>
+        <v>1193</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:19:53</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1695</v>
+        <v>1789</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0:28:15</t>
+          <t>0:29:49</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -7605,40 +7605,40 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kingdomofnorth</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Trebuchet Storage</t>
+          <t>Allied Nations of Glioca</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1138</v>
+        <v>1194</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0:18:58</t>
+          <t>0:19:54</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1707</v>
+        <v>1791</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0:28:27</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -7646,81 +7646,81 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trebuchet_storage</t>
+          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Ijaka</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>The Union Of Republics</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1140</v>
+        <v>1194</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:19:00</t>
+          <t>0:19:54</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1710</v>
+        <v>1791</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:28:30</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_republics</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>The Collective of Blue Footed Booby Fans</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1173</v>
+        <v>1195</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:19:33</t>
+          <t>0:19:55</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1759</v>
+        <v>1793</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:29:19</t>
+          <t>0:29:53</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7728,19 +7728,19 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective_of_blue_footed_booby_fans</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7749,19 +7749,19 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1174</v>
+        <v>1197</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0:19:34</t>
+          <t>0:19:57</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1761</v>
+        <v>1795</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:29:21</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7769,40 +7769,40 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=karlovy_vary</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Techno Union</t>
+          <t>Gardenia Botanicum</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1183</v>
+        <v>1197</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:19:43</t>
+          <t>0:19:57</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1774</v>
+        <v>1796</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:29:34</t>
+          <t>0:29:56</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,40 +7810,40 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=techno_union</t>
+          <t>https://www.nationstates.net/region=gardenia_botanicum</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Berdyansk</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1184</v>
+        <v>1198</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1776</v>
+        <v>1798</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:29:36</t>
+          <t>0:29:58</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,40 +7851,40 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=berdyansk</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Unirea Popoarelor Marii</t>
+          <t>Imperial Roman Coprosperity Sphere</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:19:47</t>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1781</v>
+        <v>1798</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:29:41</t>
+          <t>0:29:58</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,40 +7892,40 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
+          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Lily</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Palos</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1188</v>
+        <v>1199</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:19:48</t>
+          <t>0:19:59</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:29:42</t>
+          <t>0:29:59</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,40 +7933,40 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=palos</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Nizhyn</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1188</v>
+        <v>1202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0:19:48</t>
+          <t>0:20:02</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1782</v>
+        <v>1804</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0:29:42</t>
+          <t>0:30:04</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -7974,40 +7974,40 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=nizhyn</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Allied Nations of Glioca</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:19:49</t>
+          <t>0:20:04</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1784</v>
+        <v>1805</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:29:44</t>
+          <t>0:30:05</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,19 +8015,19 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>EPSA, Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Janiphoria</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8036,19 +8036,19 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1189</v>
+        <v>1217</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:19:49</t>
+          <t>0:20:17</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1784</v>
+        <v>1825</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:29:44</t>
+          <t>0:30:25</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,19 +8056,19 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=janiphoria</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>Garboville</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8077,19 +8077,19 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1191</v>
+        <v>1220</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:19:51</t>
+          <t>0:20:20</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1786</v>
+        <v>1831</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:29:46</t>
+          <t>0:30:31</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -8097,81 +8097,81 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=garboville</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>The Farting Morons of East Crapland</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1191</v>
+        <v>1221</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0:19:51</t>
+          <t>0:20:21</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1787</v>
+        <v>1832</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0:29:47</t>
+          <t>0:30:32</t>
         </is>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=the_farting_morons_of_east_crapland</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Gardenia Botanicum</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1192</v>
+        <v>1291</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0:19:52</t>
+          <t>0:21:31</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1788</v>
+        <v>1937</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0:29:48</t>
+          <t>0:32:17</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -8179,40 +8179,40 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gardenia_botanicum</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>Fastiv</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1193</v>
+        <v>1321</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0:19:53</t>
+          <t>0:22:01</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1789</v>
+        <v>1982</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>0:29:49</t>
+          <t>0:33:02</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -8220,40 +8220,40 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=fastiv</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>The Breadlands</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1193</v>
+        <v>1325</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0:19:53</t>
+          <t>0:22:05</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1789</v>
+        <v>1987</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0:29:49</t>
+          <t>0:33:07</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -8261,40 +8261,40 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=the_breadlands</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Ijaka, Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>The New American Wasteland</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1193</v>
+        <v>1339</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0:19:53</t>
+          <t>0:22:19</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1790</v>
+        <v>2008</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0:29:50</t>
+          <t>0:33:28</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -8302,40 +8302,40 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=the_new_american_wasteland</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Nizhyn</t>
+          <t>The Pines</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1196</v>
+        <v>1344</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0:19:56</t>
+          <t>0:22:24</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1793</v>
+        <v>2016</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0:29:53</t>
+          <t>0:33:36</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -8343,40 +8343,40 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nizhyn</t>
+          <t>https://www.nationstates.net/region=the_pines</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>New Cyngland</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1196</v>
+        <v>1359</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0:19:56</t>
+          <t>0:22:39</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1794</v>
+        <v>2038</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0:29:54</t>
+          <t>0:33:58</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -8384,19 +8384,19 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=new_cyngland</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>LWU</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Janiphoria</t>
+          <t>Shchastia</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8405,19 +8405,19 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1213</v>
+        <v>1360</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0:20:13</t>
+          <t>0:22:40</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1820</v>
+        <v>2040</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0:30:20</t>
+          <t>0:34:00</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -8425,40 +8425,40 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=janiphoria</t>
+          <t>https://www.nationstates.net/region=shchastia</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Garboville</t>
+          <t>accentuated</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1216</v>
+        <v>1382</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0:20:16</t>
+          <t>0:23:02</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1825</v>
+        <v>2074</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>0:30:25</t>
+          <t>0:34:34</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -8466,19 +8466,19 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=garboville</t>
+          <t>https://www.nationstates.net/region=accentuated</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>The Farting Morons of East Crapland</t>
+          <t>Bigtopia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8487,19 +8487,19 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1217</v>
+        <v>1388</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0:20:17</t>
+          <t>0:23:08</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1826</v>
+        <v>2081</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>0:30:26</t>
+          <t>0:34:41</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -8507,19 +8507,19 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_farting_morons_of_east_crapland</t>
+          <t>https://www.nationstates.net/region=bigtopia</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The Alternate Community</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -8528,19 +8528,19 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1310</v>
+        <v>1390</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0:21:50</t>
+          <t>0:23:10</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1965</v>
+        <v>2084</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>0:32:45</t>
+          <t>0:34:44</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -8548,19 +8548,19 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_alternate_community</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Hykandia</t>
+          <t>Europe of De Jota</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -8569,19 +8569,19 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1344</v>
+        <v>1400</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0:22:24</t>
+          <t>0:23:20</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2016</v>
+        <v>2100</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0:33:36</t>
+          <t>0:35:00</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -8589,19 +8589,19 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hykandia</t>
+          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Fastiv</t>
+          <t>Flesh Pit</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8610,19 +8610,19 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1344</v>
+        <v>1403</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0:22:24</t>
+          <t>0:23:23</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2016</v>
+        <v>2105</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0:33:36</t>
+          <t>0:35:05</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -8630,40 +8630,40 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
+          <t>https://www.nationstates.net/region=flesh_pit</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>The Breadlands</t>
+          <t>Deezer Sea</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1346</v>
+        <v>1875</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0:22:26</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2019</v>
+        <v>2813</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>0:33:39</t>
+          <t>0:46:53</t>
         </is>
       </c>
       <c r="G201" t="b">
@@ -8671,60 +8671,60 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_breadlands</t>
+          <t>https://www.nationstates.net/region=deezer_sea</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>The Free Coalition</t>
+          <t>The great region of Eli</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1360</v>
+        <v>1876</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0:22:40</t>
+          <t>0:31:16</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2041</v>
+        <v>2814</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>0:34:01</t>
+          <t>0:46:54</t>
         </is>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_free_coalition</t>
+          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>The New American Wasteland</t>
+          <t>Peoples Federation of Qandaristan</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -8733,19 +8733,19 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1360</v>
+        <v>1877</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0:22:40</t>
+          <t>0:31:17</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2041</v>
+        <v>2815</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>0:34:01</t>
+          <t>0:46:55</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -8753,40 +8753,40 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_american_wasteland</t>
+          <t>https://www.nationstates.net/region=peoples_federation_of_qandaristan</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>The Pines</t>
+          <t>killers of birds</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1365</v>
+        <v>1877</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0:22:45</t>
+          <t>0:31:17</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2048</v>
+        <v>2815</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0:34:08</t>
+          <t>0:46:55</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -8794,40 +8794,40 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_pines</t>
+          <t>https://www.nationstates.net/region=killers_of_birds</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>New Cyngland</t>
+          <t>Union of Independent Regions</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1377</v>
+        <v>1886</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0:22:57</t>
+          <t>0:31:26</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2066</v>
+        <v>2828</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>0:34:26</t>
+          <t>0:47:08</t>
         </is>
       </c>
       <c r="G205" t="b">
@@ -8835,19 +8835,19 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_cyngland</t>
+          <t>https://www.nationstates.net/region=union_of_independent_regions</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>LWU</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Shchastia</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -8856,19 +8856,19 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1379</v>
+        <v>1886</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0:22:59</t>
+          <t>0:31:26</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2069</v>
+        <v>2829</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0:34:29</t>
+          <t>0:47:09</t>
         </is>
       </c>
       <c r="G206" t="b">
@@ -8876,40 +8876,40 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shchastia</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Snow</t>
+          <t>The International Republic</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1401</v>
+        <v>1909</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0:23:21</t>
+          <t>0:31:49</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2102</v>
+        <v>2863</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>0:35:02</t>
+          <t>0:47:43</t>
         </is>
       </c>
       <c r="G207" t="b">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=snow</t>
+          <t>https://www.nationstates.net/region=the_international_republic</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -8929,28 +8929,28 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>accentuated</t>
+          <t>Free Nations of Polzone</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1411</v>
+        <v>1911</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0:23:31</t>
+          <t>0:31:51</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2117</v>
+        <v>2867</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>0:35:17</t>
+          <t>0:47:47</t>
         </is>
       </c>
       <c r="G208" t="b">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accentuated</t>
+          <t>https://www.nationstates.net/region=free_nations_of_polzone</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -8970,28 +8970,28 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Chratesia</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1418</v>
+        <v>1948</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0:23:38</t>
+          <t>0:32:28</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2126</v>
+        <v>2922</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0:35:26</t>
+          <t>0:48:42</t>
         </is>
       </c>
       <c r="G209" t="b">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=chratesia</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -9011,28 +9011,28 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>Lily 3 2</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1433</v>
+        <v>1954</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0:23:53</t>
+          <t>0:32:34</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2150</v>
+        <v>2931</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>0:35:50</t>
+          <t>0:48:51</t>
         </is>
       </c>
       <c r="G210" t="b">
@@ -9040,19 +9040,19 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=lily_3_2</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Flesh Pit</t>
+          <t>Megacorp</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1436</v>
+        <v>1955</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0:23:56</t>
+          <t>0:32:35</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2155</v>
+        <v>2933</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>0:35:55</t>
+          <t>0:48:53</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -9081,40 +9081,40 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flesh_pit</t>
+          <t>https://www.nationstates.net/region=megacorp</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>abreast</t>
+          <t>Madyan</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1815</v>
+        <v>1955</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0:30:15</t>
+          <t>0:32:35</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2723</v>
+        <v>2933</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>0:45:23</t>
+          <t>0:48:53</t>
         </is>
       </c>
       <c r="G212" t="b">
@@ -9122,40 +9122,40 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abreast</t>
+          <t>https://www.nationstates.net/region=madyan</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>shimon</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1849</v>
+        <v>2245</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:37:25</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2774</v>
+        <v>3368</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0:46:14</t>
+          <t>0:56:08</t>
         </is>
       </c>
       <c r="G213" t="b">
@@ -9163,40 +9163,40 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shimon</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Weed Nation</t>
+          <t>The Republic Union</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1948</v>
+        <v>2282</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0:32:28</t>
+          <t>0:38:02</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2922</v>
+        <v>3424</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>0:48:42</t>
+          <t>0:57:04</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -9204,40 +9204,40 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=weed_nation</t>
+          <t>https://www.nationstates.net/region=the_republic_union</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Uzhhorod</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1950</v>
+        <v>2286</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:38:06</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2926</v>
+        <v>3430</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0:48:46</t>
+          <t>0:57:10</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -9245,40 +9245,40 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzhhorod</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Deezer Sea</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1950</v>
+        <v>2290</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:38:10</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2926</v>
+        <v>3435</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>0:48:46</t>
+          <t>0:57:15</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -9286,40 +9286,40 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=deezer_sea</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>The great region of Eli</t>
+          <t>World Liberation Front</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1951</v>
+        <v>2629</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0:32:31</t>
+          <t>0:43:49</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2927</v>
+        <v>3943</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>0:48:47</t>
+          <t>1:05:43</t>
         </is>
       </c>
       <c r="G217" t="b">
@@ -9327,40 +9327,40 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
+          <t>https://www.nationstates.net/region=world_liberation_front</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Peoples Federation of Qandaristan</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1952</v>
+        <v>2636</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0:32:32</t>
+          <t>0:43:56</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2928</v>
+        <v>3954</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>0:48:48</t>
+          <t>1:05:54</t>
         </is>
       </c>
       <c r="G218" t="b">
@@ -9368,40 +9368,40 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=peoples_federation_of_qandaristan</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>killers of birds</t>
+          <t>Aukumnia</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1952</v>
+        <v>2655</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0:32:32</t>
+          <t>0:44:15</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2929</v>
+        <v>3982</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>0:48:49</t>
+          <t>1:06:22</t>
         </is>
       </c>
       <c r="G219" t="b">
@@ -9409,40 +9409,40 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=killers_of_birds</t>
+          <t>https://www.nationstates.net/region=aukumnia</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Union of Independent Regions</t>
+          <t>The New Pirate Republic</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1962</v>
+        <v>2656</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0:32:42</t>
+          <t>0:44:16</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2943</v>
+        <v>3983</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>0:49:03</t>
+          <t>1:06:23</t>
         </is>
       </c>
       <c r="G220" t="b">
@@ -9450,81 +9450,81 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_independent_regions</t>
+          <t>https://www.nationstates.net/region=the_new_pirate_republic</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The peoples of Africa</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1962</v>
+        <v>2668</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0:32:42</t>
+          <t>0:44:28</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2944</v>
+        <v>4002</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>0:49:04</t>
+          <t>1:06:42</t>
         </is>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_peoples_of_africa</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>The International Republic</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1985</v>
+        <v>2865</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0:33:05</t>
+          <t>0:47:45</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2977</v>
+        <v>4297</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>1:11:37</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -9532,40 +9532,40 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_international_republic</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Free Nations of Polzone</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1989</v>
+        <v>2911</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0:33:09</t>
+          <t>0:48:31</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2984</v>
+        <v>4367</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>0:49:44</t>
+          <t>1:12:47</t>
         </is>
       </c>
       <c r="G223" t="b">
@@ -9573,81 +9573,81 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=free_nations_of_polzone</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Cathloican Spanish</t>
+          <t>Vinnytsia Raion</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2008</v>
+        <v>2935</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0:33:28</t>
+          <t>0:48:55</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>3012</v>
+        <v>4403</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>0:50:12</t>
+          <t>1:13:23</t>
         </is>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cathloican_spanish</t>
+          <t>https://www.nationstates.net/region=vinnytsia_raion</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Chratesia</t>
+          <t>Socialist Assembly</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2022</v>
+        <v>2945</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0:33:42</t>
+          <t>0:49:05</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3033</v>
+        <v>4418</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>0:50:33</t>
+          <t>1:13:38</t>
         </is>
       </c>
       <c r="G225" t="b">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chratesia</t>
+          <t>https://www.nationstates.net/region=socialist_assembly</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -9667,28 +9667,28 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Lily 3 2</t>
+          <t>2004 Jeep Liberty</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2026</v>
+        <v>3189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0:33:46</t>
+          <t>0:53:09</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>3040</v>
+        <v>4783</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>0:50:40</t>
+          <t>1:19:43</t>
         </is>
       </c>
       <c r="G226" t="b">
@@ -9696,81 +9696,81 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lily_3_2</t>
+          <t>https://www.nationstates.net/region=2004_jeep_liberty</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Megacorp</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2030</v>
+        <v>3189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0:33:50</t>
+          <t>0:53:09</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>3045</v>
+        <v>4783</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>0:50:45</t>
+          <t>1:19:43</t>
         </is>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=megacorp</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Madyan</t>
+          <t>United Nasia</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2030</v>
+        <v>3363</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0:33:50</t>
+          <t>0:56:03</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3046</v>
+        <v>5045</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0:50:46</t>
+          <t>1:24:05</t>
         </is>
       </c>
       <c r="G228" t="b">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=madyan</t>
+          <t>https://www.nationstates.net/region=united_nasia</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -9790,28 +9790,28 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Ecrosia</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2113</v>
+        <v>3448</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0:35:13</t>
+          <t>0:57:28</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3170</v>
+        <v>5172</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0:52:50</t>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="G229" t="b">
@@ -9819,832 +9819,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ecrosia</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>2310</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>0:38:30</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>3465</v>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>0:57:45</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>North Star Union</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>2322</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>0:38:42</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>3483</v>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>0:58:03</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=north_star_union</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>The Republic Union</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>2347</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>0:39:07</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>3520</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>0:58:40</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_republic_union</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>2351</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>0:39:11</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>3526</v>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>0:58:46</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>2354</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>0:39:14</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>3531</v>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>0:58:51</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>Druids</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>2358</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>0:39:18</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>3537</v>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>0:58:57</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=druids</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>World Liberation Front</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>2697</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>0:44:57</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>4046</v>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>1:07:26</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>0</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=world_liberation_front</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>2705</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>0:45:05</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>4058</v>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>1:07:38</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>0</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>Aukumnia</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>2723</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>0:45:23</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>4085</v>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>1:08:05</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>0</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=aukumnia</t>
-        </is>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>The peoples of Africa</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>2733</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>4099</v>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>1:08:19</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_peoples_of_africa</t>
-        </is>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>Sheepland</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>2879</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>0:47:59</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>4319</v>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>1:11:59</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>0</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=sheepland</t>
-        </is>
-      </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>2890</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>0:48:10</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>4335</v>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>1:12:15</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>SpacePizza Coralation</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>2935</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>0:48:55</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>4403</v>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>1:13:23</t>
-        </is>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>BoM, Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>2937</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>0:48:57</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>4406</v>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>1:13:26</t>
-        </is>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>Vinnytsia Raion</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>2963</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>0:49:23</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>4444</v>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>1:14:04</t>
-        </is>
-      </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=vinnytsia_raion</t>
-        </is>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>Socialist Assembly</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>2971</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>0:49:31</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>4456</v>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>1:14:16</t>
-        </is>
-      </c>
-      <c r="G245" t="b">
-        <v>0</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=socialist_assembly</t>
-        </is>
-      </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>Lemonea</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>0:49:58</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>4497</v>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>1:14:57</t>
-        </is>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=lemonea</t>
-        </is>
-      </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>2004 Jeep Liberty</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>3182</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>0:53:02</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>4773</v>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>1:19:33</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=2004_jeep_liberty</t>
-        </is>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>3182</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>0:53:02</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>4773</v>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>1:19:33</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>United Nasia</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>3340</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>0:55:40</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>5010</v>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>1:23:30</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=united_nasia</t>
-        </is>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>EPSA</t>
+          <t>EPSA, Lily</t>
         </is>
       </c>
     </row>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C207" t="n">

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="23 February 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="24 February 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0:00:05</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0:00:07</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:09</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:13</t>
+          <t>0:00:07</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:40</t>
+          <t>0:00:42</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:43</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:48</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:48</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:00:51</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:00:52</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:13</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:00:51</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:00:51</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:24</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:02:36</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:02:42</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2829,19 +2829,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2952,19 +2952,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2993,19 +2993,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3034,19 +3034,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3075,19 +3075,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3239,19 +3239,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3271,28 +3271,28 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>The Skylands</t>
+          <t>Greater Alpines</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_skylands</t>
+          <t>https://www.nationstates.net/region=greater_alpines</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Greater Alpines</t>
+          <t>Unitarian Union</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_alpines</t>
+          <t>https://www.nationstates.net/region=unitarian_union</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3353,28 +3353,28 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Unitarian Union</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,19 +3382,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unitarian_union</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,19 +3423,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>absolved</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3444,19 +3444,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,40 +3464,40 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=absolved</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>The CCU</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:05:23</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,40 +3505,40 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_ccu</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>absolved</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:04:44</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolved</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3558,28 +3558,28 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Mykolaiv Raion</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mykolaiv_raion</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,19 +3710,19 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3731,19 +3731,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,40 +3751,40 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:04:58</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:05:41</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,40 +3833,40 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Coral Reef 8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=coral_reef_8</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3886,7 +3886,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Europeans union</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=europeans_union</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3927,28 +3927,28 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 8</t>
+          <t>Peekaboo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,19 +3997,19 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_8</t>
+          <t>https://www.nationstates.net/region=peekaboo</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Europeans union</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4018,27 +4018,27 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europeans_union</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4050,28 +4050,28 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Buzzistan</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,40 +4079,40 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=buzzistan</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>The Union of Rightwing Nations</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Ijaka, Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Peekaboo</t>
+          <t>The Based Region</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:05:12</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=peekaboo</t>
+          <t>https://www.nationstates.net/region=the_based_region</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Coincidentinent</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:06:10</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,40 +4202,40 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coincidentinent</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,40 +4243,40 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:03:34</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>320</v>
+        <v>433</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:05:20</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,40 +4284,40 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>The Union of Rightwing Nations</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:03:34</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:05:20</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Ijaka, Lily, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>Order of Odas</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>326</v>
+        <v>440</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,40 +4366,40 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=order_of_odas</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>The Based Region</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:05:34</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,19 +4407,19 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_based_region</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>Kalush</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4428,19 +4428,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:04:54</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:07:21</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=kalush</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Jxa</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:58</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:07:27</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jxa</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>NationStates Fanfics</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>370</v>
+        <v>507</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:06:10</t>
+          <t>0:08:27</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Caprecia</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>397</v>
+        <v>507</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:08:27</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=caprecia</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>Principality of Lyraidia</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>398</v>
+        <v>508</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:06:38</t>
+          <t>0:08:28</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Ataphia</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>398</v>
+        <v>508</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:06:38</t>
+          <t>0:08:28</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,40 +4653,40 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ataphia</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Order of Odas</t>
+          <t>mason elemantery</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:04:29</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>404</v>
+        <v>515</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:06:44</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=order_of_odas</t>
+          <t>https://www.nationstates.net/region=mason_elemantery</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>The Greater Skytanian Reich</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:04:29</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>404</v>
+        <v>517</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:06:44</t>
+          <t>0:08:37</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,40 +4735,40 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=the_greater_skytanian_reich</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Kalush</t>
+          <t>Tyrona</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:04:29</t>
+          <t>0:05:49</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>404</v>
+        <v>524</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:06:44</t>
+          <t>0:08:44</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,40 +4776,40 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kalush</t>
+          <t>https://www.nationstates.net/region=tyrona</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:04:34</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:08:45</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Imperial republics</t>
+          <t>League of Arabia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>463</v>
+        <v>680</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:07:43</t>
+          <t>0:11:20</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,19 +4858,19 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_republics</t>
+          <t>https://www.nationstates.net/region=league_of_arabia</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NationStates Fanfics</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4879,19 +4879,19 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:07:38</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>465</v>
+        <v>688</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:07:45</t>
+          <t>0:11:28</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,40 +4899,40 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Caprecia</t>
+          <t>Eastatic</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:07:39</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>465</v>
+        <v>689</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:07:45</t>
+          <t>0:11:29</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,40 +4940,40 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caprecia</t>
+          <t>https://www.nationstates.net/region=eastatic</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Principality of Lyraidia</t>
+          <t>Metal Slug</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:05:12</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>468</v>
+        <v>693</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:07:48</t>
+          <t>0:11:33</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
+          <t>https://www.nationstates.net/region=metal_slug</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -4993,28 +4993,28 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:05:12</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>468</v>
+        <v>693</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:07:48</t>
+          <t>0:11:33</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,19 +5022,19 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>mason elemantery</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5043,19 +5043,19 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>317</v>
+        <v>464</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:07:44</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>475</v>
+        <v>696</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:07:55</t>
+          <t>0:11:36</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,19 +5063,19 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mason_elemantery</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>The Greater Skytanian Reich</t>
+          <t>The Average Confederacy</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5084,19 +5084,19 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>317</v>
+        <v>465</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:07:45</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>476</v>
+        <v>698</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,40 +5104,40 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_skytanian_reich</t>
+          <t>https://www.nationstates.net/region=the_average_confederacy</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>Alma Mater</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>323</v>
+        <v>465</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:07:45</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>484</v>
+        <v>698</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,40 +5145,40 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=alma_mater</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>323</v>
+        <v>467</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:07:47</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>485</v>
+        <v>701</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:08:05</t>
+          <t>0:11:41</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Deep Sea 5</t>
+          <t>Kasterborous</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:07:49</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>511</v>
+        <v>704</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:08:31</t>
+          <t>0:11:44</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=deep_sea_5</t>
+          <t>https://www.nationstates.net/region=kasterborous</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Asphalt</t>
+          <t>The Planes of Discord</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:07:54</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:10:28</t>
+          <t>0:11:51</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,19 +5268,19 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=asphalt</t>
+          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>League of Arabia</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5289,19 +5289,19 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:07:00</t>
+          <t>0:07:56</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>630</v>
+        <v>714</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:10:30</t>
+          <t>0:11:54</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=league_of_arabia</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>AnCap Alliance</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>426</v>
+        <v>698</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:07:06</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>640</v>
+        <v>1046</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:10:40</t>
+          <t>0:17:26</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=ancap_alliance</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Eastatic</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>426</v>
+        <v>698</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:07:06</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>640</v>
+        <v>1047</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:10:40</t>
+          <t>0:17:27</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,40 +5391,40 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastatic</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Metal Slug</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>429</v>
+        <v>698</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:07:09</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>644</v>
+        <v>1047</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:10:44</t>
+          <t>0:17:27</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=metal_slug</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>429</v>
+        <v>698</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:07:09</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>644</v>
+        <v>1047</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:10:44</t>
+          <t>0:17:27</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>431</v>
+        <v>698</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:07:11</t>
+          <t>0:11:38</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>647</v>
+        <v>1047</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:10:47</t>
+          <t>0:17:27</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>The Average Confederacy</t>
+          <t>the roman north german confederation</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>433</v>
+        <v>740</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>650</v>
+        <v>1110</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:10:50</t>
+          <t>0:18:30</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_average_confederacy</t>
+          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -5567,28 +5567,28 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Alma Mater</t>
+          <t>Lutsk</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>433</v>
+        <v>741</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:12:21</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>650</v>
+        <v>1112</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:10:50</t>
+          <t>0:18:32</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,40 +5596,40 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alma_mater</t>
+          <t>https://www.nationstates.net/region=lutsk</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>435</v>
+        <v>743</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:12:23</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>653</v>
+        <v>1114</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:10:53</t>
+          <t>0:18:34</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Kasterborous</t>
+          <t>Haisyn</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>440</v>
+        <v>748</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:12:28</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>660</v>
+        <v>1122</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:11:00</t>
+          <t>0:18:42</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kasterborous</t>
+          <t>https://www.nationstates.net/region=haisyn</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>The Planes of Discord</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>445</v>
+        <v>750</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:07:25</t>
+          <t>0:12:30</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>667</v>
+        <v>1125</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:11:07</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,19 +5719,19 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5740,19 +5740,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>448</v>
+        <v>750</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:07:28</t>
+          <t>0:12:30</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>672</v>
+        <v>1125</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:11:12</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -5772,28 +5772,28 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Moonlighters</t>
+          <t>Super Metroid</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>658</v>
+        <v>751</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:10:58</t>
+          <t>0:12:31</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>987</v>
+        <v>1126</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:16:27</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,40 +5801,40 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=moonlighters</t>
+          <t>https://www.nationstates.net/region=super_metroid</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>AnCap Alliance</t>
+          <t>E 206</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>660</v>
+        <v>754</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:11:00</t>
+          <t>0:12:34</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>989</v>
+        <v>1130</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:16:29</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,40 +5842,40 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ancap_alliance</t>
+          <t>https://www.nationstates.net/region=e_206</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>GODZONE</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:11:00</t>
+          <t>0:12:40</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>990</v>
+        <v>1139</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:16:30</t>
+          <t>0:18:59</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,19 +5883,19 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=godzone</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5904,19 +5904,19 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:11:00</t>
+          <t>0:12:41</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>990</v>
+        <v>1141</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:16:30</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,40 +5924,40 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=tmo</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>Alborada</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>660</v>
+        <v>845</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:11:00</t>
+          <t>0:14:05</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>990</v>
+        <v>1268</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:16:30</t>
+          <t>0:21:08</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,40 +5965,40 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=alborada</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>The Catholic Alliance</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>660</v>
+        <v>1044</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:11:00</t>
+          <t>0:17:24</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>990</v>
+        <v>1566</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:16:30</t>
+          <t>0:26:06</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,40 +6006,40 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=the_catholic_alliance</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>abundant</t>
+          <t>Scandinava</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>705</v>
+        <v>1051</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:11:45</t>
+          <t>0:17:31</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1058</v>
+        <v>1577</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:17:38</t>
+          <t>0:26:17</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abundant</t>
+          <t>https://www.nationstates.net/region=scandinava</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>the roman north german confederation</t>
+          <t>Acta non verba</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>706</v>
+        <v>1059</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:11:46</t>
+          <t>0:17:39</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1059</v>
+        <v>1588</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:26:28</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,40 +6088,40 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
+          <t>https://www.nationstates.net/region=acta_non_verba</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Lutsk</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>707</v>
+        <v>1069</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:11:47</t>
+          <t>0:17:49</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1060</v>
+        <v>1604</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:17:40</t>
+          <t>0:26:44</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lutsk</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>The Region of Syuceton</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>708</v>
+        <v>1081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:11:48</t>
+          <t>0:18:01</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1062</v>
+        <v>1622</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:17:42</t>
+          <t>0:27:02</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=the_region_of_syuceton</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>The Council of Fantasian Masters</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>713</v>
+        <v>1091</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:11:53</t>
+          <t>0:18:11</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1070</v>
+        <v>1637</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:17:50</t>
+          <t>0:27:17</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,40 +6211,40 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=the_council_of_fantasian_masters</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>Tails Region</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>715</v>
+        <v>1109</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:11:55</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1072</v>
+        <v>1663</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:17:52</t>
+          <t>0:27:43</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,40 +6252,40 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=tails_region</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>715</v>
+        <v>1120</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:11:55</t>
+          <t>0:18:40</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1073</v>
+        <v>1679</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:17:53</t>
+          <t>0:27:59</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,19 +6293,19 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>Blood and Iron Community of States</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6314,19 +6314,19 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>716</v>
+        <v>1120</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:11:56</t>
+          <t>0:18:40</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1074</v>
+        <v>1680</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:17:54</t>
+          <t>0:28:00</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,19 +6334,19 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>E 206</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6355,19 +6355,19 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>718</v>
+        <v>1123</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:11:58</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1077</v>
+        <v>1684</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:17:57</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,40 +6375,40 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_206</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>GODZONE</t>
+          <t>Banject Bois</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>724</v>
+        <v>1124</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:12:04</t>
+          <t>0:18:44</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1086</v>
+        <v>1686</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:18:06</t>
+          <t>0:28:06</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -6416,40 +6416,40 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=godzone</t>
+          <t>https://www.nationstates.net/region=banject_bois</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>Ayo</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>726</v>
+        <v>1126</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1088</v>
+        <v>1688</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:18:08</t>
+          <t>0:28:08</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6457,40 +6457,40 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tmo</t>
+          <t>https://www.nationstates.net/region=ayo</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Gurman land</t>
+          <t>Antisocial League</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>788</v>
+        <v>1126</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:13:08</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1182</v>
+        <v>1688</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:19:42</t>
+          <t>0:28:08</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,40 +6498,40 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gurman_land</t>
+          <t>https://www.nationstates.net/region=antisocial_league</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Alborada</t>
+          <t>United countrys</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>802</v>
+        <v>1142</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:13:22</t>
+          <t>0:19:02</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1203</v>
+        <v>1714</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:20:03</t>
+          <t>0:28:34</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alborada</t>
+          <t>https://www.nationstates.net/region=united_countrys</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -6551,28 +6551,28 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>NatCons Crew</t>
+          <t>Alvindor</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>833</v>
+        <v>1143</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:13:53</t>
+          <t>0:19:03</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1249</v>
+        <v>1715</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:20:49</t>
+          <t>0:28:35</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,40 +6580,40 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=natcons_crew</t>
+          <t>https://www.nationstates.net/region=alvindor</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>The football</t>
+          <t>Onionistlands</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1091</v>
+        <v>1202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:18:11</t>
+          <t>0:20:02</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1637</v>
+        <v>1803</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:27:17</t>
+          <t>0:30:03</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_football</t>
+          <t>https://www.nationstates.net/region=onionistlands</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -6633,7 +6633,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>The Catholic Alliance</t>
+          <t>TURKISH GANG</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6642,19 +6642,19 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1092</v>
+        <v>1203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:18:12</t>
+          <t>0:20:03</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1638</v>
+        <v>1805</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:27:18</t>
+          <t>0:30:05</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6662,40 +6662,40 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_catholic_alliance</t>
+          <t>https://www.nationstates.net/region=turkish_gang</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Scandinava</t>
+          <t>Sandlands</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1098</v>
+        <v>1211</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:18:18</t>
+          <t>0:20:11</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1647</v>
+        <v>1816</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:27:27</t>
+          <t>0:30:16</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=scandinava</t>
+          <t>https://www.nationstates.net/region=sandlands</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6715,28 +6715,28 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1105</v>
+        <v>1215</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:18:25</t>
+          <t>0:20:15</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1657</v>
+        <v>1823</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:27:37</t>
+          <t>0:30:23</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6744,40 +6744,40 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=karlovy_vary</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Sunshine of Love</t>
+          <t>Baby</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1111</v>
+        <v>1223</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:18:31</t>
+          <t>0:20:23</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1666</v>
+        <v>1835</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:27:46</t>
+          <t>0:30:35</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6785,19 +6785,19 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sunshine_of_love</t>
+          <t>https://www.nationstates.net/region=baby</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6806,19 +6806,19 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1113</v>
+        <v>1224</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0:18:33</t>
+          <t>0:20:24</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1669</v>
+        <v>1836</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0:27:49</t>
+          <t>0:30:36</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6826,40 +6826,40 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>The Region of Syuceton</t>
+          <t>Unirea Popoarelor Marii</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1124</v>
+        <v>1227</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:20:27</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1685</v>
+        <v>1840</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:28:05</t>
+          <t>0:30:40</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6867,40 +6867,40 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_syuceton</t>
+          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>The Council of Fantasian Masters</t>
+          <t>Horsia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1133</v>
+        <v>1227</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0:18:53</t>
+          <t>0:20:27</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1700</v>
+        <v>1840</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0:28:20</t>
+          <t>0:30:40</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6908,40 +6908,40 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_council_of_fantasian_masters</t>
+          <t>https://www.nationstates.net/region=horsia</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Kantrias</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Tails Region</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1149</v>
+        <v>1228</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:19:09</t>
+          <t>0:20:28</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1723</v>
+        <v>1842</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:28:43</t>
+          <t>0:30:42</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tails_region</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>New memerica</t>
+          <t>Allied Nations of Glioca</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1149</v>
+        <v>1229</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:19:09</t>
+          <t>0:20:29</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1724</v>
+        <v>1844</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:28:44</t>
+          <t>0:30:44</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,40 +6990,40 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_memerica</t>
+          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1162</v>
+        <v>1229</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0:19:22</t>
+          <t>0:20:29</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1743</v>
+        <v>1844</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0:29:03</t>
+          <t>0:30:44</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -7031,40 +7031,40 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Blood and Iron Community of States</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1163</v>
+        <v>1231</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:19:23</t>
+          <t>0:20:31</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1745</v>
+        <v>1847</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:29:05</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,40 +7072,40 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1165</v>
+        <v>1233</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:19:25</t>
+          <t>0:20:33</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1748</v>
+        <v>1849</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:29:08</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,40 +7113,40 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Banject Bois</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1167</v>
+        <v>1235</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:19:27</t>
+          <t>0:20:35</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1750</v>
+        <v>1852</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:29:10</t>
+          <t>0:30:52</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,40 +7154,40 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=banject_bois</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Ayo</t>
+          <t>Imperial Roman Coprosperity Sphere</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1168</v>
+        <v>1235</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:19:28</t>
+          <t>0:20:35</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1752</v>
+        <v>1852</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:29:12</t>
+          <t>0:30:52</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,40 +7195,40 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ayo</t>
+          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Lily</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Antisocial League</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1168</v>
+        <v>1235</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:19:28</t>
+          <t>0:20:35</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1752</v>
+        <v>1853</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:29:12</t>
+          <t>0:30:53</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -7236,40 +7236,40 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=antisocial_league</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>United countrys</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1183</v>
+        <v>1240</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:19:43</t>
+          <t>0:20:40</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1774</v>
+        <v>1859</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:29:34</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,40 +7277,40 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_countrys</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1184</v>
+        <v>1243</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1775</v>
+        <v>1864</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:29:35</t>
+          <t>0:31:04</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,19 +7318,19 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>meth</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7339,19 +7339,19 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:20:46</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1847</v>
+        <v>1868</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:31:08</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -7359,19 +7359,19 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=meth</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Onionistlands</t>
+          <t>Besterest Region</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7380,19 +7380,19 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:20:39</t>
+          <t>0:20:56</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1858</v>
+        <v>1884</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:30:58</t>
+          <t>0:31:24</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=onionistlands</t>
+          <t>https://www.nationstates.net/region=besterest_region</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7412,28 +7412,28 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>TURKISH GANG</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1240</v>
+        <v>1327</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:20:40</t>
+          <t>0:22:07</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1860</v>
+        <v>1991</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:33:11</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7441,40 +7441,40 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=turkish_gang</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Sandlands</t>
+          <t>OEU</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1248</v>
+        <v>1334</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:20:48</t>
+          <t>0:22:14</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1871</v>
+        <v>2001</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:31:11</t>
+          <t>0:33:21</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sandlands</t>
+          <t>https://www.nationstates.net/region=oeu</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7494,28 +7494,28 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>Authoritariania</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1252</v>
+        <v>1351</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:20:52</t>
+          <t>0:22:31</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1877</v>
+        <v>2027</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:31:17</t>
+          <t>0:33:47</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7523,40 +7523,40 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=karlovy_vary</t>
+          <t>https://www.nationstates.net/region=authoritariania</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Baby</t>
+          <t>Fastiv</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1259</v>
+        <v>1357</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:20:59</t>
+          <t>0:22:37</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1889</v>
+        <v>2036</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:31:29</t>
+          <t>0:33:56</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,40 +7564,40 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=baby</t>
+          <t>https://www.nationstates.net/region=fastiv</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>unite the nations</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1260</v>
+        <v>1377</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0:21:00</t>
+          <t>0:22:57</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1890</v>
+        <v>2066</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0:31:30</t>
+          <t>0:34:26</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -7605,40 +7605,40 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=unite_the_nations</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Unirea Popoarelor Marii</t>
+          <t>The Pines</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1262</v>
+        <v>1382</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:23:02</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1894</v>
+        <v>2074</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0:31:34</t>
+          <t>0:34:34</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
+          <t>https://www.nationstates.net/region=the_pines</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Horsia</t>
+          <t>abusers</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7667,19 +7667,19 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1262</v>
+        <v>1385</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:23:05</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1894</v>
+        <v>2078</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:31:34</t>
+          <t>0:34:38</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=horsia</t>
+          <t>https://www.nationstates.net/region=abusers</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -7699,28 +7699,28 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Card2055</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1263</v>
+        <v>1393</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:21:03</t>
+          <t>0:23:13</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1895</v>
+        <v>2090</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:31:35</t>
+          <t>0:34:50</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7728,40 +7728,40 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=card2055</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Allied Nations of Glioca</t>
+          <t>Shchastia</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1264</v>
+        <v>1396</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0:21:04</t>
+          <t>0:23:16</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1897</v>
+        <v>2094</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:31:37</t>
+          <t>0:34:54</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7769,19 +7769,19 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
+          <t>https://www.nationstates.net/region=shchastia</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>EPSA, Ijaka, Sparkalia</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Seltanakorvasia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7790,19 +7790,19 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1264</v>
+        <v>1399</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:21:04</t>
+          <t>0:23:19</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1897</v>
+        <v>2099</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:31:37</t>
+          <t>0:34:59</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,19 +7810,19 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=seltanakorvasia</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>The Alternate Community</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7831,19 +7831,19 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1266</v>
+        <v>1432</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:21:06</t>
+          <t>0:23:52</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1899</v>
+        <v>2148</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:31:39</t>
+          <t>0:35:48</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,40 +7851,40 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=the_alternate_community</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>International Peace Treaty</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1267</v>
+        <v>1434</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:21:07</t>
+          <t>0:23:54</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1901</v>
+        <v>2150</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:31:41</t>
+          <t>0:35:50</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,40 +7892,40 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=international_peace_treaty</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>Europe of De Jota</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1268</v>
+        <v>1442</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:21:08</t>
+          <t>0:24:02</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1903</v>
+        <v>2164</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:36:04</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,81 +7933,81 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>Analchist</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1268</v>
+        <v>1517</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0:21:08</t>
+          <t>0:25:17</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1903</v>
+        <v>2275</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:37:55</t>
         </is>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=analchist</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Ijaka, Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>Y16</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1268</v>
+        <v>1675</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:21:08</t>
+          <t>0:27:55</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1903</v>
+        <v>2512</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:41:52</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,40 +8015,40 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=y16</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Nizhyn</t>
+          <t>The Kharkis Accord</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1271</v>
+        <v>1852</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:21:11</t>
+          <t>0:30:52</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1906</v>
+        <v>2777</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:31:46</t>
+          <t>0:46:17</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,40 +8056,40 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nizhyn</t>
+          <t>https://www.nationstates.net/region=the_kharkis_accord</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>Gamer Paradise</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1272</v>
+        <v>1874</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:21:12</t>
+          <t>0:31:14</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1908</v>
+        <v>2812</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:31:48</t>
+          <t>0:46:52</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -8097,19 +8097,19 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=gamer_paradise</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>F1 talker</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8118,19 +8118,19 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1273</v>
+        <v>1883</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0:21:13</t>
+          <t>0:31:23</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1909</v>
+        <v>2824</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0:31:49</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=f1_talker</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -8150,28 +8150,28 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>academe</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1275</v>
+        <v>1902</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0:21:15</t>
+          <t>0:31:42</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1913</v>
+        <v>2853</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0:31:53</t>
+          <t>0:47:33</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -8179,40 +8179,40 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=academe</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Besterest Region</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1283</v>
+        <v>1904</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0:21:23</t>
+          <t>0:31:44</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1925</v>
+        <v>2856</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>0:32:05</t>
+          <t>0:47:36</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -8220,40 +8220,40 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=besterest_region</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The great region of Eli</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1350</v>
+        <v>1905</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0:22:30</t>
+          <t>0:31:45</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2025</v>
+        <v>2858</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0:33:45</t>
+          <t>0:47:38</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -8261,40 +8261,40 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>PeanutCraft</t>
+          <t>killers of birds</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1351</v>
+        <v>1906</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0:22:31</t>
+          <t>0:31:46</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2026</v>
+        <v>2859</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0:33:46</t>
+          <t>0:47:39</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -8302,40 +8302,40 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=peanutcraft</t>
+          <t>https://www.nationstates.net/region=killers_of_birds</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>OEU</t>
+          <t>olerais</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1355</v>
+        <v>1918</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0:22:35</t>
+          <t>0:31:58</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2032</v>
+        <v>2877</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0:33:52</t>
+          <t>0:47:57</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=oeu</t>
+          <t>https://www.nationstates.net/region=olerais</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -8355,7 +8355,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Authoritariania</t>
+          <t>Driving Around NYC at 4 AM Numb to Life</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8364,19 +8364,19 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1372</v>
+        <v>1953</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0:22:52</t>
+          <t>0:32:33</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2058</v>
+        <v>2930</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0:34:18</t>
+          <t>0:48:50</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=authoritariania</t>
+          <t>https://www.nationstates.net/region=driving_around_nyc_at_4_am_numb_to_life</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -8396,28 +8396,28 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Fastiv</t>
+          <t>The Great Empire of Wout</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1379</v>
+        <v>1975</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0:22:59</t>
+          <t>0:32:55</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2068</v>
+        <v>2962</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0:34:28</t>
+          <t>0:49:22</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -8425,19 +8425,19 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
+          <t>https://www.nationstates.net/region=the_great_empire_of_wout</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>unite the nations</t>
+          <t>The Free Council</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8446,19 +8446,19 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1393</v>
+        <v>1986</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0:23:13</t>
+          <t>0:33:06</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2090</v>
+        <v>2980</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>0:34:50</t>
+          <t>0:49:40</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unite_the_nations</t>
+          <t>https://www.nationstates.net/region=the_free_council</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>The Pines</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8487,19 +8487,19 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1399</v>
+        <v>2249</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0:23:19</t>
+          <t>0:37:29</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2098</v>
+        <v>3374</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>0:34:58</t>
+          <t>0:56:14</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -8507,40 +8507,40 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_pines</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>abusers</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1401</v>
+        <v>2290</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0:23:21</t>
+          <t>0:38:10</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2101</v>
+        <v>3435</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>0:35:01</t>
+          <t>0:57:15</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -8548,40 +8548,40 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abusers</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Card2055</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1409</v>
+        <v>2294</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0:23:29</t>
+          <t>0:38:14</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2113</v>
+        <v>3442</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0:35:13</t>
+          <t>0:57:22</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -8589,40 +8589,40 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2055</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>New Cyngland</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1411</v>
+        <v>2657</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0:23:31</t>
+          <t>0:44:17</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2117</v>
+        <v>3986</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>0:35:17</t>
+          <t>1:06:26</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -8630,40 +8630,40 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_cyngland</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>LWU</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Shchastia</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1414</v>
+        <v>2855</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0:23:34</t>
+          <t>0:47:35</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2121</v>
+        <v>4283</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>0:35:21</t>
+          <t>1:11:23</t>
         </is>
       </c>
       <c r="G201" t="b">
@@ -8671,19 +8671,19 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shchastia</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Seltanakorvasia</t>
+          <t>SpacePizza Coralation</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -8692,19 +8692,19 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1417</v>
+        <v>2900</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0:23:37</t>
+          <t>0:48:20</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2125</v>
+        <v>4350</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>0:35:25</t>
+          <t>1:12:30</t>
         </is>
       </c>
       <c r="G202" t="b">
@@ -8712,40 +8712,40 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
+          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM, Lily</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1450</v>
+        <v>2902</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0:24:10</t>
+          <t>0:48:22</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2176</v>
+        <v>4354</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>0:36:16</t>
+          <t>1:12:34</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -8753,81 +8753,81 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>International Peace Treaty</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1452</v>
+        <v>3162</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0:24:12</t>
+          <t>0:52:42</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2178</v>
+        <v>4743</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>0:36:18</t>
+          <t>1:19:03</t>
         </is>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_peace_treaty</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1460</v>
+        <v>3418</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0:24:20</t>
+          <t>0:56:58</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2190</v>
+        <v>5127</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>0:36:30</t>
+          <t>1:25:27</t>
         </is>
       </c>
       <c r="G205" t="b">
@@ -8835,1199 +8835,10 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>Flesh Pit</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>1463</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>0:24:23</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>2195</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>0:36:35</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=flesh_pit</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>Analchist</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>1535</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>0:25:35</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>2303</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>0:38:23</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=analchist</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>Nix Lustra</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>1538</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>0:25:38</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>2307</v>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0:38:27</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=nix_lustra</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>Tiamat Accord</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>1844</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>0:30:44</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>2766</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>0:46:06</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=tiamat_accord</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>The Federal Commonwealth Society</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>1853</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>0:30:53</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>2780</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>0:46:20</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_federal_commonwealth_society</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>The Kharkis Accord</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>1856</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>0:30:56</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>2784</v>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>0:46:24</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_kharkis_accord</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>Gamer Paradise</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>1879</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>0:31:19</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>2819</v>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>0:46:59</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=gamer_paradise</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>F1 talker</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>1887</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>0:31:27</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>0:47:10</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=f1_talker</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>Unity in Peace</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>0:31:30</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>0:47:15</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=unity_in_peace</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>Ijaka, Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>academe</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>0:31:53</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>2870</v>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>0:47:50</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=academe</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>The Estamindian Island Chain</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>1916</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>0:31:56</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>2874</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>0:47:54</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>The great region of Eli</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>1917</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>0:31:57</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>2876</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>0:47:56</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>killers of birds</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>1918</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>0:31:58</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>2877</v>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>0:47:57</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=killers_of_birds</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>olerais</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>1939</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>0:32:19</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>2908</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>0:48:28</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=olerais</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>Driving Around NYC at 4 AM Numb to Life</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>0:32:45</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>2948</v>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>0:49:08</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=driving_around_nyc_at_4_am_numb_to_life</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>The Great Empire of Wout</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>1982</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>0:33:02</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>2973</v>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>0:49:33</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_great_empire_of_wout</t>
-        </is>
-      </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>The Free Council</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>0:33:13</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>2989</v>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>0:49:49</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_free_council</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>Lily 3 2</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>0:33:13</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>2990</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>0:49:50</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=lily_3_2</t>
-        </is>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>Region of Magical Witchcraft and Sorcery</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>0:33:23</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>3005</v>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>0:50:05</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=region_of_magical_witchcraft_and_sorcery</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>2259</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>0:37:39</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>3389</v>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>0:56:29</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>2298</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>0:38:18</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>3447</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>0:57:27</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>2303</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>0:38:23</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>3454</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>0:57:34</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>2650</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>0:44:10</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>3975</v>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>1:06:15</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>Reichspakt</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>2676</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>0:44:36</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>4014</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>1:06:54</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=reichspakt</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>Ijaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>2853</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>0:47:33</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>4279</v>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>1:11:19</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>SpacePizza Coralation</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>2891</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>0:48:11</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>4337</v>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>1:12:17</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>2894</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>0:48:14</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>4341</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>1:12:21</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>3116</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>0:51:56</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>4674</v>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>1:17:54</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>3343</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>0:55:43</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>5015</v>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>1:23:35</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="24 February 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="25 February 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:00:07</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>0:00:09</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:07</t>
+          <t>0:00:14</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:00:38</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:00:38</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -647,28 +647,28 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Racoonist Confederation</t>
+          <t>diomnlark</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:42</t>
+          <t>0:00:52</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=racoonist_confederation</t>
+          <t>https://www.nationstates.net/region=diomnlark</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,28 +688,28 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>diomnlark</t>
+          <t>The snowy peninsula</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:43</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=diomnlark</t>
+          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The snowy peninsula</t>
+          <t>The Cascade</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
+          <t>https://www.nationstates.net/region=the_cascade</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Kantrias</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Cascade</t>
+          <t>Conglomerate of Slimes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:48</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_cascade</t>
+          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Conglomerate of Slimes</t>
+          <t>The Covelandian Accords</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:48</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
+          <t>https://www.nationstates.net/region=the_covelandian_accords</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Covelandian Accords</t>
+          <t>Oii</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_covelandian_accords</t>
+          <t>https://www.nationstates.net/region=oii</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Oii</t>
+          <t>Coral Reef 5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=oii</t>
+          <t>https://www.nationstates.net/region=coral_reef_5</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 5</t>
+          <t>Dubno</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_5</t>
+          <t>https://www.nationstates.net/region=dubno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,28 +975,28 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>United Libertarian Naitions</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:00:51</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=united_libertarian_naitions</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>United Libertarian Naitions</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_libertarian_naitions</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1057,7 +1057,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Madmania</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=madmania</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:58</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:24</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:20</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:58</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:42</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2287,28 +2287,28 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>the Rejected Warzone</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,19 +2316,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:03:15</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:03:15</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owls</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:15</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=owls</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Fatima</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fatima</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Republic Senate</t>
+          <t>Fatima</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:03:20</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=republic_senate</t>
+          <t>https://www.nationstates.net/region=fatima</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Bean Union</t>
+          <t>Republic Senate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bean_union</t>
+          <t>https://www.nationstates.net/region=republic_senate</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>The Holy Federation of Dunkeld</t>
+          <t>Bean Union</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
+          <t>https://www.nationstates.net/region=bean_union</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Council of The Righteous</t>
+          <t>The Holy Federation of Dunkeld</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
+          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Council of The Righteous</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Atlae</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlae</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2738,28 +2738,28 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>abolished</t>
+          <t>Atlae</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abolished</t>
+          <t>https://www.nationstates.net/region=atlae</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>puppet storage 2</t>
+          <t>abolished</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=puppet_storage_2</t>
+          <t>https://www.nationstates.net/region=abolished</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Kiansia Continent</t>
+          <t>puppet storage 2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,40 +2849,40 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kiansia_continent</t>
+          <t>https://www.nationstates.net/region=puppet_storage_2</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Kiansia Continent</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,40 +2890,40 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=kiansia_continent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,40 +2931,40 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>The New Empire of Northern Ireland</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,19 +2972,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_empire_of_northern_ireland</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Nova Evropa</t>
+          <t>The New Empire of Northern Ireland</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2993,19 +2993,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:04:20</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nova_evropa</t>
+          <t>https://www.nationstates.net/region=the_new_empire_of_northern_ireland</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ukrayina</t>
+          <t>Nova Evropa</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:54</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:21</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ukrayina</t>
+          <t>https://www.nationstates.net/region=nova_evropa</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Cid Archipelago Reserve</t>
+          <t>Ukrayina</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:01</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:04:32</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,19 +3095,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cid_archipelago_reserve</t>
+          <t>https://www.nationstates.net/region=ukrayina</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Water Water Everywhere But Not a Drop To</t>
+          <t>Cid Archipelago Reserve</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:04:44</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=water_water_everywhere_but_not_a_drop_to</t>
+          <t>https://www.nationstates.net/region=cid_archipelago_reserve</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Manchuria Conscription</t>
+          <t>Water Water Everywhere But Not a Drop To</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:04:44</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=manchuria_conscription</t>
+          <t>https://www.nationstates.net/region=water_water_everywhere_but_not_a_drop_to</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>Manchuria Conscription</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:04:45</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,40 +3218,40 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=manchuria_conscription</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:45</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Greater Alpines</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_alpines</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Unitarian Union</t>
+          <t>Greater Alpines</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:05:16</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unitarian_union</t>
+          <t>https://www.nationstates.net/region=greater_alpines</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3353,28 +3353,28 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>Unitarian Union</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:05:17</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,19 +3382,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=unitarian_union</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:02:59</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,19 +3423,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>absolved</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3444,19 +3444,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,19 +3464,19 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolved</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>absolved</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3485,19 +3485,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,40 +3505,40 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=absolved</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:06:13</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,19 +3546,19 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3567,19 +3567,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:06:17</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3608,19 +3608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:06:23</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,19 +3751,19 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,19 +3792,19 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3813,19 +3813,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:04:19</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3845,28 +3845,28 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 8</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:04:21</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:06:32</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_8</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Europeans union</t>
+          <t>Coral Reef 8</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:06:34</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europeans_union</t>
+          <t>https://www.nationstates.net/region=coral_reef_8</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Europeans union</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:06:37</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=europeans_union</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Peekaboo</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:06:38</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=peekaboo</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4009,48 +4009,48 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Peekaboo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:06:55</t>
         </is>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=peekaboo</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4059,27 +4059,27 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:03:59</t>
+          <t>0:04:39</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4091,28 +4091,28 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>The Union of Rightwing Nations</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:03:59</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Ijaka, Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>The Based Region</t>
+          <t>The Union of Rightwing Nations</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_based_region</t>
+          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>The Based Region</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:06:10</t>
+          <t>0:07:18</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=the_based_region</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4223,19 +4223,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:06:38</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,40 +4243,40 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:13</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:07:49</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,40 +4284,40 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:04:50</t>
+          <t>0:05:29</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:08:14</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Order of Odas</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:08:49</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,19 +4366,19 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=order_of_odas</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4387,19 +4387,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>440</v>
+        <v>531</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,40 +4407,40 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Kalush</t>
+          <t>Order of Odas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:04:54</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:07:21</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kalush</t>
+          <t>https://www.nationstates.net/region=order_of_odas</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:04:58</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>447</v>
+        <v>537</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:07:27</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>NationStates Fanfics</t>
+          <t>Kalush</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:08:27</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
+          <t>https://www.nationstates.net/region=kalush</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Caprecia</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:06:03</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:08:27</t>
+          <t>0:09:05</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caprecia</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Principality of Lyraidia</t>
+          <t>Libertarian Union of freedom</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:06:31</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:08:28</t>
+          <t>0:09:47</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
+          <t>https://www.nationstates.net/region=libertarian_union_of_freedom</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>NationStates Fanfics</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>508</v>
+        <v>601</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:08:28</t>
+          <t>0:10:01</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,40 +4653,40 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>mason elemantery</t>
+          <t>Caprecia</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:05:43</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>515</v>
+        <v>602</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:08:35</t>
+          <t>0:10:02</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,19 +4694,19 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mason_elemantery</t>
+          <t>https://www.nationstates.net/region=caprecia</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>The Greater Skytanian Reich</t>
+          <t>Principality of Lyraidia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:06:42</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:08:37</t>
+          <t>0:10:04</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_skytanian_reich</t>
+          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -4747,28 +4747,28 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:05:49</t>
+          <t>0:06:42</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:08:44</t>
+          <t>0:10:04</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>mason elemantery</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>525</v>
+        <v>615</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:08:45</t>
+          <t>0:10:15</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=mason_elemantery</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>League of Arabia</t>
+          <t>The Greater Skytanian Reich</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:06:52</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>680</v>
+        <v>618</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:11:20</t>
+          <t>0:10:18</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,40 +4858,40 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=league_of_arabia</t>
+          <t>https://www.nationstates.net/region=the_greater_skytanian_reich</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Tyrona</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:07:38</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>688</v>
+        <v>635</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:11:28</t>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,19 +4899,19 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=tyrona</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Eastatic</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4920,19 +4920,19 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:07:39</t>
+          <t>0:07:04</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>689</v>
+        <v>636</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:11:29</t>
+          <t>0:10:36</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,19 +4940,19 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastatic</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Metal Slug</t>
+          <t>League of Arabia</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4961,19 +4961,19 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:08:54</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>693</v>
+        <v>800</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:11:33</t>
+          <t>0:13:20</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,40 +4981,40 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=metal_slug</t>
+          <t>https://www.nationstates.net/region=league_of_arabia</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:08:58</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>693</v>
+        <v>806</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:11:33</t>
+          <t>0:13:26</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,19 +5022,19 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>Eastatic</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5043,19 +5043,19 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:07:44</t>
+          <t>0:08:58</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>696</v>
+        <v>806</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:13:26</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,40 +5063,40 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=eastatic</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>The Average Confederacy</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:07:45</t>
+          <t>0:08:59</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>698</v>
+        <v>808</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,40 +5104,40 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_average_confederacy</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Alma Mater</t>
+          <t>Metal Slug</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:07:45</t>
+          <t>0:09:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>698</v>
+        <v>811</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:13:31</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alma_mater</t>
+          <t>https://www.nationstates.net/region=metal_slug</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5157,28 +5157,28 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:07:47</t>
+          <t>0:09:00</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>701</v>
+        <v>811</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:11:41</t>
+          <t>0:13:31</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Kasterborous</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:07:49</t>
+          <t>0:09:02</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>704</v>
+        <v>813</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:11:44</t>
+          <t>0:13:33</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kasterborous</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>The Planes of Discord</t>
+          <t>The Average Confederacy</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:07:54</t>
+          <t>0:09:03</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>711</v>
+        <v>815</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:11:51</t>
+          <t>0:13:35</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
+          <t>https://www.nationstates.net/region=the_average_confederacy</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>Alma Mater</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:09:03</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>714</v>
+        <v>815</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:11:54</t>
+          <t>0:13:35</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=alma_mater</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>AnCap Alliance</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>698</v>
+        <v>545</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:09:05</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1046</v>
+        <v>818</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:17:26</t>
+          <t>0:13:38</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ancap_alliance</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>Kasterborous</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>698</v>
+        <v>548</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:09:08</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1047</v>
+        <v>822</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:17:27</t>
+          <t>0:13:42</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,19 +5391,19 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=kasterborous</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>The Planes of Discord</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>698</v>
+        <v>551</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:09:11</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1047</v>
+        <v>827</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:17:27</t>
+          <t>0:13:47</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>698</v>
+        <v>553</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:09:13</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1047</v>
+        <v>830</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:17:27</t>
+          <t>0:13:50</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>New Jahkku</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>698</v>
+        <v>596</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:11:38</t>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1047</v>
+        <v>894</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:17:27</t>
+          <t>0:14:54</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=new_jahkku</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>the roman north german confederation</t>
+          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:12:20</t>
+          <t>0:12:36</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1110</v>
+        <v>1134</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:18:30</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
+          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Lutsk</t>
+          <t>AnCap Alliance</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:12:21</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1112</v>
+        <v>1183</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:18:32</t>
+          <t>0:19:43</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,40 +5596,40 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lutsk</t>
+          <t>https://www.nationstates.net/region=ancap_alliance</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:12:23</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1114</v>
+        <v>1184</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:18:34</t>
+          <t>0:19:44</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:12:28</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1122</v>
+        <v>1184</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:18:42</t>
+          <t>0:19:44</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1125</v>
+        <v>1184</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:19:44</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,40 +5719,40 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>750</v>
+        <v>789</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1125</v>
+        <v>1184</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:19:44</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,19 +5760,19 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>the roman north german confederation</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5781,19 +5781,19 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>751</v>
+        <v>832</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:12:31</t>
+          <t>0:13:52</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1126</v>
+        <v>1248</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:20:48</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,40 +5801,40 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>E 206</t>
+          <t>Lutsk</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>754</v>
+        <v>833</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:12:34</t>
+          <t>0:13:53</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1130</v>
+        <v>1250</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,19 +5842,19 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_206</t>
+          <t>https://www.nationstates.net/region=lutsk</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>GODZONE</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5863,19 +5863,19 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>760</v>
+        <v>834</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:12:40</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1139</v>
+        <v>1251</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:18:59</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=godzone</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -5895,28 +5895,28 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>Haisyn</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>761</v>
+        <v>840</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:12:41</t>
+          <t>0:14:00</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1141</v>
+        <v>1260</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:19:01</t>
+          <t>0:21:00</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,19 +5924,19 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tmo</t>
+          <t>https://www.nationstates.net/region=haisyn</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Alborada</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5945,19 +5945,19 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:14:05</t>
+          <t>0:14:01</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:21:08</t>
+          <t>0:21:02</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,40 +5965,40 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alborada</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>The Catholic Alliance</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1044</v>
+        <v>842</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:17:24</t>
+          <t>0:14:02</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1566</v>
+        <v>1262</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:26:06</t>
+          <t>0:21:02</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,40 +6006,40 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_catholic_alliance</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Scandinava</t>
+          <t>Super Metroid</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1051</v>
+        <v>842</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:17:31</t>
+          <t>0:14:02</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1577</v>
+        <v>1263</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:26:17</t>
+          <t>0:21:03</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=scandinava</t>
+          <t>https://www.nationstates.net/region=super_metroid</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>E 206</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1059</v>
+        <v>849</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:14:09</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1588</v>
+        <v>1273</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:26:28</t>
+          <t>0:21:13</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=e_206</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6109,19 +6109,19 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1069</v>
+        <v>851</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:17:49</t>
+          <t>0:14:11</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1604</v>
+        <v>1276</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:26:44</t>
+          <t>0:21:16</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>The Region of Syuceton</t>
+          <t>GODZONE</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1081</v>
+        <v>855</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:18:01</t>
+          <t>0:14:15</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1622</v>
+        <v>1282</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:27:02</t>
+          <t>0:21:22</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_syuceton</t>
+          <t>https://www.nationstates.net/region=godzone</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>The Council of Fantasian Masters</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1091</v>
+        <v>856</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:18:11</t>
+          <t>0:14:16</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1637</v>
+        <v>1284</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:27:17</t>
+          <t>0:21:24</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,40 +6211,40 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_council_of_fantasian_masters</t>
+          <t>https://www.nationstates.net/region=tmo</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Kantrias</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Tails Region</t>
+          <t>Alborada</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1109</v>
+        <v>940</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:15:40</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1663</v>
+        <v>1411</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:27:43</t>
+          <t>0:23:31</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tails_region</t>
+          <t>https://www.nationstates.net/region=alborada</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -6264,28 +6264,28 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>ndi</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1120</v>
+        <v>976</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:18:40</t>
+          <t>0:16:16</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1679</v>
+        <v>1464</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:27:59</t>
+          <t>0:24:24</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,40 +6293,40 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=ndi</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Blood and Iron Community of States</t>
+          <t>The Catholic Alliance</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:18:40</t>
+          <t>0:18:18</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1680</v>
+        <v>1647</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:28:00</t>
+          <t>0:27:27</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,40 +6334,40 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
+          <t>https://www.nationstates.net/region=the_catholic_alliance</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>Acta non verba</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:18:31</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1684</v>
+        <v>1667</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:27:47</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,40 +6375,40 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=acta_non_verba</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Banject Bois</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:18:41</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:28:06</t>
+          <t>0:28:01</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -6416,19 +6416,19 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=banject_bois</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Ayo</t>
+          <t>The Region of Syuceton</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:18:53</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:28:08</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6457,40 +6457,40 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ayo</t>
+          <t>https://www.nationstates.net/region=the_region_of_syuceton</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Antisocial League</t>
+          <t>Tails Region</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1126</v>
+        <v>1161</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:19:21</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1688</v>
+        <v>1742</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:28:08</t>
+          <t>0:29:02</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,40 +6498,40 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=antisocial_league</t>
+          <t>https://www.nationstates.net/region=tails_region</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>United countrys</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:19:02</t>
+          <t>0:19:31</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1714</v>
+        <v>1757</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:28:34</t>
+          <t>0:29:17</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,19 +6539,19 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_countrys</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>Blood and Iron Community of States</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6560,19 +6560,19 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:19:03</t>
+          <t>0:19:32</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1715</v>
+        <v>1758</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:28:35</t>
+          <t>0:29:18</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,40 +6580,40 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Onionistlands</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1202</v>
+        <v>1176</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:20:02</t>
+          <t>0:19:36</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1803</v>
+        <v>1764</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:30:03</t>
+          <t>0:29:24</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,40 +6621,40 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=onionistlands</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>TURKISH GANG</t>
+          <t>Banject Bois</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1203</v>
+        <v>1177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:20:03</t>
+          <t>0:19:37</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1805</v>
+        <v>1766</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:30:05</t>
+          <t>0:29:26</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6662,40 +6662,40 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=turkish_gang</t>
+          <t>https://www.nationstates.net/region=banject_bois</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Sandlands</t>
+          <t>Ayo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1211</v>
+        <v>1179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:20:11</t>
+          <t>0:19:39</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1816</v>
+        <v>1768</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:30:16</t>
+          <t>0:29:28</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sandlands</t>
+          <t>https://www.nationstates.net/region=ayo</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6715,28 +6715,28 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>United countrys</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1215</v>
+        <v>1195</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:20:15</t>
+          <t>0:19:55</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1823</v>
+        <v>1793</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:30:23</t>
+          <t>0:29:53</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6744,40 +6744,40 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=karlovy_vary</t>
+          <t>https://www.nationstates.net/region=united_countrys</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Baby</t>
+          <t>Alvindor</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1223</v>
+        <v>1196</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:20:23</t>
+          <t>0:19:56</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1835</v>
+        <v>1794</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:30:35</t>
+          <t>0:29:54</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6785,40 +6785,40 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=baby</t>
+          <t>https://www.nationstates.net/region=alvindor</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Onionistlands</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1224</v>
+        <v>1255</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0:20:24</t>
+          <t>0:20:55</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1836</v>
+        <v>1882</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0:30:36</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6826,40 +6826,40 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=onionistlands</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Unirea Popoarelor Marii</t>
+          <t>TURKISH GANG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1227</v>
+        <v>1256</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:20:27</t>
+          <t>0:20:56</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1840</v>
+        <v>1885</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:30:40</t>
+          <t>0:31:25</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6867,19 +6867,19 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unirea_popoarelor_marii</t>
+          <t>https://www.nationstates.net/region=turkish_gang</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Horsia</t>
+          <t>Sandlands</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6888,19 +6888,19 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1227</v>
+        <v>1263</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0:20:27</t>
+          <t>0:21:03</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1840</v>
+        <v>1895</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0:30:40</t>
+          <t>0:31:35</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=horsia</t>
+          <t>https://www.nationstates.net/region=sandlands</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -6920,28 +6920,28 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1228</v>
+        <v>1268</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:20:28</t>
+          <t>0:21:08</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1842</v>
+        <v>1901</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:30:42</t>
+          <t>0:31:41</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=karlovy_vary</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Allied Nations of Glioca</t>
+          <t>Baby</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1229</v>
+        <v>1276</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:20:29</t>
+          <t>0:21:16</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1844</v>
+        <v>1914</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:30:44</t>
+          <t>0:31:54</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,19 +6990,19 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
+          <t>https://www.nationstates.net/region=baby</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>EPSA, Ijaka, Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7011,19 +7011,19 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1229</v>
+        <v>1277</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0:20:29</t>
+          <t>0:21:17</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1844</v>
+        <v>1915</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0:30:44</t>
+          <t>0:31:55</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -7031,40 +7031,40 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>Horsia</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1231</v>
+        <v>1279</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:21:19</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1847</v>
+        <v>1919</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:31:59</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,40 +7072,40 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=horsia</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1233</v>
+        <v>1280</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:20:33</t>
+          <t>0:21:20</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1849</v>
+        <v>1921</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:32:01</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,40 +7113,40 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>Allied Nations of Glioca</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1235</v>
+        <v>1281</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:20:35</t>
+          <t>0:21:21</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1852</v>
+        <v>1922</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:30:52</t>
+          <t>0:32:02</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,40 +7154,40 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1235</v>
+        <v>1282</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:20:35</t>
+          <t>0:21:22</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1852</v>
+        <v>1923</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:30:52</t>
+          <t>0:32:03</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,40 +7195,40 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Ijaka, Lily</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1235</v>
+        <v>1284</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:20:35</t>
+          <t>0:21:24</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1853</v>
+        <v>1926</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:30:53</t>
+          <t>0:32:06</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -7236,19 +7236,19 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7257,19 +7257,19 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1240</v>
+        <v>1285</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:20:40</t>
+          <t>0:21:25</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1859</v>
+        <v>1928</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:32:08</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,40 +7277,40 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1243</v>
+        <v>1287</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1864</v>
+        <v>1930</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:31:04</t>
+          <t>0:32:10</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,40 +7318,40 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Imperial Roman Coprosperity Sphere</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1246</v>
+        <v>1287</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:20:46</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1868</v>
+        <v>1930</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:31:08</t>
+          <t>0:32:10</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -7359,19 +7359,19 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Ijaka, Lily</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Besterest Region</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7380,19 +7380,19 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1256</v>
+        <v>1287</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:20:56</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1884</v>
+        <v>1931</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:31:24</t>
+          <t>0:32:11</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=besterest_region</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7412,7 +7412,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7421,19 +7421,19 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1327</v>
+        <v>1291</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:22:07</t>
+          <t>0:21:31</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1991</v>
+        <v>1937</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:33:11</t>
+          <t>0:32:17</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7441,40 +7441,40 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>OEU</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1334</v>
+        <v>1293</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:22:14</t>
+          <t>0:21:33</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2001</v>
+        <v>1940</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:33:21</t>
+          <t>0:32:20</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=oeu</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7494,28 +7494,28 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Authoritariania</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1351</v>
+        <v>1296</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:22:31</t>
+          <t>0:21:36</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2027</v>
+        <v>1944</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:33:47</t>
+          <t>0:32:24</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7523,40 +7523,40 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=authoritariania</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Fastiv</t>
+          <t>Besterest Region</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1357</v>
+        <v>1306</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:22:37</t>
+          <t>0:21:46</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2036</v>
+        <v>1960</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:33:56</t>
+          <t>0:32:40</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,40 +7564,40 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
+          <t>https://www.nationstates.net/region=besterest_region</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>unite the nations</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1377</v>
+        <v>1387</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0:22:57</t>
+          <t>0:23:07</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2066</v>
+        <v>2080</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0:34:26</t>
+          <t>0:34:40</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -7605,40 +7605,40 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unite_the_nations</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>The Pines</t>
+          <t>Authoritariania</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1382</v>
+        <v>1408</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0:23:02</t>
+          <t>0:23:28</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2074</v>
+        <v>2112</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0:34:34</t>
+          <t>0:35:12</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -7646,40 +7646,40 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_pines</t>
+          <t>https://www.nationstates.net/region=authoritariania</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>abusers</t>
+          <t>Fastiv</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1385</v>
+        <v>1414</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:23:05</t>
+          <t>0:23:34</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2078</v>
+        <v>2121</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:34:38</t>
+          <t>0:35:21</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7687,19 +7687,19 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abusers</t>
+          <t>https://www.nationstates.net/region=fastiv</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Card2055</t>
+          <t>unite the nations</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7708,19 +7708,19 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1393</v>
+        <v>1428</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:23:13</t>
+          <t>0:23:48</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2090</v>
+        <v>2142</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:34:50</t>
+          <t>0:35:42</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2055</t>
+          <t>https://www.nationstates.net/region=unite_the_nations</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Shchastia</t>
+          <t>The Pines</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7749,19 +7749,19 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1396</v>
+        <v>1434</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0:23:16</t>
+          <t>0:23:54</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2094</v>
+        <v>2151</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:34:54</t>
+          <t>0:35:51</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7769,40 +7769,40 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shchastia</t>
+          <t>https://www.nationstates.net/region=the_pines</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Seltanakorvasia</t>
+          <t>abusers</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1399</v>
+        <v>1436</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:23:19</t>
+          <t>0:23:56</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2099</v>
+        <v>2154</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:34:59</t>
+          <t>0:35:54</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,40 +7810,40 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
+          <t>https://www.nationstates.net/region=abusers</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Card2055</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1432</v>
+        <v>1449</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:23:52</t>
+          <t>0:24:09</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2148</v>
+        <v>2173</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:35:48</t>
+          <t>0:36:13</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,40 +7851,40 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=card2055</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>International Peace Treaty</t>
+          <t>Seltanakorvasia</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:23:54</t>
+          <t>0:24:15</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2150</v>
+        <v>2182</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:35:50</t>
+          <t>0:36:22</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,40 +7892,40 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_peace_treaty</t>
+          <t>https://www.nationstates.net/region=seltanakorvasia</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>The Alternate Community</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1442</v>
+        <v>1479</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:24:02</t>
+          <t>0:24:39</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2164</v>
+        <v>2219</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:36:04</t>
+          <t>0:36:59</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,81 +7933,81 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=the_alternate_community</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Analchist</t>
+          <t>International Peace Treaty</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1517</v>
+        <v>1481</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0:25:17</t>
+          <t>0:24:41</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2275</v>
+        <v>2221</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0:37:55</t>
+          <t>0:37:01</t>
         </is>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=analchist</t>
+          <t>https://www.nationstates.net/region=international_peace_treaty</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Y16</t>
+          <t>Europe of De Jota</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1675</v>
+        <v>1489</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:27:55</t>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2512</v>
+        <v>2233</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:41:52</t>
+          <t>0:37:13</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,40 +8015,40 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=y16</t>
+          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>The Kharkis Accord</t>
+          <t>Tiamat Accord</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1852</v>
+        <v>1865</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:30:52</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2777</v>
+        <v>2797</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:46:17</t>
+          <t>0:46:37</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kharkis_accord</t>
+          <t>https://www.nationstates.net/region=tiamat_accord</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
@@ -8077,19 +8077,19 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1874</v>
+        <v>1897</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:31:14</t>
+          <t>0:31:37</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2812</v>
+        <v>2845</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:46:52</t>
+          <t>0:47:25</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -8118,19 +8118,19 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1883</v>
+        <v>1903</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0:31:23</t>
+          <t>0:31:43</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2824</v>
+        <v>2855</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>0:47:35</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -8159,19 +8159,19 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1902</v>
+        <v>1923</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0:31:42</t>
+          <t>0:32:03</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2853</v>
+        <v>2885</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0:47:33</t>
+          <t>0:48:05</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -8200,19 +8200,19 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1904</v>
+        <v>1925</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0:31:44</t>
+          <t>0:32:05</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2856</v>
+        <v>2887</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>0:47:36</t>
+          <t>0:48:07</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -8241,19 +8241,19 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0:31:45</t>
+          <t>0:32:06</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2858</v>
+        <v>2889</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0:47:38</t>
+          <t>0:48:09</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -8273,28 +8273,28 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>killers of birds</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1906</v>
+        <v>1937</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0:31:46</t>
+          <t>0:32:17</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2859</v>
+        <v>2905</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0:47:39</t>
+          <t>0:48:25</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -8302,12 +8302,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=killers_of_birds</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
@@ -8323,19 +8323,19 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1918</v>
+        <v>1941</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0:31:58</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2877</v>
+        <v>2911</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0:47:57</t>
+          <t>0:48:31</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -8364,19 +8364,19 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1953</v>
+        <v>1964</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0:32:33</t>
+          <t>0:32:44</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2930</v>
+        <v>2947</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0:48:50</t>
+          <t>0:49:07</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -8405,19 +8405,19 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0:32:55</t>
+          <t>0:33:01</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2962</v>
+        <v>2971</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0:49:22</t>
+          <t>0:49:31</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -8437,28 +8437,28 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>The Free Council</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1986</v>
+        <v>2243</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0:33:06</t>
+          <t>0:37:23</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2980</v>
+        <v>3365</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>0:49:40</t>
+          <t>0:56:05</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -8466,19 +8466,19 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_free_council</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8487,19 +8487,19 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2249</v>
+        <v>2284</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0:37:29</t>
+          <t>0:38:04</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3374</v>
+        <v>3426</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>0:56:14</t>
+          <t>0:57:06</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -8507,40 +8507,40 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0:38:10</t>
+          <t>0:38:08</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>0:57:15</t>
+          <t>0:57:12</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -8548,40 +8548,40 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2294</v>
+        <v>2597</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0:38:14</t>
+          <t>0:43:17</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3442</v>
+        <v>3896</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0:57:22</t>
+          <t>1:04:56</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -8589,40 +8589,40 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2657</v>
+        <v>2806</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0:44:17</t>
+          <t>0:46:46</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3986</v>
+        <v>4208</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1:06:26</t>
+          <t>1:10:08</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -8630,40 +8630,40 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>SpacePizza Coralation</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2855</v>
+        <v>2850</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0:47:35</t>
+          <t>0:47:30</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>4283</v>
+        <v>4275</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1:11:23</t>
+          <t>1:11:15</t>
         </is>
       </c>
       <c r="G201" t="b">
@@ -8671,40 +8671,40 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Lily</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SpacePizza Coralation</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2900</v>
+        <v>2853</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0:48:20</t>
+          <t>0:47:33</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4350</v>
+        <v>4279</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1:12:30</t>
+          <t>1:11:19</t>
         </is>
       </c>
       <c r="G202" t="b">
@@ -8712,60 +8712,60 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>BoM, Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2902</v>
+        <v>3160</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0:48:22</t>
+          <t>0:52:40</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4354</v>
+        <v>4740</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1:12:34</t>
+          <t>1:19:00</t>
         </is>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -8774,71 +8774,30 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3162</v>
+        <v>3448</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0:52:42</t>
+          <t>0:57:28</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4743</v>
+        <v>5172</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1:19:03</t>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>3418</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>0:56:58</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>5127</v>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>1:25:27</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="25 February 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="26 February 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:07</t>
+          <t>0:00:06</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:00:09</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -541,11 +541,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>0:00:13</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:38</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:38</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -688,28 +688,28 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The snowy peninsula</t>
+          <t>The Cascade</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
+          <t>https://www.nationstates.net/region=the_cascade</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Kantrias</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The Cascade</t>
+          <t>Conglomerate of Slimes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_cascade</t>
+          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Conglomerate of Slimes</t>
+          <t>The Covelandian Accords</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
+          <t>https://www.nationstates.net/region=the_covelandian_accords</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The Covelandian Accords</t>
+          <t>Oii</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,19 +840,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_covelandian_accords</t>
+          <t>https://www.nationstates.net/region=oii</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Oii</t>
+          <t>Coral Reef 5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=oii</t>
+          <t>https://www.nationstates.net/region=coral_reef_5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 5</t>
+          <t>Dubno</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_5</t>
+          <t>https://www.nationstates.net/region=dubno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -934,28 +934,28 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,19 +963,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>United Libertarian Naitions</t>
+          <t>Madmania</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_libertarian_naitions</t>
+          <t>https://www.nationstates.net/region=madmania</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1016,28 +1016,28 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Gelre</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=gelre</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Madmania</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=madmania</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Gelre</t>
+          <t>Meow</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gelre</t>
+          <t>https://www.nationstates.net/region=meow</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>The United Table of The Boys</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Meow</t>
+          <t>Imperial County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:24</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=meow</t>
+          <t>https://www.nationstates.net/region=imperial_county</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>The Central European Regional Assembly</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, TCB</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Imperial County</t>
+          <t>Syndir</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_county</t>
+          <t>https://www.nationstates.net/region=syndir</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The Central European Regional Assembly</t>
+          <t>Landon Bow</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
+          <t>https://www.nationstates.net/region=landon_bow</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lily, TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Syndir</t>
+          <t>ASEAN REGION</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=syndir</t>
+          <t>https://www.nationstates.net/region=asean_region</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Landon Bow</t>
+          <t>abstention</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=landon_bow</t>
+          <t>https://www.nationstates.net/region=abstention</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ASEAN REGION</t>
+          <t>Union de Naciones Liberales</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=asean_region</t>
+          <t>https://www.nationstates.net/region=union_de_naciones_liberales</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>abstention</t>
+          <t>TODO MUNDO ODEIA O MEMEEEEE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:01:56</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstention</t>
+          <t>https://www.nationstates.net/region=todo_mundo_odeia_o_memeeeee</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Union de Naciones Liberales</t>
+          <t>accommodating</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_de_naciones_liberales</t>
+          <t>https://www.nationstates.net/region=accommodating</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The Ancient Realm</t>
+          <t>Kilisis</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:32</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,19 +1578,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_ancient_realm</t>
+          <t>https://www.nationstates.net/region=kilisis</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>TODO MUNDO ODEIA O MEMEEEEE</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=todo_mundo_odeia_o_memeeeee</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1631,28 +1631,28 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>accommodating</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accommodating</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Kilisis</t>
+          <t>Eroias</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kilisis</t>
+          <t>https://www.nationstates.net/region=eroias</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>The Confederacy of German States</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Solar Union</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=solar_union</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Eroias</t>
+          <t>Alantosian Lands</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eroias</t>
+          <t>https://www.nationstates.net/region=alantosian_lands</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>E U O U A E</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=e_u_o_u_a_e</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of German States</t>
+          <t>Shizei</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
+          <t>https://www.nationstates.net/region=shizei</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>International Federalist Union</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=international_federalist_union</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alantosian Lands</t>
+          <t>Umesh</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alantosian_lands</t>
+          <t>https://www.nationstates.net/region=umesh</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>E U O U A E</t>
+          <t>Coral Reef 10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_u_o_u_a_e</t>
+          <t>https://www.nationstates.net/region=coral_reef_10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Shizei</t>
+          <t>Ischia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:01</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shizei</t>
+          <t>https://www.nationstates.net/region=ischia</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>International Federalist Union</t>
+          <t>the Rejected Warzone</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:03</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,40 +2111,40 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_federalist_union</t>
+          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Umesh</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=umesh</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>United Federal Nations</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_federal_nations</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 10</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_10</t>
+          <t>https://www.nationstates.net/region=owls</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Ischia</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,24 +2275,24 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ischia</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>the Rejected Warzone</t>
+          <t>Fatima</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2316,24 +2316,24 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
+          <t>https://www.nationstates.net/region=fatima</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Republic Senate</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=republic_senate</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Bean Union</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=bean_union</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>The Holy Federation of Dunkeld</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owls</t>
+          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Council of The Righteous</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Fatima</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:14</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fatima</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Republic Senate</t>
+          <t>abolished</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=republic_senate</t>
+          <t>https://www.nationstates.net/region=abolished</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Bean Union</t>
+          <t>puppet storage 2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bean_union</t>
+          <t>https://www.nationstates.net/region=puppet_storage_2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>The Holy Federation of Dunkeld</t>
+          <t>Kiansia Continent</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
+          <t>https://www.nationstates.net/region=kiansia_continent</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Council of The Righteous</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:04:08</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,40 +2685,40 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,19 +2726,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Atlae</t>
+          <t>The New Empire of Northern Ireland</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlae</t>
+          <t>https://www.nationstates.net/region=the_new_empire_of_northern_ireland</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>abolished</t>
+          <t>Nova Evropa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:04:16</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abolished</t>
+          <t>https://www.nationstates.net/region=nova_evropa</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>puppet storage 2</t>
+          <t>Ukrayina</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,40 +2849,40 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=puppet_storage_2</t>
+          <t>https://www.nationstates.net/region=ukrayina</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Kiansia Continent</t>
+          <t>Cid Archipelago Reserve</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,40 +2890,40 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kiansia_continent</t>
+          <t>https://www.nationstates.net/region=cid_archipelago_reserve</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Water Water Everywhere But Not a Drop To</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,40 +2931,40 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=water_water_everywhere_but_not_a_drop_to</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Manchuria Conscription</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=manchuria_conscription</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>The New Empire of Northern Ireland</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:04:20</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_empire_of_northern_ireland</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Nova Evropa</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:54</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:04:21</t>
+          <t>0:05:10</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nova_evropa</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Ukrayina</t>
+          <t>Greater Alpines</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:03:01</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:04:32</t>
+          <t>0:05:12</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,19 +3095,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ukrayina</t>
+          <t>https://www.nationstates.net/region=greater_alpines</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Cid Archipelago Reserve</t>
+          <t>Unitarian Union</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:04:44</t>
+          <t>0:05:12</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cid_archipelago_reserve</t>
+          <t>https://www.nationstates.net/region=unitarian_union</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Water Water Everywhere But Not a Drop To</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:04:44</t>
+          <t>0:05:13</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,19 +3177,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=water_water_everywhere_but_not_a_drop_to</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Manchuria Conscription</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:04:45</t>
+          <t>0:05:13</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,40 +3218,40 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=manchuria_conscription</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>absolved</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:04:45</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=absolved</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3271,28 +3271,28 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Greater Alpines</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:04:02</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:05:16</t>
+          <t>0:06:03</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,40 +3341,40 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_alpines</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Unitarian Union</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:04:02</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:06:03</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,40 +3382,40 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unitarian_union</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:04:02</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:05:18</t>
+          <t>0:06:04</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,40 +3423,40 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:05:18</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,40 +3464,40 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>absolved</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:08</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolved</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:04:08</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3546,19 +3546,19 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3567,19 +3567,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:06:17</t>
+          <t>0:06:13</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3608,19 +3608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:06:18</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3640,28 +3640,28 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Coral Reef 8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:06:18</t>
+          <t>0:06:17</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=coral_reef_8</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Europeans union</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:06:23</t>
+          <t>0:06:25</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=europeans_union</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Peekaboo</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:06:33</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,19 +3751,19 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=peekaboo</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3772,39 +3772,39 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3813,19 +3813,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:04:19</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3845,28 +3845,28 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The Union of Rightwing Nations</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:04:21</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:06:32</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 8</t>
+          <t>The Based Region</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:04:22</t>
+          <t>0:04:33</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:06:34</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_8</t>
+          <t>https://www.nationstates.net/region=the_based_region</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Europeans union</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:04:24</t>
+          <t>0:04:34</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:06:37</t>
+          <t>0:06:51</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,19 +3956,19 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europeans_union</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3977,19 +3977,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:05:07</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:06:38</t>
+          <t>0:07:40</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,40 +3997,40 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Peekaboo</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:06:55</t>
+          <t>0:07:57</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=peekaboo</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4050,69 +4050,69 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:04:39</t>
+          <t>0:05:33</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:08:20</t>
         </is>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:05:34</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:08:21</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>The Union of Rightwing Nations</t>
+          <t>Order of Odas</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>423</v>
+        <v>507</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:08:27</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_rightwing_nations</t>
+          <t>https://www.nationstates.net/region=order_of_odas</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Ijaka, Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>The Based Region</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:07:18</t>
+          <t>0:08:27</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_based_region</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>Kalush</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4223,19 +4223,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:08:27</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,19 +4243,19 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=kalush</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>Libertarian Union of freedom</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:05:13</t>
+          <t>0:06:10</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:07:49</t>
+          <t>0:09:14</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=libertarian_union_of_freedom</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4296,28 +4296,28 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>NationStates Fanfics</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:05:29</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:08:14</t>
+          <t>0:09:27</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Caprecia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:08:49</t>
+          <t>0:09:27</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,40 +4366,40 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=caprecia</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>Principality of Lyraidia</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:06:19</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>0:09:29</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,19 +4407,19 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Order of Odas</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4428,19 +4428,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:06:19</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:08:57</t>
+          <t>0:09:29</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,19 +4448,19 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=order_of_odas</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>mason elemantery</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4469,19 +4469,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:08:57</t>
+          <t>0:09:36</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=mason_elemantery</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Kalush</t>
+          <t>The Greater Skytanian Reich</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:06:25</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:08:57</t>
+          <t>0:09:38</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kalush</t>
+          <t>https://www.nationstates.net/region=the_greater_skytanian_reich</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Tyrona</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:06:03</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:09:05</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=tyrona</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Libertarian Union of freedom</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:06:31</t>
+          <t>0:06:51</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:09:47</t>
+          <t>0:10:17</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=libertarian_union_of_freedom</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>NationStates Fanfics</t>
+          <t>League of Arabia</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>401</v>
+        <v>510</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:06:41</t>
+          <t>0:08:30</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>601</v>
+        <v>765</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:10:01</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,40 +4653,40 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstates_fanfics</t>
+          <t>https://www.nationstates.net/region=league_of_arabia</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Caprecia</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>401</v>
+        <v>515</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:06:41</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>602</v>
+        <v>772</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:10:02</t>
+          <t>0:12:52</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caprecia</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Principality of Lyraidia</t>
+          <t>Eastatic</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>402</v>
+        <v>515</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:06:42</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>604</v>
+        <v>772</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:10:04</t>
+          <t>0:12:52</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,40 +4735,40 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=principality_of_lyraidia</t>
+          <t>https://www.nationstates.net/region=eastatic</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>402</v>
+        <v>516</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:06:42</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>604</v>
+        <v>774</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:10:04</t>
+          <t>0:12:54</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>mason elemantery</t>
+          <t>Metal Slug</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>410</v>
+        <v>518</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:08:38</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>615</v>
+        <v>778</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:10:15</t>
+          <t>0:12:58</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mason_elemantery</t>
+          <t>https://www.nationstates.net/region=metal_slug</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>The Greater Skytanian Reich</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>412</v>
+        <v>518</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:06:52</t>
+          <t>0:08:38</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>618</v>
+        <v>778</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:10:18</t>
+          <t>0:12:58</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,19 +4858,19 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_skytanian_reich</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4879,19 +4879,19 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:08:40</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>635</v>
+        <v>780</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:10:35</t>
+          <t>0:13:00</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -4911,28 +4911,28 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>The Average Confederacy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>424</v>
+        <v>533</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:07:04</t>
+          <t>0:08:53</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>636</v>
+        <v>799</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:10:36</t>
+          <t>0:13:19</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,40 +4940,40 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=the_average_confederacy</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>League of Arabia</t>
+          <t>Alma Mater</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:08:54</t>
+          <t>0:08:53</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:13:20</t>
+          <t>0:13:19</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,19 +4981,19 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=league_of_arabia</t>
+          <t>https://www.nationstates.net/region=alma_mater</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5002,19 +5002,19 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:08:58</t>
+          <t>0:08:55</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:13:26</t>
+          <t>0:13:22</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,40 +5022,40 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Eastatic</t>
+          <t>Kasterborous</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:08:58</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:13:26</t>
+          <t>0:13:25</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,40 +5063,40 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastatic</t>
+          <t>https://www.nationstates.net/region=kasterborous</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>The Planes of Discord</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:08:59</t>
+          <t>0:09:01</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:13:32</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,19 +5104,19 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Metal Slug</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5125,19 +5125,19 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:09:00</t>
+          <t>0:09:03</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:13:31</t>
+          <t>0:13:35</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,40 +5145,40 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=metal_slug</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>New Jahkku</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:09:00</t>
+          <t>0:09:36</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>811</v>
+        <v>863</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:13:31</t>
+          <t>0:14:23</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=new_jahkku</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>542</v>
+        <v>692</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:09:02</t>
+          <t>0:11:32</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>813</v>
+        <v>1038</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:13:33</t>
+          <t>0:17:18</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>The Average Confederacy</t>
+          <t>AnCap Alliance</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>543</v>
+        <v>747</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:09:03</t>
+          <t>0:12:27</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>815</v>
+        <v>1121</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:13:35</t>
+          <t>0:18:41</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_average_confederacy</t>
+          <t>https://www.nationstates.net/region=ancap_alliance</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Alma Mater</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>543</v>
+        <v>748</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:09:03</t>
+          <t>0:12:28</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>815</v>
+        <v>1122</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:13:35</t>
+          <t>0:18:42</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,19 +5309,19 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alma_mater</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5330,19 +5330,19 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>545</v>
+        <v>748</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:09:05</t>
+          <t>0:12:28</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>818</v>
+        <v>1122</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:13:38</t>
+          <t>0:18:42</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Kasterborous</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>548</v>
+        <v>748</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:09:08</t>
+          <t>0:12:28</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>822</v>
+        <v>1122</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:13:42</t>
+          <t>0:18:42</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kasterborous</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -5403,7 +5403,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>The Planes of Discord</t>
+          <t>the roman north german confederation</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>551</v>
+        <v>805</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:09:11</t>
+          <t>0:13:25</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>827</v>
+        <v>1207</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:13:47</t>
+          <t>0:20:07</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_planes_of_discord</t>
+          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>Lutsk</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>553</v>
+        <v>806</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:09:13</t>
+          <t>0:13:26</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>830</v>
+        <v>1209</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:13:50</t>
+          <t>0:20:09</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=lutsk</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>New Jahkku</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>596</v>
+        <v>812</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:09:56</t>
+          <t>0:13:32</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>894</v>
+        <v>1218</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:14:54</t>
+          <t>0:20:18</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_jahkku</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
+          <t>Haisyn</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>756</v>
+        <v>817</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:12:36</t>
+          <t>0:13:37</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1134</v>
+        <v>1226</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:18:54</t>
+          <t>0:20:26</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,19 +5555,19 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
+          <t>https://www.nationstates.net/region=haisyn</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>AnCap Alliance</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5576,19 +5576,19 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:13:39</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1183</v>
+        <v>1228</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:19:43</t>
+          <t>0:20:28</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ancap_alliance</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -5608,28 +5608,28 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:13:39</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1184</v>
+        <v>1228</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:20:28</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,19 +5637,19 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>Super Metroid</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5658,19 +5658,19 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:13:40</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1184</v>
+        <v>1230</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:20:30</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=super_metroid</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -5690,28 +5690,28 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>E 206</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:13:42</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1184</v>
+        <v>1232</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:20:32</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,40 +5719,40 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=e_206</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:13:44</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1184</v>
+        <v>1236</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:20:36</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,40 +5760,40 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>the roman north german confederation</t>
+          <t>GODZONE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:13:52</t>
+          <t>0:13:47</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:20:48</t>
+          <t>0:20:41</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,19 +5801,19 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_roman_north_german_confederation</t>
+          <t>https://www.nationstates.net/region=godzone</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Lutsk</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5822,19 +5822,19 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:13:53</t>
+          <t>0:13:49</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:20:50</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,40 +5842,40 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lutsk</t>
+          <t>https://www.nationstates.net/region=tmo</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Alborada</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>834</v>
+        <v>958</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:15:58</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1251</v>
+        <v>1436</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:20:51</t>
+          <t>0:23:56</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=alborada</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -5895,7 +5895,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>ndi</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5904,19 +5904,19 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>840</v>
+        <v>990</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:14:00</t>
+          <t>0:16:30</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1260</v>
+        <v>1486</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:21:00</t>
+          <t>0:24:46</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,40 +5924,40 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=ndi</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>The Catholic Alliance</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>841</v>
+        <v>1213</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:14:01</t>
+          <t>0:20:13</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1262</v>
+        <v>1819</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:30:19</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,19 +5965,19 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=the_catholic_alliance</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5986,19 +5986,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>842</v>
+        <v>1238</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:14:02</t>
+          <t>0:20:38</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1262</v>
+        <v>1856</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,40 +6006,40 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>The Region of Syuceton</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>842</v>
+        <v>1251</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:14:02</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1263</v>
+        <v>1876</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:21:03</t>
+          <t>0:31:16</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=the_region_of_syuceton</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>E 206</t>
+          <t>Tails Region</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>849</v>
+        <v>1279</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:14:09</t>
+          <t>0:21:19</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1273</v>
+        <v>1918</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:21:13</t>
+          <t>0:31:58</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_206</t>
+          <t>https://www.nationstates.net/region=tails_region</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6100,28 +6100,28 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>851</v>
+        <v>1289</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:14:11</t>
+          <t>0:21:29</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1276</v>
+        <v>1934</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:21:16</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>GODZONE</t>
+          <t>Blood and Iron Community of States</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>855</v>
+        <v>1290</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:14:15</t>
+          <t>0:21:30</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1282</v>
+        <v>1935</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:21:22</t>
+          <t>0:32:15</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=godzone</t>
+          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>856</v>
+        <v>1293</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:14:16</t>
+          <t>0:21:33</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1284</v>
+        <v>1939</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:21:24</t>
+          <t>0:32:19</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,40 +6211,40 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tmo</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Alborada</t>
+          <t>Banject Bois</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>940</v>
+        <v>1294</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:15:40</t>
+          <t>0:21:34</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1411</v>
+        <v>1941</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:23:31</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,40 +6252,40 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alborada</t>
+          <t>https://www.nationstates.net/region=banject_bois</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>ndi</t>
+          <t>United countrys</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>976</v>
+        <v>1312</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:16:16</t>
+          <t>0:21:52</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1464</v>
+        <v>1968</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:24:24</t>
+          <t>0:32:48</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,40 +6293,40 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ndi</t>
+          <t>https://www.nationstates.net/region=united_countrys</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>The Catholic Alliance</t>
+          <t>Alvindor</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1098</v>
+        <v>1312</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:18:18</t>
+          <t>0:21:52</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1647</v>
+        <v>1969</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:27:27</t>
+          <t>0:32:49</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,19 +6334,19 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_catholic_alliance</t>
+          <t>https://www.nationstates.net/region=alvindor</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>TURKISH GANG</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6355,19 +6355,19 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1111</v>
+        <v>1379</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:18:31</t>
+          <t>0:22:59</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1667</v>
+        <v>2068</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:27:47</t>
+          <t>0:34:28</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,40 +6375,40 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=turkish_gang</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>Sandlands</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1121</v>
+        <v>1387</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:18:41</t>
+          <t>0:23:07</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1681</v>
+        <v>2080</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:28:01</t>
+          <t>0:34:40</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -6416,19 +6416,19 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=sandlands</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>The Region of Syuceton</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1133</v>
+        <v>1391</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:18:53</t>
+          <t>0:23:11</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1699</v>
+        <v>2086</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>0:34:46</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6457,19 +6457,19 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_syuceton</t>
+          <t>https://www.nationstates.net/region=karlovy_vary</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Tails Region</t>
+          <t>Baby</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6478,19 +6478,19 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1161</v>
+        <v>1398</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:19:21</t>
+          <t>0:23:18</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1742</v>
+        <v>2097</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:29:02</t>
+          <t>0:34:57</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tails_region</t>
+          <t>https://www.nationstates.net/region=baby</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -6510,28 +6510,28 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1171</v>
+        <v>1399</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:19:31</t>
+          <t>0:23:19</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1757</v>
+        <v>2098</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:29:17</t>
+          <t>0:34:58</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,40 +6539,40 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Blood and Iron Community of States</t>
+          <t>Horsia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1172</v>
+        <v>1402</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:19:32</t>
+          <t>0:23:22</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1758</v>
+        <v>2103</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:29:18</t>
+          <t>0:35:03</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,19 +6580,19 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blood_and_iron_community_of_states</t>
+          <t>https://www.nationstates.net/region=horsia</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6601,19 +6601,19 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1176</v>
+        <v>1402</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:19:36</t>
+          <t>0:23:22</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1764</v>
+        <v>2104</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:29:24</t>
+          <t>0:35:04</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,40 +6621,40 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Banject Bois</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1177</v>
+        <v>1404</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:19:37</t>
+          <t>0:23:24</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1766</v>
+        <v>2106</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:29:26</t>
+          <t>0:35:06</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=banject_bois</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Ayo</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6683,19 +6683,19 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1179</v>
+        <v>1405</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:19:39</t>
+          <t>0:23:25</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1768</v>
+        <v>2108</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:29:28</t>
+          <t>0:35:08</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,40 +6703,40 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ayo</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>United countrys</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1195</v>
+        <v>1407</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:19:55</t>
+          <t>0:23:27</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1793</v>
+        <v>2110</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:29:53</t>
+          <t>0:35:10</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6744,40 +6744,40 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_countrys</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1196</v>
+        <v>1409</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:19:56</t>
+          <t>0:23:29</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1794</v>
+        <v>2113</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:29:54</t>
+          <t>0:35:13</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6785,40 +6785,40 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Onionistlands</t>
+          <t>Imperial Roman Coprosperity Sphere</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1255</v>
+        <v>1409</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0:20:55</t>
+          <t>0:23:29</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1882</v>
+        <v>2113</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:35:13</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6826,19 +6826,19 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=onionistlands</t>
+          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Lily</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>TURKISH GANG</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6847,19 +6847,19 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1256</v>
+        <v>1410</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:20:56</t>
+          <t>0:23:30</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1885</v>
+        <v>2114</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:31:25</t>
+          <t>0:35:14</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6867,40 +6867,40 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=turkish_gang</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Sandlands</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1263</v>
+        <v>1413</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0:21:03</t>
+          <t>0:23:33</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1895</v>
+        <v>2120</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0:31:35</t>
+          <t>0:35:20</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6908,40 +6908,40 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sandlands</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1268</v>
+        <v>1414</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:21:08</t>
+          <t>0:23:34</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1901</v>
+        <v>2121</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:31:41</t>
+          <t>0:35:21</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=karlovy_vary</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Baby</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1276</v>
+        <v>1418</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:21:16</t>
+          <t>0:23:38</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1914</v>
+        <v>2127</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:31:54</t>
+          <t>0:35:27</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,40 +6990,40 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=baby</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Besterest Region</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1277</v>
+        <v>1426</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0:21:17</t>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1915</v>
+        <v>2139</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0:31:55</t>
+          <t>0:35:39</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -7031,40 +7031,40 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=besterest_region</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Horsia</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1279</v>
+        <v>1492</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:21:19</t>
+          <t>0:24:52</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1919</v>
+        <v>2238</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:31:59</t>
+          <t>0:37:18</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,40 +7072,40 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=horsia</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Brasil PT BR</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1280</v>
+        <v>1498</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:21:20</t>
+          <t>0:24:58</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1921</v>
+        <v>2247</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:32:01</t>
+          <t>0:37:27</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,40 +7113,40 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=brasil_pt_br</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Allied Nations of Glioca</t>
+          <t>Authoritariania</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1281</v>
+        <v>1521</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:21:21</t>
+          <t>0:25:21</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1922</v>
+        <v>2281</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:32:02</t>
+          <t>0:38:01</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,40 +7154,40 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=allied_nations_of_glioca</t>
+          <t>https://www.nationstates.net/region=authoritariania</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>EPSA, Ijaka, Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Fastiv</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1282</v>
+        <v>1525</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:21:22</t>
+          <t>0:25:25</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1923</v>
+        <v>2288</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:32:03</t>
+          <t>0:38:08</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,40 +7195,40 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=fastiv</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>unite the nations</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1284</v>
+        <v>1539</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:21:24</t>
+          <t>0:25:39</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1926</v>
+        <v>2308</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:32:06</t>
+          <t>0:38:28</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -7236,19 +7236,19 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=unite_the_nations</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>The Pines</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7257,19 +7257,19 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1285</v>
+        <v>1553</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:21:25</t>
+          <t>0:25:53</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1928</v>
+        <v>2330</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:32:08</t>
+          <t>0:38:50</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,40 +7277,40 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=the_pines</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>abusers</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1287</v>
+        <v>1555</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:25:55</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1930</v>
+        <v>2333</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:32:10</t>
+          <t>0:38:53</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,40 +7318,40 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=abusers</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>Card2055</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1287</v>
+        <v>1570</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:26:10</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1930</v>
+        <v>2355</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:32:10</t>
+          <t>0:39:15</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -7359,40 +7359,40 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=card2055</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Ijaka, Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>Seltanakorvasia</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1287</v>
+        <v>1577</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:26:17</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1931</v>
+        <v>2365</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:32:11</t>
+          <t>0:39:25</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,19 +7400,19 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=seltanakorvasia</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>The Alternate Community</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7421,19 +7421,19 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1291</v>
+        <v>1601</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:21:31</t>
+          <t>0:26:41</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1937</v>
+        <v>2402</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:32:17</t>
+          <t>0:40:02</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=the_alternate_community</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -7453,7 +7453,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>International Peace Treaty</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7462,19 +7462,19 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1293</v>
+        <v>1603</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:21:33</t>
+          <t>0:26:43</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1940</v>
+        <v>2404</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:32:20</t>
+          <t>0:40:04</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=international_peace_treaty</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7494,28 +7494,28 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Gamer Paradise</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1296</v>
+        <v>2030</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:21:36</t>
+          <t>0:33:50</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1944</v>
+        <v>3045</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:32:24</t>
+          <t>0:50:45</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7523,19 +7523,19 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=gamer_paradise</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Besterest Region</t>
+          <t>F1 talker</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7544,19 +7544,19 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1306</v>
+        <v>2039</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:21:46</t>
+          <t>0:33:59</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1960</v>
+        <v>3059</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:32:40</t>
+          <t>0:50:59</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=besterest_region</t>
+          <t>https://www.nationstates.net/region=f1_talker</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -7576,28 +7576,28 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>academe</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1387</v>
+        <v>2059</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0:23:07</t>
+          <t>0:34:19</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2080</v>
+        <v>3089</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0:34:40</t>
+          <t>0:51:29</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -7605,40 +7605,40 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=academe</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Authoritariania</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1408</v>
+        <v>2061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0:23:28</t>
+          <t>0:34:21</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2112</v>
+        <v>3092</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0:35:12</t>
+          <t>0:51:32</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -7646,40 +7646,40 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=authoritariania</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Fastiv</t>
+          <t>The great region of Eli</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1414</v>
+        <v>2063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:23:34</t>
+          <t>0:34:23</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2121</v>
+        <v>3094</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:35:21</t>
+          <t>0:51:34</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7687,40 +7687,40 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
+          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>unite the nations</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1428</v>
+        <v>2071</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:23:48</t>
+          <t>0:34:31</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2142</v>
+        <v>3107</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:35:42</t>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7728,40 +7728,40 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unite_the_nations</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>The Pines</t>
+          <t>olerais</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1434</v>
+        <v>2075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0:23:54</t>
+          <t>0:34:35</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2151</v>
+        <v>3113</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:35:51</t>
+          <t>0:51:53</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7769,19 +7769,19 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_pines</t>
+          <t>https://www.nationstates.net/region=olerais</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>abusers</t>
+          <t>The Great Empire of Wout</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7790,19 +7790,19 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1436</v>
+        <v>2120</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:23:56</t>
+          <t>0:35:20</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2154</v>
+        <v>3181</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:35:54</t>
+          <t>0:53:01</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abusers</t>
+          <t>https://www.nationstates.net/region=the_great_empire_of_wout</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -7822,28 +7822,28 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Card2055</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1449</v>
+        <v>2396</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:24:09</t>
+          <t>0:39:56</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2173</v>
+        <v>3595</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:36:13</t>
+          <t>0:59:55</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,19 +7851,19 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2055</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Seltanakorvasia</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7872,19 +7872,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1455</v>
+        <v>2442</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:24:15</t>
+          <t>0:40:42</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2182</v>
+        <v>3663</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:36:22</t>
+          <t>1:01:03</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,19 +7892,19 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7913,19 +7913,19 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1479</v>
+        <v>2776</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:24:39</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2219</v>
+        <v>4164</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:36:59</t>
+          <t>1:09:24</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,40 +7933,40 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>International Peace Treaty</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1481</v>
+        <v>2967</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0:24:41</t>
+          <t>0:49:27</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2221</v>
+        <v>4451</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0:37:01</t>
+          <t>1:14:11</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -7974,40 +7974,40 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_peace_treaty</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>SpacePizza Coralation</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1489</v>
+        <v>3006</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:24:49</t>
+          <t>0:50:06</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2233</v>
+        <v>4508</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:37:13</t>
+          <t>1:15:08</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,40 +8015,40 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Tiamat Accord</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1865</v>
+        <v>3009</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:50:09</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2797</v>
+        <v>4513</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:46:37</t>
+          <t>1:15:13</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,81 +8056,81 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tiamat_accord</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Gamer Paradise</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1897</v>
+        <v>3237</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:31:37</t>
+          <t>0:53:57</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2845</v>
+        <v>4856</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:47:25</t>
+          <t>1:20:56</t>
         </is>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gamer_paradise</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>F1 talker</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1903</v>
+        <v>3446</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:57:26</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2855</v>
+        <v>5169</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0:47:35</t>
+          <t>1:26:09</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -8138,666 +8138,10 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=f1_talker</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>academe</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>1923</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>0:32:03</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>2885</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>0:48:05</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=academe</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>The Estamindian Island Chain</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>1925</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>0:32:05</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>2887</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>0:48:07</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>0</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>The great region of Eli</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>1926</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>0:32:06</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>2889</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>0:48:09</t>
-        </is>
-      </c>
-      <c r="G191" t="b">
-        <v>0</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_great_region_of_eli</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>Regional Officers</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>0:32:17</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>2905</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>0:48:25</t>
-        </is>
-      </c>
-      <c r="G192" t="b">
-        <v>0</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>olerais</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>0:32:21</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>2911</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>0:48:31</t>
-        </is>
-      </c>
-      <c r="G193" t="b">
-        <v>0</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=olerais</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>Driving Around NYC at 4 AM Numb to Life</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>1964</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>0:32:44</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>2947</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>0:49:07</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>0</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=driving_around_nyc_at_4_am_numb_to_life</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>The Great Empire of Wout</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>0:33:01</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>2971</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>0:49:31</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>0</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_great_empire_of_wout</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>2243</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>0:37:23</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>3365</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>0:56:05</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>0</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>2284</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>0:38:04</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>3426</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>0:57:06</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>0</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>2288</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>0:38:08</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>3432</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>0:57:12</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>0</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>2597</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>0:43:17</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>3896</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>1:04:56</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>0</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>2806</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>0:46:46</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>4208</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>1:10:08</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>0</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>SpacePizza Coralation</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>0:47:30</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>4275</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>1:11:15</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=spacepizza_coralation</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>BoM, Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>2853</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>0:47:33</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>4279</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>1:11:19</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>0</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>3160</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>0:52:40</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>4740</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>1:19:00</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>3448</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>0:57:28</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>5172</v>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="06 March 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="07 March 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:27</t>
+          <t>0:00:39</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:33</t>
+          <t>0:00:46</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:38</t>
+          <t>0:00:50</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:42</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:42</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:43</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:24</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:01:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:00:50</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:00:50</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:41</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:01</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2533,28 +2533,28 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Budget Crackheads</t>
+          <t>Nova Evropa</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:03:15</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=budget_crackheads</t>
+          <t>https://www.nationstates.net/region=nova_evropa</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>Budget Crackheads</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=budget_crackheads</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2615,7 +2615,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ukrayina</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,19 +2644,19 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ukrayina</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>The Islamic Region</t>
+          <t>Ukrayina</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islamic_region</t>
+          <t>https://www.nationstates.net/region=ukrayina</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Megalosian Empire</t>
+          <t>The Islamic Region</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=megalosian_empire</t>
+          <t>https://www.nationstates.net/region=the_islamic_region</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2738,28 +2738,28 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>North Antartica</t>
+          <t>Megalosian Empire</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:34</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,24 +2767,24 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_antartica</t>
+          <t>https://www.nationstates.net/region=megalosian_empire</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Manchuria Conscription</t>
+          <t>North Antartica</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2796,11 +2796,11 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=manchuria_conscription</t>
+          <t>https://www.nationstates.net/region=north_antartica</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>Manchuria Conscription</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,40 +2849,40 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=manchuria_conscription</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,32 +2890,32 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2931,19 +2931,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>Unitarian Union</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2952,19 +2952,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=unitarian_union</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Murkton</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=murkton</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Region of Extremely Depolarized Nations</t>
+          <t>Murkton</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_extremely_depolarized_nations</t>
+          <t>https://www.nationstates.net/region=murkton</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3107,7 +3107,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Soxys Fish Shop Of The Multiversus</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>Region of Extremely Depolarized Nations</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,60 +3218,60 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=region_of_extremely_depolarized_nations</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>TrOwOns</t>
+          <t>Soxys Fish Shop Of The Multiversus</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trowons</t>
+          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3280,19 +3280,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:05:11</t>
+          <t>0:04:58</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,81 +3341,81 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>TrOwOns</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:05:11</t>
+          <t>0:04:58</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=trowons</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:05:16</t>
+          <t>0:04:58</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,40 +3423,40 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,40 +3464,40 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Uzek</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,40 +3505,40 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzek</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:05:09</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,19 +3546,19 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3567,19 +3567,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:19</t>
+          <t>0:05:10</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Uzek</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:31</t>
+          <t>0:05:10</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,19 +3628,19 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=uzek</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3649,19 +3649,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:05:10</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3681,28 +3681,28 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:05:12</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,19 +3751,19 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:05:41</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,19 +3833,19 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Shattered Plans</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3854,19 +3854,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shattered_plans</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:06:13</t>
+          <t>0:05:51</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>BoM, Ijaka, Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:04:14</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:06:21</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>Shattered Plans</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:04:17</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:06:26</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,40 +3997,40 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=shattered_plans</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:45</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:07:07</t>
+          <t>0:06:17</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,40 +4038,40 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Ijaka, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>The Friendly Nation</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:07:08</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,40 +4079,40 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=the_friendly_nation</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Freedom Placas</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:04:49</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:06:42</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,24 +4120,24 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_placas</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4161,24 +4161,24 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Swediztan isles</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4202,40 +4202,40 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=swediztan_isles</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Freedom Placas</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:04:54</t>
+          <t>0:05:01</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:07:21</t>
+          <t>0:07:32</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=freedom_placas</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4255,28 +4255,28 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:04:54</t>
+          <t>0:05:02</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,40 +4284,40 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Hops Across</t>
+          <t>Swediztan isles</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:08:10</t>
+          <t>0:07:36</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,19 +4325,19 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hops_across</t>
+          <t>https://www.nationstates.net/region=swediztan_isles</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the Hartland</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4346,19 +4346,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:05:07</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:08:32</t>
+          <t>0:07:40</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4378,28 +4378,28 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>test 0001</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:05:45</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:08:38</t>
+          <t>0:07:41</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,40 +4407,40 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=test_0001</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>The Allied Armies of Subscribers</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:08:41</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=the_allied_armies_of_subscribers</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>Hops Across</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:05:49</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:08:43</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=hops_across</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:08:46</t>
+          <t>0:08:40</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,19 +4530,19 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Pan Slavic All Eurasian Congress</t>
+          <t>The Federation of the Hartland</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4551,19 +4551,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:05:51</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>674</v>
+        <v>526</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:11:14</t>
+          <t>0:08:46</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pan_slavic_all_eurasian_congress</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>test 0001</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>464</v>
+        <v>355</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:07:44</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>696</v>
+        <v>533</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:08:53</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=test_0001</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>Tyrona</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>465</v>
+        <v>356</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:07:45</t>
+          <t>0:05:56</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>697</v>
+        <v>534</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:11:37</t>
+          <t>0:08:54</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,40 +4653,40 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=tyrona</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>The New confederacy</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>466</v>
+        <v>357</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:07:46</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>700</v>
+        <v>536</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:11:40</t>
+          <t>0:08:56</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_confederacy</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>The Holy See of Vagen</t>
+          <t>Clown Council</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:07:47</t>
+          <t>0:05:59</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>701</v>
+        <v>539</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:11:41</t>
+          <t>0:08:59</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,40 +4735,40 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
+          <t>https://www.nationstates.net/region=clown_council</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Metal Slug</t>
+          <t>Pan Slavic All Eurasian Congress</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:07:47</t>
+          <t>0:07:21</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:11:41</t>
+          <t>0:11:02</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=metal_slug</t>
+          <t>https://www.nationstates.net/region=pan_slavic_all_eurasian_congress</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4788,28 +4788,28 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:07:47</t>
+          <t>0:07:39</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:11:41</t>
+          <t>0:11:28</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,81 +4817,81 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Antarctic Empire</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:07:48</t>
+          <t>0:07:40</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:11:43</t>
+          <t>0:11:30</t>
         </is>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=antarctic_empire</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Greater French Empire</t>
+          <t>The New confederacy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:07:48</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:11:43</t>
+          <t>0:11:33</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,40 +4899,40 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_french_empire</t>
+          <t>https://www.nationstates.net/region=the_new_confederacy</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>The Holy See of Vagen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:07:49</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:11:43</t>
+          <t>0:11:33</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,40 +4940,40 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>Metal Slug</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:07:52</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:11:48</t>
+          <t>0:11:33</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,40 +4981,40 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=metal_slug</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>North Arctica</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:08:00</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:12:00</t>
+          <t>0:11:33</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,81 +5022,81 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_arctica</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>Antarctic Empire</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:08:00</t>
+          <t>0:07:43</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:12:01</t>
+          <t>0:11:34</t>
         </is>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=antarctic_empire</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>The Popptart Empire</t>
+          <t>Greater French Empire</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:08:03</t>
+          <t>0:07:43</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:12:05</t>
+          <t>0:11:35</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,40 +5104,40 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_popptart_empire</t>
+          <t>https://www.nationstates.net/region=greater_french_empire</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Kepler 37b</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>668</v>
+        <v>463</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:11:08</t>
+          <t>0:07:43</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1001</v>
+        <v>695</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:16:41</t>
+          <t>0:11:35</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,40 +5145,40 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kepler_37b</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Debate club</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>675</v>
+        <v>466</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:11:15</t>
+          <t>0:07:46</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1013</v>
+        <v>699</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:16:53</t>
+          <t>0:11:39</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=debate_club</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Boivert</t>
+          <t>North Arctica</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>678</v>
+        <v>473</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:11:18</t>
+          <t>0:07:53</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1017</v>
+        <v>709</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:16:57</t>
+          <t>0:11:49</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=boivert</t>
+          <t>https://www.nationstates.net/region=north_arctica</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>686</v>
+        <v>474</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:11:26</t>
+          <t>0:07:54</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1029</v>
+        <v>710</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:17:09</t>
+          <t>0:11:50</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>The Popptart Empire</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>686</v>
+        <v>477</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:11:26</t>
+          <t>0:07:57</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1029</v>
+        <v>715</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:17:09</t>
+          <t>0:11:55</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=the_popptart_empire</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>The Straw Hat Pirates</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>686</v>
+        <v>627</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:11:26</t>
+          <t>0:10:27</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1029</v>
+        <v>940</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:17:09</t>
+          <t>0:15:40</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=the_straw_hat_pirates</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>Kepler 37b</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>727</v>
+        <v>646</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:12:07</t>
+          <t>0:10:46</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1090</v>
+        <v>969</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:18:10</t>
+          <t>0:16:09</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,40 +5391,40 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=kepler_37b</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>Debate club</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>729</v>
+        <v>661</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:12:09</t>
+          <t>0:11:01</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1093</v>
+        <v>991</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:18:13</t>
+          <t>0:16:31</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,19 +5432,19 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=debate_club</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>Boivert</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5453,19 +5453,19 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>729</v>
+        <v>664</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:12:09</t>
+          <t>0:11:04</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1094</v>
+        <v>996</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:18:14</t>
+          <t>0:16:36</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=boivert</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>E 206</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>731</v>
+        <v>671</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:12:11</t>
+          <t>0:11:11</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1097</v>
+        <v>1007</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:18:17</t>
+          <t>0:16:47</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_206</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>734</v>
+        <v>671</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:12:14</t>
+          <t>0:11:11</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1101</v>
+        <v>1007</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:18:21</t>
+          <t>0:16:47</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Barbarian</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>734</v>
+        <v>671</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:12:14</t>
+          <t>0:11:11</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1101</v>
+        <v>1007</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:18:21</t>
+          <t>0:16:47</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,81 +5596,81 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barbarian</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Hyperion</t>
+          <t>Haisyn</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>818</v>
+        <v>716</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:13:38</t>
+          <t>0:11:56</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1227</v>
+        <v>1074</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:20:27</t>
+          <t>0:17:54</t>
         </is>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hyperion</t>
+          <t>https://www.nationstates.net/region=haisyn</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Bonanas</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>826</v>
+        <v>717</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1239</v>
+        <v>1075</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:20:39</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bonanas</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>993</v>
+        <v>717</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:16:33</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1490</v>
+        <v>1076</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:24:50</t>
+          <t>0:17:56</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,19 +5719,19 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>The Boio Alliance</t>
+          <t>Super Metroid</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5740,19 +5740,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>996</v>
+        <v>718</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:16:36</t>
+          <t>0:11:58</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1494</v>
+        <v>1077</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:24:54</t>
+          <t>0:17:57</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,40 +5760,40 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boio_alliance</t>
+          <t>https://www.nationstates.net/region=super_metroid</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>E 206</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1002</v>
+        <v>720</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:16:42</t>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1502</v>
+        <v>1080</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:25:02</t>
+          <t>0:18:00</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,40 +5801,40 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=e_206</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Temple of Petey</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1010</v>
+        <v>722</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:16:50</t>
+          <t>0:12:02</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1516</v>
+        <v>1083</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:25:16</t>
+          <t>0:18:03</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=temple_of_petey</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -5854,28 +5854,28 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>IHFO</t>
+          <t>Barbarian</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1029</v>
+        <v>722</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:17:09</t>
+          <t>0:12:02</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1543</v>
+        <v>1083</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:25:43</t>
+          <t>0:18:03</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,40 +5883,40 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ihfo</t>
+          <t>https://www.nationstates.net/region=barbarian</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Bonanas</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1048</v>
+        <v>811</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:17:28</t>
+          <t>0:13:31</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1572</v>
+        <v>1216</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:26:12</t>
+          <t>0:20:16</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bonk</t>
+          <t>https://www.nationstates.net/region=bonanas</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -5936,28 +5936,28 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>The Diplomatic Committee Of Nations</t>
+          <t>Acta non verba</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1051</v>
+        <v>961</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:17:31</t>
+          <t>0:16:01</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1576</v>
+        <v>1441</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:26:16</t>
+          <t>0:24:01</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_diplomatic_committee_of_nations</t>
+          <t>https://www.nationstates.net/region=acta_non_verba</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -5977,28 +5977,28 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>The Boio Alliance</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1055</v>
+        <v>963</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:17:35</t>
+          <t>0:16:03</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1583</v>
+        <v>1445</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:26:23</t>
+          <t>0:24:05</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,40 +6006,40 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=the_boio_alliance</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Greater Soviet Union</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1055</v>
+        <v>970</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:17:35</t>
+          <t>0:16:10</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1583</v>
+        <v>1455</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:26:23</t>
+          <t>0:24:15</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_soviet_union</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Les Gemeaux Vierge Verseau</t>
+          <t>Temple of Petey</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1058</v>
+        <v>979</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:17:38</t>
+          <t>0:16:19</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1587</v>
+        <v>1469</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:26:27</t>
+          <t>0:24:29</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
+          <t>https://www.nationstates.net/region=temple_of_petey</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6100,28 +6100,28 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>IHFO</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1060</v>
+        <v>996</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:17:40</t>
+          <t>0:16:36</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1590</v>
+        <v>1494</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:26:30</t>
+          <t>0:24:54</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,19 +6129,19 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=ihfo</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>The Thicc Continent</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6150,19 +6150,19 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1066</v>
+        <v>1016</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:17:46</t>
+          <t>0:16:56</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1599</v>
+        <v>1524</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:26:39</t>
+          <t>0:25:24</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_thicc_continent</t>
+          <t>https://www.nationstates.net/region=bonk</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6182,28 +6182,28 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Cyberius Confederation</t>
+          <t>The Diplomatic Committee Of Nations</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1067</v>
+        <v>1022</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:17:47</t>
+          <t>0:17:02</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1600</v>
+        <v>1534</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:26:40</t>
+          <t>0:25:34</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,40 +6211,40 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
+          <t>https://www.nationstates.net/region=the_diplomatic_committee_of_nations</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1076</v>
+        <v>1025</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:17:56</t>
+          <t>0:17:05</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1614</v>
+        <v>1537</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:26:54</t>
+          <t>0:25:37</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,19 +6252,19 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>OwOsiris</t>
+          <t>Greater Soviet Union</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6273,19 +6273,19 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1107</v>
+        <v>1026</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:18:27</t>
+          <t>0:17:06</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1660</v>
+        <v>1538</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:25:38</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,40 +6293,40 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owosiris</t>
+          <t>https://www.nationstates.net/region=greater_soviet_union</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Onionistlands</t>
+          <t>Les Gemeaux Vierge Verseau</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1124</v>
+        <v>1027</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:17:07</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1686</v>
+        <v>1540</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:28:06</t>
+          <t>0:25:40</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=onionistlands</t>
+          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -6346,28 +6346,28 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>accolades</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1142</v>
+        <v>1028</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:19:02</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1712</v>
+        <v>1542</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:28:32</t>
+          <t>0:25:42</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,19 +6375,19 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accolades</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>The Warsaw pact of the world</t>
+          <t>The Thicc Continent</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6396,19 +6396,19 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1149</v>
+        <v>1033</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:19:09</t>
+          <t>0:17:13</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1724</v>
+        <v>1550</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:28:44</t>
+          <t>0:25:50</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_warsaw_pact_of_the_world</t>
+          <t>https://www.nationstates.net/region=the_thicc_continent</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -6428,28 +6428,28 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1150</v>
+        <v>1035</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:19:10</t>
+          <t>0:17:15</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1726</v>
+        <v>1552</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:28:46</t>
+          <t>0:25:52</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6457,40 +6457,40 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Horsia</t>
+          <t>Alvindor</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1154</v>
+        <v>1046</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:19:14</t>
+          <t>0:17:26</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1730</v>
+        <v>1569</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:28:50</t>
+          <t>0:26:09</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,40 +6498,40 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=horsia</t>
+          <t>https://www.nationstates.net/region=alvindor</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>OwOsiris</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1154</v>
+        <v>1080</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:19:14</t>
+          <t>0:18:00</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1731</v>
+        <v>1620</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:28:51</t>
+          <t>0:27:00</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,19 +6539,19 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=owosiris</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Onionistlands</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6560,19 +6560,19 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1155</v>
+        <v>1096</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:19:15</t>
+          <t>0:18:16</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1733</v>
+        <v>1644</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:28:53</t>
+          <t>0:27:24</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,40 +6580,40 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=onionistlands</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>accolades</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1157</v>
+        <v>1112</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:19:17</t>
+          <t>0:18:32</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1735</v>
+        <v>1669</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:28:55</t>
+          <t>0:27:49</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,40 +6621,40 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=accolades</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>The Warsaw pact of the world</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1160</v>
+        <v>1118</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:19:20</t>
+          <t>0:18:38</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1741</v>
+        <v>1676</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:29:01</t>
+          <t>0:27:56</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6662,40 +6662,40 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=the_warsaw_pact_of_the_world</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Agia Germania Anest</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1161</v>
+        <v>1119</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:19:21</t>
+          <t>0:18:39</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1742</v>
+        <v>1678</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:29:02</t>
+          <t>0:27:58</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,40 +6703,40 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>Horsia</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:19:22</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1744</v>
+        <v>1684</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:29:04</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6744,40 +6744,40 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=horsia</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:19:22</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1744</v>
+        <v>1685</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:29:04</t>
+          <t>0:28:05</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6785,40 +6785,40 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Ijaka, Lily</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1162</v>
+        <v>1125</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0:19:22</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1744</v>
+        <v>1687</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0:29:04</t>
+          <t>0:28:07</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6826,40 +6826,40 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1164</v>
+        <v>1126</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:19:24</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1745</v>
+        <v>1689</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:29:05</t>
+          <t>0:28:09</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6867,40 +6867,40 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1164</v>
+        <v>1131</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0:19:24</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1746</v>
+        <v>1696</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0:29:06</t>
+          <t>0:28:16</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6908,40 +6908,40 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Cosmopolitan Convention</t>
+          <t>Agia Germania Anest</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1166</v>
+        <v>1131</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:19:26</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1748</v>
+        <v>1696</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:29:08</t>
+          <t>0:28:16</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:19:26</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1749</v>
+        <v>1698</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:29:09</t>
+          <t>0:28:18</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,40 +6990,40 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Imperial Roman Coprosperity Sphere</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1167</v>
+        <v>1132</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0:19:27</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1751</v>
+        <v>1698</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:28:18</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -7031,19 +7031,19 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Lily</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7052,19 +7052,19 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1167</v>
+        <v>1132</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:19:27</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1751</v>
+        <v>1699</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -7084,28 +7084,28 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1171</v>
+        <v>1133</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:19:31</t>
+          <t>0:18:53</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1756</v>
+        <v>1700</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:29:16</t>
+          <t>0:28:20</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,19 +7113,19 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Iberian Peninsula</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7134,19 +7134,19 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1184</v>
+        <v>1134</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1777</v>
+        <v>1701</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:29:37</t>
+          <t>0:28:21</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,19 +7154,19 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=iberian_peninsula</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Cosmopolitan Convention</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7175,19 +7175,19 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1258</v>
+        <v>1136</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:20:58</t>
+          <t>0:18:56</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1886</v>
+        <v>1703</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:31:26</t>
+          <t>0:28:23</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,40 +7195,40 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Fastiv</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1290</v>
+        <v>1136</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:21:30</t>
+          <t>0:18:56</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1935</v>
+        <v>1704</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:32:15</t>
+          <t>0:28:24</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -7236,19 +7236,19 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Treaty of Peaceable Nations</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7257,19 +7257,19 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1290</v>
+        <v>1137</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:21:30</t>
+          <t>0:18:57</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1936</v>
+        <v>1705</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:32:16</t>
+          <t>0:28:25</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=treaty_of_peaceable_nations</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -7289,28 +7289,28 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Midlight</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1331</v>
+        <v>1138</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:22:11</t>
+          <t>0:18:58</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1997</v>
+        <v>1706</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:33:17</t>
+          <t>0:28:26</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,40 +7318,40 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=midlight</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>BoM, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Duolingo airport</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1338</v>
+        <v>1140</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:22:18</t>
+          <t>0:19:00</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2007</v>
+        <v>1709</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:33:27</t>
+          <t>0:28:29</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -7359,40 +7359,40 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=duolingo_airport</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Seltanakorvasia</t>
+          <t>Iberian Peninsula</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1338</v>
+        <v>1154</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:22:18</t>
+          <t>0:19:14</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2007</v>
+        <v>1731</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:33:27</t>
+          <t>0:28:51</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,19 +7400,19 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
+          <t>https://www.nationstates.net/region=iberian_peninsula</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>The Association of Denmark</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7421,19 +7421,19 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1353</v>
+        <v>1223</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:22:33</t>
+          <t>0:20:23</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2029</v>
+        <v>1835</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:33:49</t>
+          <t>0:30:35</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7441,40 +7441,40 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_association_of_denmark</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Target Region 5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1362</v>
+        <v>1250</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:22:42</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2043</v>
+        <v>1875</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:34:03</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,40 +7482,40 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=target_region_5</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>International Peace Treaty</t>
+          <t>Fastiv</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1363</v>
+        <v>1254</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:22:43</t>
+          <t>0:20:54</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2045</v>
+        <v>1881</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:34:05</t>
+          <t>0:31:21</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7523,19 +7523,19 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_peace_treaty</t>
+          <t>https://www.nationstates.net/region=fastiv</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>Treaty of Peaceable Nations</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7544,19 +7544,19 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1372</v>
+        <v>1255</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:22:52</t>
+          <t>0:20:55</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2058</v>
+        <v>1882</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:34:18</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,40 +7564,40 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=treaty_of_peaceable_nations</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Zanzibarr</t>
+          <t>Midlight</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1376</v>
+        <v>1297</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0:22:56</t>
+          <t>0:21:37</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2064</v>
+        <v>1945</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0:34:24</t>
+          <t>0:32:25</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -7605,40 +7605,40 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=zanzibarr</t>
+          <t>https://www.nationstates.net/region=midlight</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Regional Defense Council</t>
+          <t>Duolingo airport</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1384</v>
+        <v>1304</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0:23:04</t>
+          <t>0:21:44</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2076</v>
+        <v>1956</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0:34:36</t>
+          <t>0:32:36</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_defense_council</t>
+          <t>https://www.nationstates.net/region=duolingo_airport</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -7658,7 +7658,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Tiamat Accord</t>
+          <t>Seltanakorvasia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7667,19 +7667,19 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1778</v>
+        <v>1304</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:29:38</t>
+          <t>0:21:44</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2667</v>
+        <v>1956</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:44:27</t>
+          <t>0:32:36</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7687,40 +7687,40 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tiamat_accord</t>
+          <t>https://www.nationstates.net/region=seltanakorvasia</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Roots of the future</t>
+          <t>The Association of Denmark</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1779</v>
+        <v>1325</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:29:39</t>
+          <t>0:22:05</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2668</v>
+        <v>1988</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:44:28</t>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roots_of_the_future</t>
+          <t>https://www.nationstates.net/region=the_association_of_denmark</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -7740,48 +7740,48 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Mafia</t>
+          <t>The Alternate Community</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1781</v>
+        <v>1334</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0:29:41</t>
+          <t>0:22:14</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2671</v>
+        <v>2001</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:44:31</t>
+          <t>0:33:21</t>
         </is>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mafia</t>
+          <t>https://www.nationstates.net/region=the_alternate_community</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>The Steak Tavern</t>
+          <t>International Peace Treaty</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7790,19 +7790,19 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1784</v>
+        <v>1335</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:29:44</t>
+          <t>0:22:15</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2676</v>
+        <v>2003</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:44:36</t>
+          <t>0:33:23</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,19 +7810,19 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_steak_tavern</t>
+          <t>https://www.nationstates.net/region=international_peace_treaty</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>F1 talker</t>
+          <t>Europe of De Jota</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7831,19 +7831,19 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1826</v>
+        <v>1343</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:30:26</t>
+          <t>0:22:23</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2738</v>
+        <v>2015</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:45:38</t>
+          <t>0:33:35</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,19 +7851,19 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=f1_talker</t>
+          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Holosiiv</t>
+          <t>Zanzibarr</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7872,19 +7872,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1845</v>
+        <v>1348</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:30:45</t>
+          <t>0:22:28</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2768</v>
+        <v>2022</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:46:08</t>
+          <t>0:33:42</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=holosiiv</t>
+          <t>https://www.nationstates.net/region=zanzibarr</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -7904,28 +7904,28 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>The Estamindian Island Chain</t>
+          <t>Regional Defense Council</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1846</v>
+        <v>1360</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:30:46</t>
+          <t>0:22:40</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2769</v>
+        <v>2039</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:46:09</t>
+          <t>0:33:59</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,40 +7933,40 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
+          <t>https://www.nationstates.net/region=regional_defense_council</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Roots of the future</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1858</v>
+        <v>1810</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0:30:58</t>
+          <t>0:30:10</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2787</v>
+        <v>2715</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0:46:27</t>
+          <t>0:45:15</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -7974,40 +7974,40 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=roots_of_the_future</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>The baltic sea</t>
+          <t>Mafia</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1860</v>
+        <v>1813</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:30:13</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2790</v>
+        <v>2720</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:46:30</t>
+          <t>0:45:20</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,19 +8015,19 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_baltic_sea</t>
+          <t>https://www.nationstates.net/region=mafia</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>olerais</t>
+          <t>The Steak Tavern</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8036,19 +8036,19 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1862</v>
+        <v>1816</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:31:02</t>
+          <t>0:30:16</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2793</v>
+        <v>2725</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:46:33</t>
+          <t>0:45:25</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,40 +8056,40 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=olerais</t>
+          <t>https://www.nationstates.net/region=the_steak_tavern</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Magicae Mundi</t>
+          <t>F1 talker</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1983</v>
+        <v>1861</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:33:03</t>
+          <t>0:31:01</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2975</v>
+        <v>2792</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:49:35</t>
+          <t>0:46:32</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -8097,40 +8097,40 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=magicae_mundi</t>
+          <t>https://www.nationstates.net/region=f1_talker</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Holosiiv</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2233</v>
+        <v>1881</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0:37:13</t>
+          <t>0:31:21</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3350</v>
+        <v>2821</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0:55:50</t>
+          <t>0:47:01</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -8138,19 +8138,19 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=holosiiv</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8159,19 +8159,19 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2276</v>
+        <v>1882</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0:37:56</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3413</v>
+        <v>2823</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0:56:53</t>
+          <t>0:47:03</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -8179,40 +8179,40 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2280</v>
+        <v>1896</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0:38:00</t>
+          <t>0:31:36</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3420</v>
+        <v>2843</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>0:57:00</t>
+          <t>0:47:23</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -8220,40 +8220,40 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The baltic sea</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2661</v>
+        <v>1897</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0:44:21</t>
+          <t>0:31:37</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3992</v>
+        <v>2845</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1:06:32</t>
+          <t>0:47:25</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -8261,40 +8261,40 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_baltic_sea</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>olerais</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2879</v>
+        <v>1898</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0:47:59</t>
+          <t>0:31:38</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4318</v>
+        <v>2847</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1:11:58</t>
+          <t>0:47:27</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -8302,40 +8302,40 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=olerais</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2927</v>
+        <v>2273</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0:48:47</t>
+          <t>0:37:53</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4391</v>
+        <v>3409</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1:13:11</t>
+          <t>0:56:49</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -8343,19 +8343,19 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -8364,27 +8364,27 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3193</v>
+        <v>2316</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0:53:13</t>
+          <t>0:38:36</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>4789</v>
+        <v>3474</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1:19:49</t>
+          <t>0:57:54</t>
         </is>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -8396,39 +8396,285 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2320</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0:38:40</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>3479</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0:57:59</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2681</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0:44:41</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>4022</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1:07:02</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>Violet Irises</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2695</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0:44:55</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1:07:23</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=violet_irises</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2894</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0:48:14</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>4340</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1:12:20</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2946</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0:49:06</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>4418</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1:13:38</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3195</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0:53:15</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>4792</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1:19:52</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>3448</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>0:57:28</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>5172</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>0</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="C201" t="n">
+        <v>3452</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0:57:32</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>5178</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1:26:18</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="07 March 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="08 March 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>The Age of Man</t>
+          <t>ELITE ACE TEAM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:39</t>
+          <t>0:00:06</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,40 +512,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_age_of_man</t>
+          <t>https://www.nationstates.net/region=elite_ace_team</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Sim e sim</t>
+          <t>The Age of Man</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,19 +553,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sim_e_sim</t>
+          <t>https://www.nationstates.net/region=the_age_of_man</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>diomnlark</t>
+          <t>Sim e sim</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:50</t>
+          <t>0:00:37</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=diomnlark</t>
+          <t>https://www.nationstates.net/region=sim_e_sim</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,28 +606,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>The snowy peninsula</t>
+          <t>diomnlark</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:00:41</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
+          <t>https://www.nationstates.net/region=diomnlark</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Kantrias, Lily</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Blue skies</t>
+          <t>The snowy peninsula</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:00:43</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blue_skies</t>
+          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, Lily</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The Cascade</t>
+          <t>Blue skies</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:00:44</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_cascade</t>
+          <t>https://www.nationstates.net/region=blue_skies</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Conglomerate of Slimes</t>
+          <t>The Cascade</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:00:46</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
+          <t>https://www.nationstates.net/region=the_cascade</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 5</t>
+          <t>Conglomerate of Slimes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:46</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_5</t>
+          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>Coral Reef 5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:00:48</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:24</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,7 +840,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=coral_reef_5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Dubno</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=dubno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gelre</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gelre</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Gelre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=gelre</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Meow</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=meow</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>Meow</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=meow</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Imperial County</t>
+          <t>The United Table of The Boys</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_county</t>
+          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Central European Regional Assembly</t>
+          <t>Imperial County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:24</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
+          <t>https://www.nationstates.net/region=imperial_county</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lily, TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Syndir</t>
+          <t>The Central European Regional Assembly</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=syndir</t>
+          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily, TCB</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Landon Bow</t>
+          <t>Syndir</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=landon_bow</t>
+          <t>https://www.nationstates.net/region=syndir</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Card2025</t>
+          <t>Landon Bow</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2025</t>
+          <t>https://www.nationstates.net/region=landon_bow</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Matamo</t>
+          <t>Card2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=matamo</t>
+          <t>https://www.nationstates.net/region=card2025</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1303,28 +1303,28 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>accommodating</t>
+          <t>Matamo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:56</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accommodating</t>
+          <t>https://www.nationstates.net/region=matamo</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Kilisis</t>
+          <t>accommodating</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:13</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kilisis</t>
+          <t>https://www.nationstates.net/region=accommodating</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1385,28 +1385,28 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Renem</t>
+          <t>Kilisis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=renem</t>
+          <t>https://www.nationstates.net/region=kilisis</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>Renem</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=renem</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1467,69 +1467,69 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Band kids</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=band_kids</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Eroias</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eroias</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of German States</t>
+          <t>Eroias</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
+          <t>https://www.nationstates.net/region=eroias</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>Dragonborn Confederate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,28 +1672,28 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Shizei</t>
+          <t>The Confederacy of German States</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shizei</t>
+          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>International Federalist Union</t>
+          <t>Solar Union</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_federalist_union</t>
+          <t>https://www.nationstates.net/region=solar_union</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>United Federal Nations</t>
+          <t>Shizei</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:36</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_federal_nations</t>
+          <t>https://www.nationstates.net/region=shizei</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,28 +1795,28 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 10</t>
+          <t>International Federalist Union</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_10</t>
+          <t>https://www.nationstates.net/region=international_federalist_union</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ischia</t>
+          <t>United Federal Nations</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ischia</t>
+          <t>https://www.nationstates.net/region=united_federal_nations</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Combine world</t>
+          <t>Coral Reef 10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:41</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=combine_world</t>
+          <t>https://www.nationstates.net/region=coral_reef_10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>the Rejected Warzone</t>
+          <t>Ischia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:42</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
+          <t>https://www.nationstates.net/region=ischia</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Combine world</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=combine_world</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ascensionsen</t>
+          <t>the Rejected Warzone</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ascensionsen</t>
+          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:02:41</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,19 +2070,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>Ascensionsen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:41</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,40 +2111,40 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owls</t>
+          <t>https://www.nationstates.net/region=ascensionsen</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Bean Union</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:59</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bean_union</t>
+          <t>https://www.nationstates.net/region=owls</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>The Holy Federation of Dunkeld</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,24 +2234,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Council of The Righteous</t>
+          <t>Federation of Nation and Freedom</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
+          <t>https://www.nationstates.net/region=federation_of_nation_and_freedom</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Bean Union</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=bean_union</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2328,28 +2328,28 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Atlae</t>
+          <t>The Holy Federation of Dunkeld</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:03:01</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlae</t>
+          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Kiansia Continent</t>
+          <t>Council of The Righteous</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kiansia_continent</t>
+          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,19 +2439,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Atlae</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=atlae</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Kiansia Continent</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:25</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=kiansia_continent</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2533,28 +2533,28 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Nova Evropa</t>
+          <t>The UN Of The Universal Republic</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nova_evropa</t>
+          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Budget Crackheads</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,19 +2603,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=budget_crackheads</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:20</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Ukrayina</t>
+          <t>Nova Evropa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ukrayina</t>
+          <t>https://www.nationstates.net/region=nova_evropa</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>The Islamic Region</t>
+          <t>Budget Crackheads</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islamic_region</t>
+          <t>https://www.nationstates.net/region=budget_crackheads</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Megalosian Empire</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:34</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=megalosian_empire</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2779,28 +2779,28 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>North Antartica</t>
+          <t>Ukrayina</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_antartica</t>
+          <t>https://www.nationstates.net/region=ukrayina</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Manchuria Conscription</t>
+          <t>The Islamic Region</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,19 +2849,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=manchuria_conscription</t>
+          <t>https://www.nationstates.net/region=the_islamic_region</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>Megalosian Empire</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:04:02</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,40 +2890,40 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=megalosian_empire</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>North Antartica</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:03:59</t>
+          <t>0:04:03</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,19 +2931,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=north_antartica</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Unitarian Union</t>
+          <t>Manchuria Conscription</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2952,19 +2952,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unitarian_union</t>
+          <t>https://www.nationstates.net/region=manchuria_conscription</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Murkton</t>
+          <t>Unitarian Union</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:04:31</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=murkton</t>
+          <t>https://www.nationstates.net/region=unitarian_union</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:04:31</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,19 +3136,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3189,28 +3189,28 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Region of Extremely Depolarized Nations</t>
+          <t>Murkton</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:03:17</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:04:55</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_extremely_depolarized_nations</t>
+          <t>https://www.nationstates.net/region=murkton</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Soxys Fish Shop Of The Multiversus</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3239,19 +3239,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:04:54</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:05:33</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>Region of Extremely Depolarized Nations</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:04:58</t>
+          <t>0:05:39</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,60 +3341,60 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=region_of_extremely_depolarized_nations</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>TrOwOns</t>
+          <t>Soxys Fish Shop Of The Multiversus</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:04:58</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trowons</t>
+          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:04:58</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,40 +3423,40 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,40 +3464,40 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>TrOwOns</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,40 +3505,40 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=trowons</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:05:45</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,40 +3546,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Nation Assembly</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=nation_assembly</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Uzek</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzek</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:12</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:19</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,19 +3751,19 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Uzek</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=uzek</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,19 +3833,19 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3854,19 +3854,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:06:06</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3886,28 +3886,28 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:05:51</t>
+          <t>0:06:14</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Shattered Plans</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:04:16</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:06:25</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,40 +3997,40 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shattered_plans</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:06:17</t>
+          <t>0:06:33</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,19 +4038,19 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>BoM, Ijaka, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4059,19 +4059,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:04:24</t>
+          <t>0:04:30</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:06:45</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4091,28 +4091,28 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:04:34</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:06:42</t>
+          <t>0:06:51</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Shattered Plans</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:04:50</t>
+          <t>0:04:40</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=shattered_plans</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:07:18</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,40 +4202,40 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>BoM, Ijaka, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Freedom Placas</t>
+          <t>The Friendly Nation</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:05:01</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:07:32</t>
+          <t>0:07:38</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_placas</t>
+          <t>https://www.nationstates.net/region=the_friendly_nation</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4255,7 +4255,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:05:10</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:07:45</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4296,28 +4296,28 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Swediztan isles</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:07:36</t>
+          <t>0:08:23</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=swediztan_isles</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:05:07</t>
+          <t>0:05:45</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:07:40</t>
+          <t>0:08:37</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,40 +4366,40 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>Freedom Placas</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:07:41</t>
+          <t>0:08:49</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,40 +4407,40 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=freedom_placas</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>The Allied Armies of Subscribers</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:08:26</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_armies_of_subscribers</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Hops Across</t>
+          <t>Swediztan isles</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:08:26</t>
+          <t>0:08:57</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,19 +4489,19 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hops_across</t>
+          <t>https://www.nationstates.net/region=swediztan_isles</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4510,19 +4510,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:06:02</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:08:40</t>
+          <t>0:09:02</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,19 +4530,19 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the Hartland</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4551,19 +4551,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:05:51</t>
+          <t>0:06:02</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:08:46</t>
+          <t>0:09:03</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>test 0001</t>
+          <t>The Greater England</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:05:55</t>
+          <t>0:06:22</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:08:53</t>
+          <t>0:09:33</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=test_0001</t>
+          <t>https://www.nationstates.net/region=the_greater_england</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>The Allied Armies of Subscribers</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:05:56</t>
+          <t>0:06:27</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:08:54</t>
+          <t>0:09:40</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,40 +4653,40 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=the_allied_armies_of_subscribers</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>Hops Across</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:08:56</t>
+          <t>0:09:41</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=hops_across</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:05:59</t>
+          <t>0:06:39</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:08:59</t>
+          <t>0:09:59</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,19 +4735,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Pan Slavic All Eurasian Congress</t>
+          <t>The Federation of the Hartland</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4756,19 +4756,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:07:21</t>
+          <t>0:06:43</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>662</v>
+        <v>605</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:11:02</t>
+          <t>0:10:05</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,40 +4776,40 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pan_slavic_all_eurasian_congress</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Tyrona</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:07:39</t>
+          <t>0:06:53</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>688</v>
+        <v>619</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:11:28</t>
+          <t>0:10:19</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=tyrona</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:07:40</t>
+          <t>0:06:53</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:11:30</t>
+          <t>0:10:20</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,40 +4858,40 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>The New confederacy</t>
+          <t>Clown Council</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:06:57</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>693</v>
+        <v>625</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:11:33</t>
+          <t>0:10:25</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,40 +4899,40 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_confederacy</t>
+          <t>https://www.nationstates.net/region=clown_council</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>The Holy See of Vagen</t>
+          <t>Issledov Socialist Alliance</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>693</v>
+        <v>627</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:11:33</t>
+          <t>0:10:27</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,40 +4940,40 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
+          <t>https://www.nationstates.net/region=issledov_socialist_alliance</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Metal Slug</t>
+          <t>Pan Slavic All Eurasian Congress</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>693</v>
+        <v>793</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:11:33</t>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=metal_slug</t>
+          <t>https://www.nationstates.net/region=pan_slavic_all_eurasian_congress</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -4993,28 +4993,28 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>462</v>
+        <v>547</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:09:07</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>693</v>
+        <v>821</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:11:33</t>
+          <t>0:13:41</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,81 +5022,81 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Antarctic Empire</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:07:43</t>
+          <t>0:09:08</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>694</v>
+        <v>822</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:11:34</t>
+          <t>0:13:42</t>
         </is>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=antarctic_empire</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Greater French Empire</t>
+          <t>The New confederacy</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>463</v>
+        <v>556</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:07:43</t>
+          <t>0:09:16</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>695</v>
+        <v>834</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:11:35</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,40 +5104,40 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_french_empire</t>
+          <t>https://www.nationstates.net/region=the_new_confederacy</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>The Holy See of Vagen</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:07:43</t>
+          <t>0:09:18</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>695</v>
+        <v>836</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:11:35</t>
+          <t>0:13:56</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,40 +5145,40 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>466</v>
+        <v>558</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:07:46</t>
+          <t>0:09:18</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>699</v>
+        <v>836</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:11:39</t>
+          <t>0:13:56</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,81 +5186,81 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>North Arctica</t>
+          <t>Antarctic Empire</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:07:53</t>
+          <t>0:09:19</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>709</v>
+        <v>838</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:11:49</t>
+          <t>0:13:58</t>
         </is>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_arctica</t>
+          <t>https://www.nationstates.net/region=antarctic_empire</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>Greater French Empire</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>474</v>
+        <v>560</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:07:54</t>
+          <t>0:09:20</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>710</v>
+        <v>839</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:11:50</t>
+          <t>0:13:59</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=greater_french_empire</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>The Popptart Empire</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>477</v>
+        <v>560</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:07:57</t>
+          <t>0:09:20</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>715</v>
+        <v>840</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:11:55</t>
+          <t>0:14:00</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_popptart_empire</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>The Straw Hat Pirates</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:10:27</t>
+          <t>0:09:23</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>940</v>
+        <v>845</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:15:40</t>
+          <t>0:14:05</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_straw_hat_pirates</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Kepler 37b</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>646</v>
+        <v>574</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:10:46</t>
+          <t>0:09:34</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>969</v>
+        <v>862</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:16:09</t>
+          <t>0:14:22</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,19 +5391,19 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kepler_37b</t>
+          <t>https://www.nationstates.net/region=fantastic</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Debate club</t>
+          <t>North Arctica</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:11:01</t>
+          <t>0:09:38</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>991</v>
+        <v>868</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:16:31</t>
+          <t>0:14:28</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=debate_club</t>
+          <t>https://www.nationstates.net/region=north_arctica</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Boivert</t>
+          <t>Chernivtsi Raion</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>664</v>
+        <v>579</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:11:04</t>
+          <t>0:09:39</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>996</v>
+        <v>869</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:16:36</t>
+          <t>0:14:29</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=boivert</t>
+          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>The Straw Hat Pirates</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:11:11</t>
+          <t>0:12:08</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1007</v>
+        <v>1092</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:16:47</t>
+          <t>0:18:12</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=the_straw_hat_pirates</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>Philippine Islands</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:11:11</t>
+          <t>0:12:12</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1007</v>
+        <v>1097</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:16:47</t>
+          <t>0:18:17</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=philippine_islands</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>Debate club</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:11:11</t>
+          <t>0:12:34</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1007</v>
+        <v>1131</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:16:47</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,40 +5596,40 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=debate_club</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:11:56</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1074</v>
+        <v>1147</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:17:54</t>
+          <t>0:19:07</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:11:57</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1075</v>
+        <v>1147</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:17:55</t>
+          <t>0:19:07</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:11:57</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1076</v>
+        <v>1147</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:17:56</t>
+          <t>0:19:07</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,19 +5719,19 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5740,19 +5740,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>718</v>
+        <v>765</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:11:58</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1077</v>
+        <v>1147</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:17:57</t>
+          <t>0:19:07</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,40 +5760,40 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>E 206</t>
+          <t>Haisyn</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:12:00</t>
+          <t>0:13:30</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1080</v>
+        <v>1215</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:18:00</t>
+          <t>0:20:15</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,19 +5801,19 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_206</t>
+          <t>https://www.nationstates.net/region=haisyn</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5822,19 +5822,19 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:12:02</t>
+          <t>0:13:31</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1083</v>
+        <v>1217</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:18:03</t>
+          <t>0:20:17</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,40 +5842,40 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Barbarian</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>722</v>
+        <v>811</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:12:02</t>
+          <t>0:13:31</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1083</v>
+        <v>1217</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:18:03</t>
+          <t>0:20:17</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,19 +5883,19 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barbarian</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bonanas</t>
+          <t>Super Metroid</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5904,19 +5904,19 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:13:31</t>
+          <t>0:13:33</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:20:16</t>
+          <t>0:20:19</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,40 +5924,40 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bonanas</t>
+          <t>https://www.nationstates.net/region=super_metroid</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>E 206</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>961</v>
+        <v>815</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:16:01</t>
+          <t>0:13:35</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1441</v>
+        <v>1222</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:24:01</t>
+          <t>0:20:22</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,40 +5965,40 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=e_206</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>The Boio Alliance</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>963</v>
+        <v>817</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:16:03</t>
+          <t>0:13:37</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1445</v>
+        <v>1225</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:24:05</t>
+          <t>0:20:25</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boio_alliance</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6018,28 +6018,28 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>League of Economics</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>970</v>
+        <v>878</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:16:10</t>
+          <t>0:14:38</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1455</v>
+        <v>1317</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:24:15</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,19 +6047,19 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=league_of_economics</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Temple of Petey</t>
+          <t>Rush</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6068,19 +6068,19 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>979</v>
+        <v>1041</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:16:19</t>
+          <t>0:17:21</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1469</v>
+        <v>1562</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:24:29</t>
+          <t>0:26:02</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,40 +6088,40 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=temple_of_petey</t>
+          <t>https://www.nationstates.net/region=rush</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>IHFO</t>
+          <t>Acta non verba</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>996</v>
+        <v>1064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:16:36</t>
+          <t>0:17:44</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1494</v>
+        <v>1596</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:24:54</t>
+          <t>0:26:36</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ihfo</t>
+          <t>https://www.nationstates.net/region=acta_non_verba</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1016</v>
+        <v>1075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:16:56</t>
+          <t>0:17:55</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1524</v>
+        <v>1612</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:25:24</t>
+          <t>0:26:52</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,19 +6170,19 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bonk</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>The Diplomatic Committee Of Nations</t>
+          <t>Temple of Petey</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6191,19 +6191,19 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1022</v>
+        <v>1085</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:17:02</t>
+          <t>0:18:05</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1534</v>
+        <v>1628</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:25:34</t>
+          <t>0:27:08</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_diplomatic_committee_of_nations</t>
+          <t>https://www.nationstates.net/region=temple_of_petey</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -6223,69 +6223,69 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>The Carrot Patch</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1025</v>
+        <v>1103</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:17:05</t>
+          <t>0:18:23</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1537</v>
+        <v>1655</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:25:37</t>
+          <t>0:27:35</t>
         </is>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=the_carrot_patch</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Greater Soviet Union</t>
+          <t>IHFO</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1026</v>
+        <v>1104</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:17:06</t>
+          <t>0:18:24</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1538</v>
+        <v>1656</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:25:38</t>
+          <t>0:27:36</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,40 +6293,40 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_soviet_union</t>
+          <t>https://www.nationstates.net/region=ihfo</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Les Gemeaux Vierge Verseau</t>
+          <t>The Eternal Governments</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1027</v>
+        <v>1117</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:17:07</t>
+          <t>0:18:37</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1540</v>
+        <v>1676</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:25:40</t>
+          <t>0:27:56</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,40 +6334,40 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
+          <t>https://www.nationstates.net/region=the_eternal_governments</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1028</v>
+        <v>1124</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:18:44</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1542</v>
+        <v>1686</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:25:42</t>
+          <t>0:28:06</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,40 +6375,40 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=bonk</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>The Thicc Continent</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1033</v>
+        <v>1129</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:17:13</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1550</v>
+        <v>1694</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:25:50</t>
+          <t>0:28:14</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -6416,19 +6416,19 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_thicc_continent</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Cyberius Confederation</t>
+          <t>Greater Soviet Union</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1035</v>
+        <v>1130</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:17:15</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1552</v>
+        <v>1695</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:25:52</t>
+          <t>0:28:15</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
+          <t>https://www.nationstates.net/region=greater_soviet_union</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -6469,28 +6469,28 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Alvindor</t>
+          <t>Les Gemeaux Vierge Verseau</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1046</v>
+        <v>1131</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:17:26</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1569</v>
+        <v>1697</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:26:09</t>
+          <t>0:28:17</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,40 +6498,40 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=alvindor</t>
+          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>OwOsiris</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1080</v>
+        <v>1133</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:18:00</t>
+          <t>0:18:53</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1620</v>
+        <v>1699</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:27:00</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,40 +6539,40 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owosiris</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Onionistlands</t>
+          <t>The Thicc Continent</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:18:16</t>
+          <t>0:18:59</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1644</v>
+        <v>1709</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:27:24</t>
+          <t>0:28:29</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=onionistlands</t>
+          <t>https://www.nationstates.net/region=the_thicc_continent</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -6592,7 +6592,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>accolades</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6601,19 +6601,19 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1112</v>
+        <v>1140</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:18:32</t>
+          <t>0:19:00</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1669</v>
+        <v>1711</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:27:49</t>
+          <t>0:28:31</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,40 +6621,40 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accolades</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>The Warsaw pact of the world</t>
+          <t>Freedom and Reneval</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1118</v>
+        <v>1176</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:18:38</t>
+          <t>0:19:36</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1676</v>
+        <v>1763</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:27:56</t>
+          <t>0:29:23</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_warsaw_pact_of_the_world</t>
+          <t>https://www.nationstates.net/region=freedom_and_reneval</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Onionistlands</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6683,19 +6683,19 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1119</v>
+        <v>1214</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:18:39</t>
+          <t>0:20:14</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1678</v>
+        <v>1821</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:27:58</t>
+          <t>0:30:21</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,19 +6703,19 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=onionistlands</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Horsia</t>
+          <t>The Warsaw pact of the world</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6724,19 +6724,19 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1123</v>
+        <v>1237</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:20:37</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1684</v>
+        <v>1855</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:30:55</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6744,40 +6744,40 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=horsia</t>
+          <t>https://www.nationstates.net/region=the_warsaw_pact_of_the_world</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1123</v>
+        <v>1238</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:20:38</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1685</v>
+        <v>1857</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0:28:05</t>
+          <t>0:30:57</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6785,40 +6785,40 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Horsia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1125</v>
+        <v>1241</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:20:41</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1687</v>
+        <v>1862</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0:28:07</t>
+          <t>0:31:02</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6826,40 +6826,40 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=horsia</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1126</v>
+        <v>1242</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:20:42</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1689</v>
+        <v>1863</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0:28:09</t>
+          <t>0:31:03</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6867,19 +6867,19 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6888,19 +6888,19 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1131</v>
+        <v>1243</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1696</v>
+        <v>1865</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0:28:16</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6908,40 +6908,40 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Agia Germania Anest</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1131</v>
+        <v>1244</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:20:44</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1696</v>
+        <v>1867</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0:28:16</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6949,40 +6949,40 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1132</v>
+        <v>1249</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:20:49</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1698</v>
+        <v>1873</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0:28:18</t>
+          <t>0:31:13</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6990,40 +6990,40 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Imperial Roman Coprosperity Sphere</t>
+          <t>Agia Germania Anest</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1132</v>
+        <v>1249</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:20:49</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1698</v>
+        <v>1873</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0:28:18</t>
+          <t>0:31:13</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -7031,40 +7031,40 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_roman_coprosperity_sphere</t>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Ijaka, Lily</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1132</v>
+        <v>1250</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1699</v>
+        <v>1875</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -7072,40 +7072,40 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1133</v>
+        <v>1251</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0:18:53</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1700</v>
+        <v>1876</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0:28:20</t>
+          <t>0:31:16</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -7113,40 +7113,40 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1134</v>
+        <v>1251</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0:18:54</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1701</v>
+        <v>1877</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0:28:21</t>
+          <t>0:31:17</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -7154,40 +7154,40 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Cosmopolitan Convention</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1136</v>
+        <v>1252</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0:18:56</t>
+          <t>0:20:52</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1703</v>
+        <v>1878</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0:28:23</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -7195,19 +7195,19 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Its morbin time yes</t>
+          <t>Cosmopolitan Convention</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7216,19 +7216,19 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1136</v>
+        <v>1253</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0:18:56</t>
+          <t>0:20:53</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1704</v>
+        <v>1880</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0:28:24</t>
+          <t>0:31:20</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
+          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -7248,28 +7248,28 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Its morbin time yes</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1137</v>
+        <v>1254</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0:18:57</t>
+          <t>0:20:54</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1705</v>
+        <v>1881</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0:28:25</t>
+          <t>0:31:21</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -7277,19 +7277,19 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7298,19 +7298,19 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1138</v>
+        <v>1255</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0:18:58</t>
+          <t>0:20:55</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1706</v>
+        <v>1882</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0:28:26</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -7330,28 +7330,28 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1140</v>
+        <v>1255</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0:19:00</t>
+          <t>0:20:55</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1709</v>
+        <v>1883</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0:28:29</t>
+          <t>0:31:23</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -7359,40 +7359,40 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Iberian Peninsula</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1154</v>
+        <v>1258</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0:19:14</t>
+          <t>0:20:58</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1731</v>
+        <v>1887</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0:28:51</t>
+          <t>0:31:27</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -7400,12 +7400,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=iberian_peninsula</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
@@ -7421,19 +7421,19 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1223</v>
+        <v>1334</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0:20:23</t>
+          <t>0:22:14</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1835</v>
+        <v>2001</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0:30:35</t>
+          <t>0:33:21</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -7453,28 +7453,28 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Target Region 5</t>
+          <t>Land of Places</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1250</v>
+        <v>1355</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0:20:50</t>
+          <t>0:22:35</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1875</v>
+        <v>2033</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0:31:15</t>
+          <t>0:33:53</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -7482,12 +7482,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=target_region_5</t>
+          <t>https://www.nationstates.net/region=land_of_places</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
@@ -7503,19 +7503,19 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1254</v>
+        <v>1362</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0:20:54</t>
+          <t>0:22:42</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1881</v>
+        <v>2043</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0:31:21</t>
+          <t>0:34:03</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -7535,28 +7535,28 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Treaty of Peaceable Nations</t>
+          <t>Commonwealth of Allied Nations</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1255</v>
+        <v>1364</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0:20:55</t>
+          <t>0:22:44</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1882</v>
+        <v>2046</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:34:06</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -7564,40 +7564,40 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=treaty_of_peaceable_nations</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_allied_nations</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Midlight</t>
+          <t>Duolingo airport</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1297</v>
+        <v>1408</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0:21:37</t>
+          <t>0:23:28</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1945</v>
+        <v>2112</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0:32:25</t>
+          <t>0:35:12</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -7605,40 +7605,40 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=midlight</t>
+          <t>https://www.nationstates.net/region=duolingo_airport</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>BoM, Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Duolingo airport</t>
+          <t>Seltanakorvasia</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1304</v>
+        <v>1408</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0:21:44</t>
+          <t>0:23:28</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1956</v>
+        <v>2112</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0:32:36</t>
+          <t>0:35:12</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=duolingo_airport</t>
+          <t>https://www.nationstates.net/region=seltanakorvasia</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Seltanakorvasia</t>
+          <t>The Association of Denmark</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7667,19 +7667,19 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1304</v>
+        <v>1424</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0:21:44</t>
+          <t>0:23:44</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1956</v>
+        <v>2135</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0:32:36</t>
+          <t>0:35:35</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7687,40 +7687,40 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
+          <t>https://www.nationstates.net/region=the_association_of_denmark</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>The Association of Denmark</t>
+          <t>International Peace Treaty</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1325</v>
+        <v>1435</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0:22:05</t>
+          <t>0:23:55</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1988</v>
+        <v>2152</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0:33:08</t>
+          <t>0:35:52</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7728,40 +7728,40 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_association_of_denmark</t>
+          <t>https://www.nationstates.net/region=international_peace_treaty</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>The Alternate Community</t>
+          <t>Europe of De Jota</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1334</v>
+        <v>1442</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0:22:14</t>
+          <t>0:24:02</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2001</v>
+        <v>2164</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0:33:21</t>
+          <t>0:36:04</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7769,40 +7769,40 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_alternate_community</t>
+          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>International Peace Treaty</t>
+          <t>Metal Gear Rising</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1335</v>
+        <v>1696</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0:22:15</t>
+          <t>0:28:16</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2003</v>
+        <v>2544</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0:33:23</t>
+          <t>0:42:24</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7810,40 +7810,40 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_peace_treaty</t>
+          <t>https://www.nationstates.net/region=metal_gear_rising</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>The Kibble Kingdom</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1343</v>
+        <v>1836</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0:22:23</t>
+          <t>0:30:36</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2015</v>
+        <v>2755</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0:33:35</t>
+          <t>0:45:55</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7851,19 +7851,19 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Zanzibarr</t>
+          <t>The Steak Tavern</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7872,19 +7872,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1348</v>
+        <v>1899</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0:22:28</t>
+          <t>0:31:39</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2022</v>
+        <v>2849</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0:33:42</t>
+          <t>0:47:29</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=zanzibarr</t>
+          <t>https://www.nationstates.net/region=the_steak_tavern</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -7904,28 +7904,28 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Regional Defense Council</t>
+          <t>F1 talker</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1360</v>
+        <v>1947</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0:22:40</t>
+          <t>0:32:27</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2039</v>
+        <v>2920</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0:33:59</t>
+          <t>0:48:40</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7933,19 +7933,19 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_defense_council</t>
+          <t>https://www.nationstates.net/region=f1_talker</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Roots of the future</t>
+          <t>Holosiiv</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7954,19 +7954,19 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1810</v>
+        <v>1967</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0:30:10</t>
+          <t>0:32:47</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2715</v>
+        <v>2951</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0:45:15</t>
+          <t>0:49:11</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roots_of_the_future</t>
+          <t>https://www.nationstates.net/region=holosiiv</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -7986,28 +7986,28 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Mafia</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1813</v>
+        <v>1969</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0:30:13</t>
+          <t>0:32:49</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2720</v>
+        <v>2953</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0:45:20</t>
+          <t>0:49:13</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -8015,40 +8015,40 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mafia</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>The Steak Tavern</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1816</v>
+        <v>1980</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0:30:16</t>
+          <t>0:33:00</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2725</v>
+        <v>2971</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0:45:25</t>
+          <t>0:49:31</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -8056,40 +8056,40 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_steak_tavern</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>F1 talker</t>
+          <t>Warszawa</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1861</v>
+        <v>2040</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0:31:01</t>
+          <t>0:34:00</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2792</v>
+        <v>3059</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0:46:32</t>
+          <t>0:50:59</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -8097,60 +8097,60 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=f1_talker</t>
+          <t>https://www.nationstates.net/region=warszawa</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Holosiiv</t>
+          <t>One Land</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1881</v>
+        <v>2102</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0:31:21</t>
+          <t>0:35:02</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2821</v>
+        <v>3153</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>0:47:01</t>
+          <t>0:52:33</t>
         </is>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=holosiiv</t>
+          <t>https://www.nationstates.net/region=one_land</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>The Estamindian Island Chain</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8159,19 +8159,19 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1882</v>
+        <v>2323</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:38:43</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2823</v>
+        <v>3485</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>0:47:03</t>
+          <t>0:58:05</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -8191,7 +8191,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8200,19 +8200,19 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1896</v>
+        <v>2363</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0:31:36</t>
+          <t>0:39:23</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2843</v>
+        <v>3544</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>0:47:23</t>
+          <t>0:59:04</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -8220,40 +8220,40 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>The baltic sea</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1897</v>
+        <v>2367</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0:31:37</t>
+          <t>0:39:27</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2845</v>
+        <v>3550</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>0:47:25</t>
+          <t>0:59:10</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_baltic_sea</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -8273,28 +8273,28 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>olerais</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1898</v>
+        <v>2729</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0:31:38</t>
+          <t>0:45:29</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2847</v>
+        <v>4093</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>0:47:27</t>
+          <t>1:08:13</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -8302,19 +8302,19 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=olerais</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -8323,19 +8323,19 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2273</v>
+        <v>2745</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0:37:53</t>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3409</v>
+        <v>4118</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>0:56:49</t>
+          <t>1:08:38</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -8343,40 +8343,40 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2316</v>
+        <v>2939</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0:38:36</t>
+          <t>0:48:59</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3474</v>
+        <v>4409</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0:57:54</t>
+          <t>1:13:29</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -8384,19 +8384,19 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -8405,19 +8405,19 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2320</v>
+        <v>2987</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0:38:40</t>
+          <t>0:49:47</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3479</v>
+        <v>4480</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>0:57:59</t>
+          <t>1:14:40</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -8425,19 +8425,19 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -8446,39 +8446,39 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2681</v>
+        <v>3224</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0:44:41</t>
+          <t>0:53:44</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4022</v>
+        <v>4836</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1:07:02</t>
+          <t>1:20:36</t>
         </is>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -8487,19 +8487,19 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2695</v>
+        <v>3453</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0:44:55</t>
+          <t>0:57:33</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4043</v>
+        <v>5179</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1:07:23</t>
+          <t>1:26:19</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -8507,174 +8507,10 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>2894</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>0:48:14</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>4340</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1:12:20</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>0</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>2946</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>0:49:06</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>4418</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>1:13:38</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>0</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>3195</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>0:53:15</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>4792</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>1:19:52</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>3452</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>0:57:32</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>5178</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>1:26:18</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="08 March 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="09 March 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ELITE ACE TEAM</t>
+          <t>The Age of Man</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:06</t>
+          <t>0:00:29</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:00:43</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,40 +512,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=elite_ace_team</t>
+          <t>https://www.nationstates.net/region=the_age_of_man</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>The Age of Man</t>
+          <t>Sim e sim</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:00:36</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,19 +553,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_age_of_man</t>
+          <t>https://www.nationstates.net/region=sim_e_sim</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sim e sim</t>
+          <t>diomnlark</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:37</t>
+          <t>0:00:41</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sim_e_sim</t>
+          <t>https://www.nationstates.net/region=diomnlark</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,28 +606,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>diomnlark</t>
+          <t>The snowy peninsula</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:44</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=diomnlark</t>
+          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, Lily</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The snowy peninsula</t>
+          <t>Blue skies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:43</t>
+          <t>0:00:44</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_snowy_peninsula</t>
+          <t>https://www.nationstates.net/region=blue_skies</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kantrias, Lily</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Blue skies</t>
+          <t>The Cascade</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blue_skies</t>
+          <t>https://www.nationstates.net/region=the_cascade</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The Cascade</t>
+          <t>Coral Reef 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_cascade</t>
+          <t>https://www.nationstates.net/region=coral_reef_5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Conglomerate of Slimes</t>
+          <t>Dubno</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:48</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=conglomerate_of_slimes</t>
+          <t>https://www.nationstates.net/region=dubno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 5</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:48</t>
+          <t>0:00:52</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,19 +840,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_5</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>Gelre</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=gelre</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gelre</t>
+          <t>Meow</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gelre</t>
+          <t>https://www.nationstates.net/region=meow</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>The United Table of The Boys</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Meow</t>
+          <t>Imperial County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=meow</t>
+          <t>https://www.nationstates.net/region=imperial_county</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>The Central European Regional Assembly</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, TCB</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Imperial County</t>
+          <t>Syndir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:24</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,19 +1127,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_county</t>
+          <t>https://www.nationstates.net/region=syndir</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Central European Regional Assembly</t>
+          <t>Landon Bow</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
+          <t>https://www.nationstates.net/region=landon_bow</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Lily, TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Syndir</t>
+          <t>Card2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=syndir</t>
+          <t>https://www.nationstates.net/region=card2025</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Landon Bow</t>
+          <t>Matamo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=landon_bow</t>
+          <t>https://www.nationstates.net/region=matamo</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Card2025</t>
+          <t>Kilisis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2025</t>
+          <t>https://www.nationstates.net/region=kilisis</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Matamo</t>
+          <t>Renem</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=matamo</t>
+          <t>https://www.nationstates.net/region=renem</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>accommodating</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:13</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,24 +1373,24 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accommodating</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Kilisis</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1414,24 +1414,24 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kilisis</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Renem</t>
+          <t>Eroias</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,81 +1455,81 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=renem</t>
+          <t>https://www.nationstates.net/region=eroias</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Band kids</t>
+          <t>Dragonborn Confederate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=band_kids</t>
+          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>The Confederacy of German States</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:01:56</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Solar Union</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:01:56</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=solar_union</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Eroias</t>
+          <t>Shizei</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:01:56</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eroias</t>
+          <t>https://www.nationstates.net/region=shizei</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>International Federalist Union</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=international_federalist_union</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of German States</t>
+          <t>United Federal Nations</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
+          <t>https://www.nationstates.net/region=united_federal_nations</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>Coral Reef 10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=coral_reef_10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1754,28 +1754,28 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Shizei</t>
+          <t>Ischia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shizei</t>
+          <t>https://www.nationstates.net/region=ischia</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>International Federalist Union</t>
+          <t>Combine world</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_federalist_union</t>
+          <t>https://www.nationstates.net/region=combine_world</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>United Federal Nations</t>
+          <t>the Rejected Warzone</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_federal_nations</t>
+          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 10</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_10</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1918,28 +1918,28 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ischia</t>
+          <t>Ascensionsen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ischia</t>
+          <t>https://www.nationstates.net/region=ascensionsen</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Combine world</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:36</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=combine_world</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>the Rejected Warzone</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:02:32</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
+          <t>https://www.nationstates.net/region=owls</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:41</t>
+          <t>0:02:32</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ascensionsen</t>
+          <t>Federation of Nation and Freedom</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:41</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ascensionsen</t>
+          <t>https://www.nationstates.net/region=federation_of_nation_and_freedom</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Bean Union</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=bean_union</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>The Holy Federation of Dunkeld</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owls</t>
+          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Council of The Righteous</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Federation of Nation and Freedom</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=federation_of_nation_and_freedom</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Bean Union</t>
+          <t>Atlae</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bean_union</t>
+          <t>https://www.nationstates.net/region=atlae</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2328,28 +2328,28 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Holy Federation of Dunkeld</t>
+          <t>Kiansia Continent</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
+          <t>https://www.nationstates.net/region=kiansia_continent</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Council of The Righteous</t>
+          <t>The UN Of The Universal Republic</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
+          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Atlae</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlae</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Kiansia Continent</t>
+          <t>Budget Crackheads</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,19 +2521,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kiansia_continent</t>
+          <t>https://www.nationstates.net/region=budget_crackheads</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Ukrayina</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,19 +2603,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=ukrayina</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The Islamic Region</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_islamic_region</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Nova Evropa</t>
+          <t>Megalosian Empire</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,40 +2685,40 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nova_evropa</t>
+          <t>https://www.nationstates.net/region=megalosian_empire</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Budget Crackheads</t>
+          <t>North Antartica</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,19 +2726,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=budget_crackheads</t>
+          <t>https://www.nationstates.net/region=north_antartica</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Ukrayina</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ukrayina</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>The Islamic Region</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,24 +2849,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islamic_region</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Megalosian Empire</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2890,40 +2890,40 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=megalosian_empire</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>North Antartica</t>
+          <t>Murkton</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:42</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:04:03</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,40 +2931,40 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_antartica</t>
+          <t>https://www.nationstates.net/region=murkton</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Manchuria Conscription</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=manchuria_conscription</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:04:59</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Soxys Fish Shop Of The Multiversus</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:02:59</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Unitarian Union</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:04:31</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unitarian_union</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:04:31</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>TrOwOns</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,19 +3177,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=trowons</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Murkton</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:04:49</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=murkton</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3230,28 +3230,28 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>Nation Assembly</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:25</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:04:54</t>
+          <t>0:05:07</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=nation_assembly</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:03:42</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:05:33</t>
+          <t>0:05:11</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Region of Extremely Depolarized Nations</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:03:46</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:05:39</t>
+          <t>0:05:11</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,40 +3341,40 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_extremely_depolarized_nations</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Soxys Fish Shop Of The Multiversus</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:05:43</t>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,19 +3382,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:05:43</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,19 +3423,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>Uzek</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3444,19 +3444,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,40 +3464,40 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=uzek</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>TrOwOns</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,19 +3505,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trowons</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3526,19 +3526,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:05:45</t>
+          <t>0:05:29</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,40 +3546,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Nation Assembly</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nation_assembly</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,19 +3710,19 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3731,19 +3731,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:05:56</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,40 +3751,40 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Uzek</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:05:55</t>
+          <t>0:06:00</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzek</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:04:16</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:55</t>
+          <t>0:06:23</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,19 +3833,19 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Ijaka, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The Friendly Nation</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3854,19 +3854,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:06:06</t>
+          <t>0:06:33</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_friendly_nation</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:04:44</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:06:14</t>
+          <t>0:07:06</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Freedom Placas</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:07:12</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,19 +3956,19 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=freedom_placas</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3977,19 +3977,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:04:16</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:06:25</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,19 +3997,19 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>Swediztan isles</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4018,19 +4018,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:22</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:06:33</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,19 +4038,19 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=swediztan_isles</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4059,19 +4059,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:04:30</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:06:45</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4091,28 +4091,28 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:04:34</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:06:51</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Shattered Plans</t>
+          <t>The Allied Armies of Subscribers</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:04:40</t>
+          <t>0:05:20</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:07:01</t>
+          <t>0:08:00</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shattered_plans</t>
+          <t>https://www.nationstates.net/region=the_allied_armies_of_subscribers</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:05:30</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:07:18</t>
+          <t>0:08:15</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>BoM, Ijaka, Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>The Federation of the Hartland</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4223,19 +4223,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:05:34</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:07:38</t>
+          <t>0:08:21</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4255,7 +4255,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:07:45</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,40 +4284,40 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Clown Council</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:08:23</t>
+          <t>0:08:39</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=clown_council</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:05:45</t>
+          <t>0:07:14</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>517</v>
+        <v>651</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:08:37</t>
+          <t>0:10:51</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,40 +4366,40 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Freedom Placas</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:07:14</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>529</v>
+        <v>652</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:08:49</t>
+          <t>0:10:52</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,40 +4407,40 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_placas</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>The New confederacy</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>531</v>
+        <v>655</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>0:10:55</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,19 +4448,19 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=the_new_confederacy</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Swediztan isles</t>
+          <t>The Holy See of Vagen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4469,19 +4469,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>537</v>
+        <v>655</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:08:57</t>
+          <t>0:10:55</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=swediztan_isles</t>
+          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4501,28 +4501,28 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>362</v>
+        <v>437</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:06:02</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>542</v>
+        <v>655</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:09:02</t>
+          <t>0:10:55</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>Greater French Empire</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>362</v>
+        <v>439</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:06:02</t>
+          <t>0:07:19</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>543</v>
+        <v>658</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:09:03</t>
+          <t>0:10:58</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=greater_french_empire</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>The Greater England</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:07:19</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>573</v>
+        <v>658</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:09:33</t>
+          <t>0:10:58</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,40 +4612,40 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_england</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>The Allied Armies of Subscribers</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:06:27</t>
+          <t>0:07:22</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>580</v>
+        <v>663</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:09:40</t>
+          <t>0:11:03</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,19 +4653,19 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_armies_of_subscribers</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Hops Across</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4674,19 +4674,19 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:07:27</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:09:41</t>
+          <t>0:11:11</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,19 +4694,19 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hops_across</t>
+          <t>https://www.nationstates.net/region=fantastic</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>North Arctica</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4715,19 +4715,19 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:06:39</t>
+          <t>0:07:30</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:09:59</t>
+          <t>0:11:15</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,40 +4735,40 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=north_arctica</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the Hartland</t>
+          <t>Johan Hedberg</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>403</v>
+        <v>665</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:06:43</t>
+          <t>0:11:05</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>605</v>
+        <v>998</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:10:05</t>
+          <t>0:16:38</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
+          <t>https://www.nationstates.net/region=johan_hedberg</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Tyrona</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>413</v>
+        <v>665</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:06:53</t>
+          <t>0:11:05</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>619</v>
+        <v>998</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:10:19</t>
+          <t>0:16:38</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tyrona</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>413</v>
+        <v>665</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:06:53</t>
+          <t>0:11:05</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>620</v>
+        <v>998</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:10:20</t>
+          <t>0:16:38</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,19 +4858,19 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4879,19 +4879,19 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>417</v>
+        <v>665</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:06:57</t>
+          <t>0:11:05</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>625</v>
+        <v>998</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:10:25</t>
+          <t>0:16:38</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,40 +4899,40 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Issledov Socialist Alliance</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>418</v>
+        <v>708</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:11:48</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>627</v>
+        <v>1062</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:10:27</t>
+          <t>0:17:42</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,40 +4940,40 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=issledov_socialist_alliance</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Pan Slavic All Eurasian Congress</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>528</v>
+        <v>709</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:08:48</t>
+          <t>0:11:49</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>793</v>
+        <v>1063</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:13:13</t>
+          <t>0:17:43</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,19 +4981,19 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pan_slavic_all_eurasian_congress</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Super Metroid</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5002,19 +5002,19 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>547</v>
+        <v>709</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:09:07</t>
+          <t>0:11:49</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>821</v>
+        <v>1063</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:13:41</t>
+          <t>0:17:43</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,40 +5022,40 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=super_metroid</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>548</v>
+        <v>713</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:09:08</t>
+          <t>0:11:53</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>822</v>
+        <v>1069</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:13:42</t>
+          <t>0:17:49</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,40 +5063,40 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>The New confederacy</t>
+          <t>Nightoria</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>556</v>
+        <v>971</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:09:16</t>
+          <t>0:16:11</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>834</v>
+        <v>1457</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:24:17</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,60 +5104,60 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_confederacy</t>
+          <t>https://www.nationstates.net/region=nightoria</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>The Holy See of Vagen</t>
+          <t>The Carrot Patch</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>558</v>
+        <v>998</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:09:18</t>
+          <t>0:16:38</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>836</v>
+        <v>1497</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:13:56</t>
+          <t>0:24:57</t>
         </is>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
+          <t>https://www.nationstates.net/region=the_carrot_patch</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>IHFO</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5166,19 +5166,19 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>558</v>
+        <v>998</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:09:18</t>
+          <t>0:16:38</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>836</v>
+        <v>1497</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:13:56</t>
+          <t>0:24:57</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,81 +5186,81 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=ihfo</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Antarctic Empire</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>559</v>
+        <v>1022</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:09:19</t>
+          <t>0:17:02</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>838</v>
+        <v>1532</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:13:58</t>
+          <t>0:25:32</t>
         </is>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=antarctic_empire</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Greater French Empire</t>
+          <t>Greater Soviet Union</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>560</v>
+        <v>1022</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:09:20</t>
+          <t>0:17:02</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>839</v>
+        <v>1533</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:13:59</t>
+          <t>0:25:33</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_french_empire</t>
+          <t>https://www.nationstates.net/region=greater_soviet_union</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>Les Gemeaux Vierge Verseau</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>560</v>
+        <v>1024</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:09:20</t>
+          <t>0:17:04</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>840</v>
+        <v>1536</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:14:00</t>
+          <t>0:25:36</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>563</v>
+        <v>1025</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:09:23</t>
+          <t>0:17:05</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>845</v>
+        <v>1538</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:14:05</t>
+          <t>0:25:38</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>The Thicc Continent</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>574</v>
+        <v>1031</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:09:34</t>
+          <t>0:17:11</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>862</v>
+        <v>1547</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:14:22</t>
+          <t>0:25:47</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,19 +5391,19 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fantastic</t>
+          <t>https://www.nationstates.net/region=the_thicc_continent</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>North Arctica</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>578</v>
+        <v>1032</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:09:38</t>
+          <t>0:17:12</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>868</v>
+        <v>1548</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:14:28</t>
+          <t>0:25:48</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,19 +5432,19 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_arctica</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Chernivtsi Raion</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5453,19 +5453,19 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>579</v>
+        <v>1116</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:09:39</t>
+          <t>0:18:36</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>869</v>
+        <v>1674</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:14:29</t>
+          <t>0:27:54</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chernivtsi_raion</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>The Straw Hat Pirates</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>728</v>
+        <v>1120</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:12:08</t>
+          <t>0:18:40</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1092</v>
+        <v>1680</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:18:12</t>
+          <t>0:28:00</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_straw_hat_pirates</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Philippine Islands</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>732</v>
+        <v>1121</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:12:12</t>
+          <t>0:18:41</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1097</v>
+        <v>1682</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:18:17</t>
+          <t>0:28:02</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=philippine_islands</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Debate club</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>754</v>
+        <v>1122</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:12:34</t>
+          <t>0:18:42</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1131</v>
+        <v>1684</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,40 +5596,40 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=debate_club</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>765</v>
+        <v>1127</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:12:45</t>
+          <t>0:18:47</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1147</v>
+        <v>1690</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:19:07</t>
+          <t>0:28:10</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>Agia Germania Anest</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>765</v>
+        <v>1127</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:12:45</t>
+          <t>0:18:47</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1147</v>
+        <v>1690</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:19:07</t>
+          <t>0:28:10</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>765</v>
+        <v>1128</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:12:45</t>
+          <t>0:18:48</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1147</v>
+        <v>1692</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:19:07</t>
+          <t>0:28:12</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,40 +5719,40 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>765</v>
+        <v>1129</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:12:45</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1147</v>
+        <v>1693</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:19:07</t>
+          <t>0:28:13</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,40 +5760,40 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Haisyn</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>810</v>
+        <v>1129</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:13:30</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1215</v>
+        <v>1694</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:20:15</t>
+          <t>0:28:14</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,40 +5801,40 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=haisyn</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>811</v>
+        <v>1130</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:13:31</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1217</v>
+        <v>1695</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:20:17</t>
+          <t>0:28:15</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,19 +5842,19 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>Cosmopolitan Convention</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5863,19 +5863,19 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>811</v>
+        <v>1131</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:13:31</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1217</v>
+        <v>1696</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:20:17</t>
+          <t>0:28:16</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -5895,28 +5895,28 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>813</v>
+        <v>1133</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:13:33</t>
+          <t>0:18:53</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1219</v>
+        <v>1699</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:20:19</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,40 +5924,40 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>E 206</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>815</v>
+        <v>1133</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:13:35</t>
+          <t>0:18:53</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1222</v>
+        <v>1699</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:20:22</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=e_206</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -5977,7 +5977,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5986,19 +5986,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>817</v>
+        <v>1135</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:13:37</t>
+          <t>0:18:55</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1225</v>
+        <v>1703</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:20:25</t>
+          <t>0:28:23</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,40 +6006,40 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>League of Economics</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>878</v>
+        <v>1207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:14:38</t>
+          <t>0:20:07</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1317</v>
+        <v>1810</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:30:10</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=league_of_economics</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Rush</t>
+          <t>Land of Places</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1041</v>
+        <v>1232</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:17:21</t>
+          <t>0:20:32</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1562</v>
+        <v>1849</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:26:02</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,40 +6088,40 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rush</t>
+          <t>https://www.nationstates.net/region=land_of_places</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Acta non verba</t>
+          <t>Seltanakorvasia</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1064</v>
+        <v>1286</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:17:44</t>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1596</v>
+        <v>1929</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:26:36</t>
+          <t>0:32:09</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=acta_non_verba</t>
+          <t>https://www.nationstates.net/region=seltanakorvasia</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>Europe of De Jota</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1075</v>
+        <v>1319</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:17:55</t>
+          <t>0:21:59</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1612</v>
+        <v>1978</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:26:52</t>
+          <t>0:32:58</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Temple of Petey</t>
+          <t>The Kibble Kingdom</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1085</v>
+        <v>1724</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:18:05</t>
+          <t>0:28:44</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1628</v>
+        <v>2586</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:27:08</t>
+          <t>0:43:06</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,60 +6211,60 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=temple_of_petey</t>
+          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>The Carrot Patch</t>
+          <t>F1 talker</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1103</v>
+        <v>1804</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:18:23</t>
+          <t>0:30:04</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1655</v>
+        <v>2706</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:27:35</t>
+          <t>0:45:06</t>
         </is>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_carrot_patch</t>
+          <t>https://www.nationstates.net/region=f1_talker</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>IHFO</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6273,19 +6273,19 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1104</v>
+        <v>1824</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:18:24</t>
+          <t>0:30:24</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1656</v>
+        <v>2736</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:27:36</t>
+          <t>0:45:36</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -6293,40 +6293,40 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ihfo</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>The Eternal Governments</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1117</v>
+        <v>1843</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:18:37</t>
+          <t>0:30:43</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1676</v>
+        <v>2765</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:27:56</t>
+          <t>0:46:05</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,40 +6334,40 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_eternal_governments</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1124</v>
+        <v>2204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:36:44</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1686</v>
+        <v>3305</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0:28:06</t>
+          <t>0:55:05</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -6375,40 +6375,40 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bonk</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1129</v>
+        <v>2252</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:18:49</t>
+          <t>0:37:32</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1694</v>
+        <v>3377</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0:28:14</t>
+          <t>0:56:17</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -6416,40 +6416,40 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Greater Soviet Union</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1130</v>
+        <v>2256</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:37:36</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1695</v>
+        <v>3384</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0:28:15</t>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -6457,40 +6457,40 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_soviet_union</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Les Gemeaux Vierge Verseau</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1131</v>
+        <v>2639</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:43:59</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1697</v>
+        <v>3958</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0:28:17</t>
+          <t>1:05:58</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -6498,40 +6498,40 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1133</v>
+        <v>2655</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0:18:53</t>
+          <t>0:44:15</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1699</v>
+        <v>3983</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>1:06:23</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -6539,40 +6539,40 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>The Thicc Continent</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1139</v>
+        <v>2871</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0:18:59</t>
+          <t>0:47:51</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1709</v>
+        <v>4307</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0:28:29</t>
+          <t>1:11:47</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6580,40 +6580,40 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_thicc_continent</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Cyberius Confederation</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1140</v>
+        <v>2919</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0:19:00</t>
+          <t>0:48:39</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1711</v>
+        <v>4379</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0:28:31</t>
+          <t>1:12:59</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6621,60 +6621,60 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Freedom and Reneval</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1176</v>
+        <v>3157</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0:19:36</t>
+          <t>0:52:37</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1763</v>
+        <v>4736</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0:29:23</t>
+          <t>1:18:56</t>
         </is>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_and_reneval</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Onionistlands</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6683,19 +6683,19 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1214</v>
+        <v>3422</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0:20:14</t>
+          <t>0:57:02</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1821</v>
+        <v>5133</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0:30:21</t>
+          <t>1:25:33</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6703,1814 +6703,10 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=onionistlands</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>The Warsaw pact of the world</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>1237</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>0:20:37</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>1855</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>0:30:55</t>
-        </is>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_warsaw_pact_of_the_world</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>Aerope</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>1238</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>0:20:38</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>1857</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>0:30:57</t>
-        </is>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=aerope</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Horsia</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>1241</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>0:20:41</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>1862</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>0:31:02</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=horsia</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>BallsMoment</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>1242</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>0:20:42</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>1863</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>0:31:03</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>0</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>Kyorgia puppet storage</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>1243</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>0:20:43</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>1865</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>0:31:05</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>SALMEGIA</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>1244</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>0:20:44</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>1867</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>0:31:07</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>The Empire Of The Magisterium</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>1249</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>0:20:49</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>1873</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>0:31:13</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>Agia Germania Anest</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>1249</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>0:20:49</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>1873</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>0:31:13</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>0</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>accompaniment</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>0:20:50</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>1875</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>0:31:15</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>Roar</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>1251</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>0:20:51</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>1876</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>0:31:16</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=roar</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Volantis</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1251</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>0:20:51</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>1877</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>0:31:17</t>
-        </is>
-      </c>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=volantis</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Sus amoungus</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>1252</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>0:20:52</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>1878</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>0:31:18</t>
-        </is>
-      </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Cosmopolitan Convention</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>1253</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>0:20:53</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>1880</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>0:31:20</t>
-        </is>
-      </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Its morbin time yes</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>1254</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>0:20:54</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>1881</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>0:31:21</t>
-        </is>
-      </c>
-      <c r="G167" t="b">
-        <v>0</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=its_morbin_time_yes</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>EPSA</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Blood</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>1255</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>0:20:55</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>1882</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>0:31:22</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>0</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>NVIDIA GeForce</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>1255</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>0:20:55</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>1883</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>0:31:23</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>0</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Sraqn Genc</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>1258</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>0:20:58</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>1887</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>0:31:27</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>Ijaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Stellar Crystal Tavern</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>1334</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>0:22:14</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>0:33:21</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>0</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>Osiris, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>Land of Places</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>0:22:35</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>2033</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>0:33:53</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>0</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=land_of_places</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>Fastiv</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>1362</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>0:22:42</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>2043</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>0:34:03</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=fastiv</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>Ijaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>Commonwealth of Allied Nations</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>1364</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>0:22:44</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>2046</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>0:34:06</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>0</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_allied_nations</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Osiris, Sparkalia, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>Duolingo airport</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>1408</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>0:23:28</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>2112</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>0:35:12</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>0</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=duolingo_airport</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>Seltanakorvasia</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>1408</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>0:23:28</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>2112</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>0:35:12</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>BoM, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>The Association of Denmark</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>1424</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>0:23:44</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>2135</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>0:35:35</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_association_of_denmark</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>International Peace Treaty</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>1435</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>0:23:55</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>2152</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>0:35:52</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>0</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=international_peace_treaty</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>Europe of De Jota</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>1442</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>0:24:02</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>2164</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>0:36:04</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>0</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>Metal Gear Rising</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>1696</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>0:28:16</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>0:42:24</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>0</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=metal_gear_rising</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>Osiris, Sparkalia, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>The Kibble Kingdom</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>1836</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>0:30:36</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>2755</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>0:45:55</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>The Steak Tavern</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>1899</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>0:31:39</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>2849</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>0:47:29</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>0</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_steak_tavern</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>F1 talker</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>1947</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>0:32:27</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>2920</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>0:48:40</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=f1_talker</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>Holosiiv</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>1967</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>0:32:47</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>2951</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>0:49:11</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>0</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=holosiiv</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>The Estamindian Island Chain</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>1969</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>0:32:49</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>2953</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>0:49:13</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>0</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>Regional Officers</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>0:33:00</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>2971</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>0:49:31</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>0</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>Warszawa</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>2040</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>0:34:00</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>3059</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>0:50:59</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>0</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=warszawa</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Osiris, Sparkalia, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>One Land</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>2102</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>0:35:02</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>3153</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>0:52:33</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=one_land</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>Osiris, Sparkalia, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>2323</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>0:38:43</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>3485</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>0:58:05</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>2363</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>0:39:23</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>3544</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>0:59:04</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>0</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>2367</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>0:39:27</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>3550</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>0:59:10</t>
-        </is>
-      </c>
-      <c r="G191" t="b">
-        <v>0</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>2729</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>0:45:29</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>4093</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>1:08:13</t>
-        </is>
-      </c>
-      <c r="G192" t="b">
-        <v>0</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>Violet Irises</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>2745</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>0:45:45</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>4118</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>1:08:38</t>
-        </is>
-      </c>
-      <c r="G193" t="b">
-        <v>0</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>2939</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>0:48:59</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>4409</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>1:13:29</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>0</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>2987</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>0:49:47</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>4480</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>1:14:40</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>0</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>3224</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>0:53:44</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>4836</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>1:20:36</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>3453</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>0:57:33</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>5179</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1:26:19</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>0</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="09 March 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10 March 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:29</t>
+          <t>0:00:37</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:43</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:36</t>
+          <t>0:00:44</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:51</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:00:47</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:00:48</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:29</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:58</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:34</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:34</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2697,28 +2697,28 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>North Antartica</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,40 +2726,40 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_antartica</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:32</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:02:36</t>
+          <t>0:02:33</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,19 +2808,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>The North Cheese</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2829,19 +2829,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,40 +2849,40 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=the_north_cheese</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>Murkton</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:02:42</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:04:02</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,19 +2890,19 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=murkton</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Murkton</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=murkton</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2943,28 +2943,28 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:04:40</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>Soxys Fish Shop Of The Multiversus</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:04:59</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,19 +3013,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Soxys Fish Shop Of The Multiversus</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3034,19 +3034,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3075,19 +3075,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3107,28 +3107,28 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>TrOwOns</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=trowons</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>TrOwOns</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trowons</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Nation Assembly</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:04:48</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,40 +3218,40 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=nation_assembly</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Nation Assembly</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:05:07</t>
+          <t>0:04:51</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nation_assembly</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:05:11</t>
+          <t>0:04:51</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:05:11</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,40 +3341,40 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:05:25</t>
+          <t>0:04:54</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,19 +3382,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Uzek</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:04:54</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,19 +3423,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=uzek</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Uzek</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3444,19 +3444,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:04:55</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,19 +3464,19 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzek</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3485,19 +3485,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3517,28 +3517,28 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:03:25</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:05:29</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,40 +3546,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,19 +3669,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3690,19 +3690,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:05:23</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:56</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,40 +3751,40 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:06:00</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Ijaka, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>The Friendly Nation</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:04:16</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:06:23</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,40 +3833,40 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=the_friendly_nation</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>BoM, Ijaka, Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:04:22</t>
+          <t>0:04:33</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:06:33</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Freedom Placas</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:04:44</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:07:06</t>
+          <t>0:06:55</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=freedom_placas</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Freedom Placas</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:07:12</t>
+          <t>0:06:56</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_placas</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>Swediztan isles</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:04:49</t>
+          <t>0:04:39</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,19 +3997,19 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=swediztan_isles</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Swediztan isles</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4018,19 +4018,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:50</t>
+          <t>0:04:41</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:07:02</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=swediztan_isles</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4050,7 +4050,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4059,19 +4059,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:04:41</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:07:02</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,19 +4079,19 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4100,19 +4100,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:17</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:07:56</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>The Allied Armies of Subscribers</t>
+          <t>The Federation of the Hartland</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:05:20</t>
+          <t>0:05:21</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:08:00</t>
+          <t>0:08:01</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_armies_of_subscribers</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:08:15</t>
+          <t>0:08:13</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,40 +4202,40 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the Hartland</t>
+          <t>Clown Council</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:05:34</t>
+          <t>0:05:30</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:08:21</t>
+          <t>0:08:16</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,40 +4243,40 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
+          <t>https://www.nationstates.net/region=clown_council</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:07:02</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>516</v>
+        <v>633</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:08:36</t>
+          <t>0:10:33</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,40 +4284,40 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:05:46</t>
+          <t>0:07:02</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>519</v>
+        <v>634</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:08:39</t>
+          <t>0:10:34</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The Holy See of Vagen</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:07:14</t>
+          <t>0:07:04</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:10:51</t>
+          <t>0:10:36</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,40 +4366,40 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:07:14</t>
+          <t>0:07:04</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:10:36</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,40 +4407,40 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>The New confederacy</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:10:55</t>
+          <t>0:10:49</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_confederacy</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>The Holy See of Vagen</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:07:18</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:10:55</t>
+          <t>0:10:57</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:07:21</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:10:55</t>
+          <t>0:11:02</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=fantastic</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Greater French Empire</t>
+          <t>North Arctica</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:07:19</t>
+          <t>0:07:24</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:10:58</t>
+          <t>0:11:06</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,19 +4571,19 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_french_empire</t>
+          <t>https://www.nationstates.net/region=north_arctica</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4592,19 +4592,19 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>439</v>
+        <v>653</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:07:19</t>
+          <t>0:10:53</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>658</v>
+        <v>980</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:10:58</t>
+          <t>0:16:20</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,19 +4612,19 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4633,19 +4633,19 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>442</v>
+        <v>653</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:10:53</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>663</v>
+        <v>980</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:11:03</t>
+          <t>0:16:20</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,19 +4653,19 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4674,19 +4674,19 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>447</v>
+        <v>653</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:07:27</t>
+          <t>0:10:53</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>671</v>
+        <v>980</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:11:11</t>
+          <t>0:16:20</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fantastic</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>North Arctica</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>450</v>
+        <v>694</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:07:30</t>
+          <t>0:11:34</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>675</v>
+        <v>1042</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:11:15</t>
+          <t>0:17:22</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,40 +4735,40 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_arctica</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Johan Hedberg</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:11:05</t>
+          <t>0:11:35</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>998</v>
+        <v>1043</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:16:38</t>
+          <t>0:17:23</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=johan_hedberg</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:11:05</t>
+          <t>0:11:39</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>998</v>
+        <v>1049</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:16:38</t>
+          <t>0:17:29</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,81 +4817,81 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>The Carrot Patch</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>665</v>
+        <v>976</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:11:05</t>
+          <t>0:16:16</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>998</v>
+        <v>1464</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:16:38</t>
+          <t>0:24:24</t>
         </is>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=the_carrot_patch</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>665</v>
+        <v>1004</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:11:05</t>
+          <t>0:16:44</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>998</v>
+        <v>1506</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:16:38</t>
+          <t>0:25:06</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,40 +4899,40 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>Greater Soviet Union</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>708</v>
+        <v>1005</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:11:48</t>
+          <t>0:16:45</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1062</v>
+        <v>1507</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:17:42</t>
+          <t>0:25:07</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4940,40 +4940,40 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=greater_soviet_union</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>Les Gemeaux Vierge Verseau</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>709</v>
+        <v>1006</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:11:49</t>
+          <t>0:16:46</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1063</v>
+        <v>1509</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:17:43</t>
+          <t>0:25:09</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,40 +4981,40 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Super Metroid</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>709</v>
+        <v>1007</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:11:49</t>
+          <t>0:16:47</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1063</v>
+        <v>1511</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:17:43</t>
+          <t>0:25:11</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,40 +5022,40 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=super_metroid</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>The Thicc Continent</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>713</v>
+        <v>1014</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:11:53</t>
+          <t>0:16:54</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1069</v>
+        <v>1521</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:17:49</t>
+          <t>0:25:21</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=the_thicc_continent</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5075,28 +5075,28 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Nightoria</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>971</v>
+        <v>1015</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:16:11</t>
+          <t>0:16:55</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1457</v>
+        <v>1522</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:24:17</t>
+          <t>0:25:22</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,60 +5104,60 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nightoria</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>The Carrot Patch</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>998</v>
+        <v>1118</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:16:38</t>
+          <t>0:18:38</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1497</v>
+        <v>1677</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:24:57</t>
+          <t>0:27:57</t>
         </is>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_carrot_patch</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>IHFO</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5166,19 +5166,19 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>998</v>
+        <v>1120</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:16:38</t>
+          <t>0:18:40</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1497</v>
+        <v>1680</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:24:57</t>
+          <t>0:28:00</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ihfo</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1022</v>
+        <v>1121</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:17:02</t>
+          <t>0:18:41</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1532</v>
+        <v>1682</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:25:32</t>
+          <t>0:28:02</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Greater Soviet Union</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1022</v>
+        <v>1123</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:17:02</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1533</v>
+        <v>1684</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:25:33</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,19 +5268,19 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_soviet_union</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Les Gemeaux Vierge Verseau</t>
+          <t>Agia Germania Anest</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5289,19 +5289,19 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1024</v>
+        <v>1123</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:17:04</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1536</v>
+        <v>1685</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:25:36</t>
+          <t>0:28:05</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5321,7 +5321,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5330,19 +5330,19 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1025</v>
+        <v>1124</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:17:05</t>
+          <t>0:18:44</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1538</v>
+        <v>1686</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:25:38</t>
+          <t>0:28:06</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>The Thicc Continent</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5371,19 +5371,19 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1031</v>
+        <v>1125</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:17:11</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1547</v>
+        <v>1687</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:25:47</t>
+          <t>0:28:07</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,40 +5391,40 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_thicc_continent</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Cyberius Confederation</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1032</v>
+        <v>1125</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:17:12</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1548</v>
+        <v>1688</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:25:48</t>
+          <t>0:28:08</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:18:36</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1674</v>
+        <v>1689</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:27:54</t>
+          <t>0:28:09</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Cosmopolitan Convention</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:18:40</t>
+          <t>0:18:48</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1680</v>
+        <v>1692</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:28:00</t>
+          <t>0:28:12</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:18:41</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1682</v>
+        <v>1694</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:28:02</t>
+          <t>0:28:14</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:18:42</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1684</v>
+        <v>1695</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:28:15</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,19 +5596,19 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5617,19 +5617,19 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:18:47</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1690</v>
+        <v>1699</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:28:10</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Agia Germania Anest</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1127</v>
+        <v>1226</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:18:47</t>
+          <t>0:20:26</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1690</v>
+        <v>1839</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:28:10</t>
+          <t>0:30:39</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>Land of Places</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1128</v>
+        <v>1257</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:18:48</t>
+          <t>0:20:57</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1692</v>
+        <v>1886</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:28:12</t>
+          <t>0:31:26</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,40 +5719,40 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=land_of_places</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>Union of Green Socialist Nations</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1129</v>
+        <v>1609</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:18:49</t>
+          <t>0:26:49</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1693</v>
+        <v>2413</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:28:13</t>
+          <t>0:40:13</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,19 +5760,19 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=union_of_green_socialist_nations</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>StArry Nuggets</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5781,19 +5781,19 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1129</v>
+        <v>1742</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:18:49</t>
+          <t>0:29:02</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1694</v>
+        <v>2613</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:28:14</t>
+          <t>0:43:33</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,40 +5801,40 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=starry_nuggets</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>The Kibble Kingdom</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1130</v>
+        <v>1763</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:29:23</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1695</v>
+        <v>2644</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:28:15</t>
+          <t>0:44:04</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,19 +5842,19 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Cosmopolitan Convention</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5863,19 +5863,19 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1131</v>
+        <v>1868</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:31:08</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1696</v>
+        <v>2803</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:28:16</t>
+          <t>0:46:43</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,40 +5883,40 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1133</v>
+        <v>1878</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:18:53</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1699</v>
+        <v>2817</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>0:46:57</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,40 +5924,40 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>Richardsonson</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1133</v>
+        <v>1903</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:18:53</t>
+          <t>0:31:43</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1699</v>
+        <v>2855</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>0:47:35</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,19 +5965,19 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=richardsonson</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5986,19 +5986,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1135</v>
+        <v>2249</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:18:55</t>
+          <t>0:37:29</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1703</v>
+        <v>3373</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:28:23</t>
+          <t>0:56:13</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,19 +6006,19 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6027,19 +6027,19 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1207</v>
+        <v>2291</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:20:07</t>
+          <t>0:38:11</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1810</v>
+        <v>3437</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:30:10</t>
+          <t>0:57:17</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Land of Places</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1232</v>
+        <v>2296</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:20:32</t>
+          <t>0:38:16</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1849</v>
+        <v>3444</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:57:24</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,19 +6088,19 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=land_of_places</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Seltanakorvasia</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6109,19 +6109,19 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1286</v>
+        <v>2680</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:21:26</t>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1929</v>
+        <v>4020</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0:32:09</t>
+          <t>1:07:00</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,40 +6129,40 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=seltanakorvasia</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Europe of De Jota</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1319</v>
+        <v>2695</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:21:59</t>
+          <t>0:44:55</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1978</v>
+        <v>4042</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0:32:58</t>
+          <t>1:07:22</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europe_of_de_jota</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>The Kibble Kingdom</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1724</v>
+        <v>2895</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:28:44</t>
+          <t>0:48:15</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2586</v>
+        <v>4342</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0:43:06</t>
+          <t>1:12:22</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,40 +6211,40 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>F1 talker</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1804</v>
+        <v>2941</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:30:04</t>
+          <t>0:49:01</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2706</v>
+        <v>4411</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0:45:06</t>
+          <t>1:13:31</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,19 +6252,19 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=f1_talker</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>The Estamindian Island Chain</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6273,39 +6273,39 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1824</v>
+        <v>3189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:30:24</t>
+          <t>0:53:09</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2736</v>
+        <v>4784</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0:45:36</t>
+          <t>1:19:44</t>
         </is>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6314,19 +6314,19 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1843</v>
+        <v>3437</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0:30:43</t>
+          <t>0:57:17</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2765</v>
+        <v>5156</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0:46:05</t>
+          <t>1:25:56</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -6334,379 +6334,10 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>2204</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>0:36:44</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>3305</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>0:55:05</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>2252</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>0:37:32</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>3377</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>0:56:17</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>2256</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>0:37:36</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>3384</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>2639</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>0:43:59</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>3958</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>1:05:58</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>Violet Irises</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>2655</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>0:44:15</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>3983</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>1:06:23</t>
-        </is>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>2871</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>0:47:51</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>4307</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>1:11:47</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>2919</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0:48:39</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>4379</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>1:12:59</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>3157</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>0:52:37</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>4736</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>1:18:56</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>3422</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>0:57:02</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>5133</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>1:25:33</t>
-        </is>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3476,12 +3476,12 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3493,11 +3493,11 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:04:56</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3517,28 +3517,28 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,40 +3546,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:03:25</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:19</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,24 +3628,24 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3669,19 +3669,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3690,19 +3690,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,40 +3710,40 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:05:23</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,40 +3751,40 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>BoM, Ijaka, Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,40 +3833,40 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, Ijaka, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Friendly Nation</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:04:33</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_friendly_nation</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Freedom Placas</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:04:33</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:06:55</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,24 +3915,24 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_placas</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>Freedom Placas</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3944,11 +3944,11 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:06:56</t>
+          <t>0:06:55</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=freedom_placas</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Swediztan isles</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:04:39</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:06:56</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,19 +3997,19 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=swediztan_isles</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Swediztan isles</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4018,19 +4018,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:41</t>
+          <t>0:04:39</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:07:02</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=swediztan_isles</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4050,7 +4050,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4079,19 +4079,19 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4100,19 +4100,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:04:41</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:07:02</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,19 +4120,19 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the Hartland</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4141,19 +4141,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:05:21</t>
+          <t>0:05:17</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:08:01</t>
+          <t>0:07:56</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>The Federation of the Hartland</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:05:21</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:08:13</t>
+          <t>0:08:01</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,40 +4202,40 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:08:16</t>
+          <t>0:08:13</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,19 +4243,19 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Clown Council</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:07:02</t>
+          <t>0:05:30</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>633</v>
+        <v>496</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:10:33</t>
+          <t>0:08:16</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,24 +4284,24 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=clown_council</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4313,11 +4313,11 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:10:34</t>
+          <t>0:10:33</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,40 +4325,40 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>The Holy See of Vagen</t>
+          <t>GAY PEOPLE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:07:04</t>
+          <t>0:07:02</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:10:36</t>
+          <t>0:10:34</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4366,24 +4366,24 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
+          <t>https://www.nationstates.net/region=gay_people</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Holy See of Vagen</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4407,19 +4407,19 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4428,19 +4428,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:07:04</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:10:49</t>
+          <t>0:10:36</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:07:18</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:10:57</t>
+          <t>0:10:49</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,19 +4489,19 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4510,19 +4510,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:07:21</t>
+          <t>0:07:18</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:11:02</t>
+          <t>0:10:57</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fantastic</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4542,28 +4542,28 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>North Arctica</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:07:24</t>
+          <t>0:07:21</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:11:06</t>
+          <t>0:11:02</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_arctica</t>
+          <t>https://www.nationstates.net/region=fantastic</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>North Arctica</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>653</v>
+        <v>444</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:10:53</t>
+          <t>0:07:24</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>980</v>
+        <v>666</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:16:20</t>
+          <t>0:11:06</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,24 +4612,24 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=north_arctica</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4653,19 +4653,19 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4694,40 +4694,40 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=absence</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>International Socialist Assembly</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>694</v>
+        <v>653</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:11:34</t>
+          <t>0:10:53</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1042</v>
+        <v>980</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:17:22</t>
+          <t>0:16:20</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,19 +4735,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>FlipFault</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4756,19 +4756,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:11:35</t>
+          <t>0:11:34</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:17:23</t>
+          <t>0:17:22</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=flipfault</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:11:39</t>
+          <t>0:11:35</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:17:29</t>
+          <t>0:17:23</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,19 +4817,19 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>The Carrot Patch</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4838,60 +4838,60 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>976</v>
+        <v>699</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:16:16</t>
+          <t>0:11:39</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1464</v>
+        <v>1049</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:24:24</t>
+          <t>0:17:29</t>
         </is>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_carrot_patch</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>Open Ocean 9</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1004</v>
+        <v>775</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:16:44</t>
+          <t>0:12:55</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1506</v>
+        <v>1163</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:25:06</t>
+          <t>0:19:23</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,81 +4899,81 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=open_ocean_9</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Greater Soviet Union</t>
+          <t>The Carrot Patch</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:16:45</t>
+          <t>0:16:16</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1507</v>
+        <v>1464</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:25:07</t>
+          <t>0:24:24</t>
         </is>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_soviet_union</t>
+          <t>https://www.nationstates.net/region=the_carrot_patch</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Les Gemeaux Vierge Verseau</t>
+          <t>Dutch Waltuh Union</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:16:46</t>
+          <t>0:16:44</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:25:09</t>
+          <t>0:25:06</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,40 +4981,40 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
+          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>Greater Soviet Union</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:16:47</t>
+          <t>0:16:45</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:25:11</t>
+          <t>0:25:07</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,19 +5022,19 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=greater_soviet_union</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>The Thicc Continent</t>
+          <t>Les Gemeaux Vierge Verseau</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5043,19 +5043,19 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:16:54</t>
+          <t>0:16:46</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:25:21</t>
+          <t>0:25:09</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_thicc_continent</t>
+          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -5075,28 +5075,28 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Cyberius Confederation</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:16:55</t>
+          <t>0:16:47</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:25:22</t>
+          <t>0:25:11</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,40 +5104,40 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>The Thicc Continent</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1118</v>
+        <v>1014</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:18:38</t>
+          <t>0:16:54</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1677</v>
+        <v>1521</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:27:57</t>
+          <t>0:25:21</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,40 +5145,40 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=the_thicc_continent</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1120</v>
+        <v>1015</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:18:40</t>
+          <t>0:16:55</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1680</v>
+        <v>1522</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:28:00</t>
+          <t>0:25:22</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>Coffee House</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1121</v>
+        <v>1091</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:18:41</t>
+          <t>0:18:11</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1682</v>
+        <v>1636</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:28:02</t>
+          <t>0:27:16</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=coffee_house</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:18:38</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:27:57</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Agia Germania Anest</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:18:40</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:28:05</t>
+          <t>0:28:00</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:18:41</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:28:06</t>
+          <t>0:28:02</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,40 +5350,40 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:28:07</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,40 +5391,40 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>Agia Germania Anest</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:28:08</t>
+          <t>0:28:05</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:18:44</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:28:09</t>
+          <t>0:28:06</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5485,28 +5485,28 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Cosmopolitan Convention</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:18:48</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:28:12</t>
+          <t>0:28:07</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,40 +5514,40 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:18:49</t>
+          <t>0:18:45</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:28:14</t>
+          <t>0:28:08</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,19 +5555,19 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5576,19 +5576,19 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:28:15</t>
+          <t>0:28:09</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,19 +5596,19 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Cosmopolitan Convention</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5617,19 +5617,19 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:18:48</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>0:28:12</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1226</v>
+        <v>1129</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:20:26</t>
+          <t>0:18:49</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1839</v>
+        <v>1694</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:30:39</t>
+          <t>0:28:14</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Land of Places</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1257</v>
+        <v>1130</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:20:57</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1886</v>
+        <v>1695</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:31:26</t>
+          <t>0:28:15</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,40 +5719,40 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=land_of_places</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Union of Green Socialist Nations</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1609</v>
+        <v>1132</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:26:49</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2413</v>
+        <v>1699</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:40:13</t>
+          <t>0:28:19</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,40 +5760,40 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_green_socialist_nations</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>StArry Nuggets</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1742</v>
+        <v>1226</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:29:02</t>
+          <t>0:20:26</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2613</v>
+        <v>1839</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:43:33</t>
+          <t>0:30:39</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,19 +5801,19 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=starry_nuggets</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>The Kibble Kingdom</t>
+          <t>Land of Places</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5822,19 +5822,19 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1763</v>
+        <v>1257</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0:29:23</t>
+          <t>0:20:57</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2644</v>
+        <v>1886</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0:44:04</t>
+          <t>0:31:26</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
+          <t>https://www.nationstates.net/region=land_of_places</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -5854,28 +5854,28 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>The Estamindian Island Chain</t>
+          <t>Nowhere</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1868</v>
+        <v>1341</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0:31:08</t>
+          <t>0:22:21</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2803</v>
+        <v>2012</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0:46:43</t>
+          <t>0:33:32</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5883,40 +5883,40 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
+          <t>https://www.nationstates.net/region=nowhere</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Union of Green Socialist Nations</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1878</v>
+        <v>1609</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0:31:18</t>
+          <t>0:26:49</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2817</v>
+        <v>2413</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0:46:57</t>
+          <t>0:40:13</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5924,19 +5924,19 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=union_of_green_socialist_nations</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Richardsonson</t>
+          <t>StArry Nuggets</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5945,19 +5945,19 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1903</v>
+        <v>1742</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:29:02</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2855</v>
+        <v>2613</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0:47:35</t>
+          <t>0:43:33</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=richardsonson</t>
+          <t>https://www.nationstates.net/region=starry_nuggets</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -5977,7 +5977,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The Kibble Kingdom</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5986,19 +5986,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2249</v>
+        <v>1763</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0:37:29</t>
+          <t>0:29:23</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3373</v>
+        <v>2644</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0:56:13</t>
+          <t>0:44:04</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -6006,19 +6006,19 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6027,19 +6027,19 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2291</v>
+        <v>1868</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0:38:11</t>
+          <t>0:31:08</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3437</v>
+        <v>2803</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0:57:17</t>
+          <t>0:46:43</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -6047,40 +6047,40 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2296</v>
+        <v>1878</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0:38:16</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3444</v>
+        <v>2817</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0:57:24</t>
+          <t>0:46:57</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -6088,40 +6088,40 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Richardsonson</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2680</v>
+        <v>1903</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:31:43</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4020</v>
+        <v>2855</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1:07:00</t>
+          <t>0:47:35</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -6129,19 +6129,19 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=richardsonson</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6150,19 +6150,19 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2695</v>
+        <v>2249</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0:44:55</t>
+          <t>0:37:29</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4042</v>
+        <v>3373</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1:07:22</t>
+          <t>0:56:13</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -6170,40 +6170,40 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>raiding am I right</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2895</v>
+        <v>2278</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0:48:15</t>
+          <t>0:37:58</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4342</v>
+        <v>3417</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1:12:22</t>
+          <t>0:56:57</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -6211,40 +6211,40 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=raiding_am_i_right</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2941</v>
+        <v>2291</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0:49:01</t>
+          <t>0:38:11</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4411</v>
+        <v>3437</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1:13:31</t>
+          <t>0:57:17</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -6252,92 +6252,338 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3189</v>
+        <v>2296</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0:53:09</t>
+          <t>0:38:16</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4784</v>
+        <v>3444</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1:19:44</t>
+          <t>0:57:24</t>
         </is>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2680</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>4020</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1:07:00</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>Violet Irises</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2695</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0:44:55</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1:07:22</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=violet_irises</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0:48:15</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>4342</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1:12:22</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2941</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0:49:01</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>4411</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1:13:31</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>3189</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0:53:09</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>4784</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1:19:44</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>The Fifth Sovereign Charter</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>WFE, RO</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>3196</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0:53:16</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>4794</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1:19:54</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_fifth_sovereign_charter</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C150" t="n">
         <v>3437</v>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>0:57:17</t>
         </is>
       </c>
-      <c r="E144" t="n">
+      <c r="E150" t="n">
         <v>5156</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>1:25:56</t>
         </is>
       </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/detags.xlsx
+++ b/data/detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="10 March 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11 March 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:37</t>
+          <t>0:00:40</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:44</t>
+          <t>0:00:47</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:22</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -975,7 +975,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>Imperial County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=imperial_county</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Imperial County</t>
+          <t>The Central European Regional Assembly</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:13</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=imperial_county</t>
+          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TCB</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Central European Regional Assembly</t>
+          <t>Syndir</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
+          <t>https://www.nationstates.net/region=syndir</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Lily, TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Syndir</t>
+          <t>Landon Bow</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=syndir</t>
+          <t>https://www.nationstates.net/region=landon_bow</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Landon Bow</t>
+          <t>Card2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=landon_bow</t>
+          <t>https://www.nationstates.net/region=card2025</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Card2025</t>
+          <t>Matamo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:01:22</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2025</t>
+          <t>https://www.nationstates.net/region=matamo</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1221,28 +1221,28 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Matamo</t>
+          <t>Kilisis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:01:29</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=matamo</t>
+          <t>https://www.nationstates.net/region=kilisis</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Kilisis</t>
+          <t>Renem</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kilisis</t>
+          <t>https://www.nationstates.net/region=renem</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Renem</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=renem</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,28 +1344,28 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Eroias</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=eroias</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Eroias</t>
+          <t>Dragonborn Confederate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eroias</t>
+          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>The Confederacy of German States</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of German States</t>
+          <t>Solar Union</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,19 +1537,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
+          <t>https://www.nationstates.net/region=solar_union</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>Shizei</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=shizei</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Shizei</t>
+          <t>International Federalist Union</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shizei</t>
+          <t>https://www.nationstates.net/region=international_federalist_union</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>International Federalist Union</t>
+          <t>Coral Reef 10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:03:02</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,19 +1660,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_federalist_union</t>
+          <t>https://www.nationstates.net/region=coral_reef_10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>United Federal Nations</t>
+          <t>Combine world</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_federal_nations</t>
+          <t>https://www.nationstates.net/region=combine_world</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 10</t>
+          <t>the Rejected Warzone</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_10</t>
+          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ischia</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ischia</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Combine world</t>
+          <t>Ascensionsen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=combine_world</t>
+          <t>https://www.nationstates.net/region=ascensionsen</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>the Rejected Warzone</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_rejected_warzone</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Owls</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:02:59</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=owls</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ascensionsen</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:02:59</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ascensionsen</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Federation of Nation and Freedom</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=federation_of_nation_and_freedom</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Owls</t>
+          <t>Bean Union</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=owls</t>
+          <t>https://www.nationstates.net/region=bean_union</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>The Holy Federation of Dunkeld</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Federation of Nation and Freedom</t>
+          <t>Council of The Righteous</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=federation_of_nation_and_freedom</t>
+          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Bean Union</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bean_union</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2164,28 +2164,28 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>The Holy Federation of Dunkeld</t>
+          <t>Atlae</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,19 +2193,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_federation_of_dunkeld</t>
+          <t>https://www.nationstates.net/region=atlae</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Council of The Righteous</t>
+          <t>Kiansia Continent</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:20</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=council_of_the_righteous</t>
+          <t>https://www.nationstates.net/region=kiansia_continent</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The UN Of The Universal Republic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Atlae</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,19 +2316,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlae</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Kiansia Continent</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:03:17</t>
+          <t>0:03:34</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kiansia_continent</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>Budget Crackheads</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=budget_crackheads</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,19 +2439,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Ukrayina</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:02:14</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=ukrayina</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Budget Crackheads</t>
+          <t>The Islamic Region</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=budget_crackheads</t>
+          <t>https://www.nationstates.net/region=the_islamic_region</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>Megalosian Empire</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:03:34</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=megalosian_empire</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2574,7 +2574,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Ukrayina</t>
+          <t>Skona</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:03:34</t>
+          <t>0:04:03</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ukrayina</t>
+          <t>https://www.nationstates.net/region=skona</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2615,28 +2615,28 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>The Islamic Region</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islamic_region</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Megalosian Empire</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:04:08</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=megalosian_empire</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Skona</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,40 +2726,40 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skona</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Corklan Brewing Company</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:05:23</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>Soxys Fish Shop Of The Multiversus</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>The North Cheese</t>
+          <t>Damnations of Nations</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,19 +2849,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_north_cheese</t>
+          <t>https://www.nationstates.net/region=damnations_of_nations</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Murkton</t>
+          <t>Real brgs Bois</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,19 +2890,19 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=murkton</t>
+          <t>https://www.nationstates.net/region=real_brgs_bois</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>NationState Monarchists</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:02:36</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2943,28 +2943,28 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Corklan Brewing Company</t>
+          <t>Nation Assembly</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:04:40</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=corklan_brewing_company</t>
+          <t>https://www.nationstates.net/region=nation_assembly</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Soxys Fish Shop Of The Multiversus</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soxys_fish_shop_of_the_multiversus</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Damnations of Nations</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnations_of_nations</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Real brgs Bois</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=real_brgs_bois</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>TrOwOns</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,19 +3136,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trowons</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>NationState Monarchists</t>
+          <t>Uzek</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstate_monarchists</t>
+          <t>https://www.nationstates.net/region=uzek</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3189,28 +3189,28 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Nation Assembly</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,40 +3218,40 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nation_assembly</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:05:46</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>291</v>
+        <v>347</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,19 +3341,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3362,19 +3362,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:04:54</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,40 +3382,40 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Uzek</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:04:02</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:04:54</t>
+          <t>0:06:02</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,19 +3423,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uzek</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hightower</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3444,19 +3444,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:03:17</t>
+          <t>0:04:02</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:04:55</t>
+          <t>0:06:02</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hightower</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3476,28 +3476,28 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>The Grand British Union</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:04:56</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,40 +3505,40 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=the_grand_british_union</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Unity of the Freedom</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:04:08</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:06:12</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3546,40 +3546,40 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>We should nuke the uk</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:06:23</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,19 +3587,19 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Ijaka, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Friendly Nation</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3608,19 +3608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:06:37</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_friendly_nation</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0:05:19</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,40 +3669,40 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hightower</t>
+          <t>Coral Reef 9</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:04:59</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>319</v>
+        <v>449</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0:05:19</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,19 +3710,19 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hightower</t>
+          <t>https://www.nationstates.net/region=coral_reef_9</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>The Grand British Union</t>
+          <t>Swediztan isles</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3731,19 +3731,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:05:01</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:07:31</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_grand_british_union</t>
+          <t>https://www.nationstates.net/region=swediztan_isles</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3763,28 +3763,28 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Unity of the Freedom</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:07:35</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unity_of_the_freedom</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>We should nuke the uk</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:07:36</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,19 +3833,19 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_should_nuke_the_uk</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>BoM, Ijaka, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>The Friendly Nation</t>
+          <t>The Mighty Horseland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3854,19 +3854,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:05:56</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>348</v>
+        <v>535</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:08:55</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_friendly_nation</t>
+          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Federation of the Hartland</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:04:33</t>
+          <t>0:06:01</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>410</v>
+        <v>542</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:09:02</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,40 +3915,40 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Freedom Placas</t>
+          <t>The Panzerstanian Empire</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0:06:55</t>
+          <t>0:09:13</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3956,40 +3956,40 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freedom_placas</t>
+          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 9</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>277</v>
+        <v>483</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:08:03</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>416</v>
+        <v>725</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0:06:56</t>
+          <t>0:12:05</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,19 +3997,19 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_9</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Swediztan isles</t>
+          <t>The Holy See of Vagen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4018,19 +4018,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>279</v>
+        <v>487</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:04:39</t>
+          <t>0:08:07</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>418</v>
+        <v>731</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:12:11</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=swediztan_isles</t>
+          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4050,28 +4050,28 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>281</v>
+        <v>487</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:04:41</t>
+          <t>0:08:07</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>422</v>
+        <v>731</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0:07:02</t>
+          <t>0:12:11</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,40 +4079,40 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>Wolfonia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>281</v>
+        <v>489</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:04:41</t>
+          <t>0:08:09</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>422</v>
+        <v>734</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0:07:02</t>
+          <t>0:12:14</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=wolfonia</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, TBH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>The Mighty Horseland</t>
+          <t>the democratic republic of Gaelle</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>317</v>
+        <v>493</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:08:13</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>476</v>
+        <v>740</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -4161,40 +4161,40 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mighty_horseland</t>
+          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the Hartland</t>
+          <t>Fantastic</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>321</v>
+        <v>498</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0:05:21</t>
+          <t>0:08:18</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>481</v>
+        <v>747</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0:08:01</t>
+          <t>0:12:27</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -4202,40 +4202,40 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_hartland</t>
+          <t>https://www.nationstates.net/region=fantastic</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>The Panzerstanian Empire</t>
+          <t>North Arctica</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>328</v>
+        <v>501</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:08:21</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>493</v>
+        <v>752</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0:08:13</t>
+          <t>0:12:32</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -4243,40 +4243,40 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_panzerstanian_empire</t>
+          <t>https://www.nationstates.net/region=north_arctica</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>Rebels of the Imperium</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>330</v>
+        <v>742</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:12:22</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>496</v>
+        <v>1113</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0:08:16</t>
+          <t>0:18:33</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -4284,40 +4284,40 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The 8th Grade Isles</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>422</v>
+        <v>747</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0:07:02</t>
+          <t>0:12:27</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>633</v>
+        <v>1121</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0:10:33</t>
+          <t>0:18:41</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -4325,60 +4325,60 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>GAY PEOPLE</t>
+          <t>The Carrot Patch</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>422</v>
+        <v>1022</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0:07:02</t>
+          <t>0:17:02</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>634</v>
+        <v>1534</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0:10:34</t>
+          <t>0:25:34</t>
         </is>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gay_people</t>
+          <t>https://www.nationstates.net/region=the_carrot_patch</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>The Holy See of Vagen</t>
+          <t>Greater Soviet Union</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4387,19 +4387,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>424</v>
+        <v>1047</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0:07:04</t>
+          <t>0:17:27</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>636</v>
+        <v>1571</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0:10:36</t>
+          <t>0:26:11</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4407,40 +4407,40 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_see_of_vagen</t>
+          <t>https://www.nationstates.net/region=greater_soviet_union</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Les Gemeaux Vierge Verseau</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>424</v>
+        <v>1049</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0:07:04</t>
+          <t>0:17:29</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>636</v>
+        <v>1573</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0:10:36</t>
+          <t>0:26:13</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4448,40 +4448,40 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Wolfonia</t>
+          <t>Barataria Bay</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>433</v>
+        <v>1050</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:17:30</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>649</v>
+        <v>1575</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0:10:49</t>
+          <t>0:26:15</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4489,40 +4489,40 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wolfonia</t>
+          <t>https://www.nationstates.net/region=barataria_bay</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>EPSA, TBH</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>the democratic republic of Gaelle</t>
+          <t>The Thicc Continent</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>438</v>
+        <v>1056</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0:07:18</t>
+          <t>0:17:36</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>657</v>
+        <v>1584</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0:10:57</t>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4530,40 +4530,40 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_democratic_republic_of_gaelle</t>
+          <t>https://www.nationstates.net/region=the_thicc_continent</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>441</v>
+        <v>1057</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0:07:21</t>
+          <t>0:17:37</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>662</v>
+        <v>1585</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0:11:02</t>
+          <t>0:26:25</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fantastic</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>North Arctica</t>
+          <t>Coffee House</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>444</v>
+        <v>1134</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0:07:24</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>666</v>
+        <v>1702</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0:11:06</t>
+          <t>0:28:22</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4612,19 +4612,19 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=north_arctica</t>
+          <t>https://www.nationstates.net/region=coffee_house</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4633,19 +4633,19 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>653</v>
+        <v>1161</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0:10:53</t>
+          <t>0:19:21</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>980</v>
+        <v>1741</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0:16:20</t>
+          <t>0:29:01</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4653,81 +4653,81 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>653</v>
+        <v>1165</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0:10:53</t>
+          <t>0:19:25</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>980</v>
+        <v>1747</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0:16:20</t>
+          <t>0:29:07</t>
         </is>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absence</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>BoM, Sparkalia, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>International Socialist Assembly</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>653</v>
+        <v>1166</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0:10:53</t>
+          <t>0:19:26</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>980</v>
+        <v>1749</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0:16:20</t>
+          <t>0:29:09</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4735,19 +4735,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_socialist_assembly</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>FlipFault</t>
+          <t>SALMEGIA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4756,19 +4756,19 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>694</v>
+        <v>1167</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0:11:34</t>
+          <t>0:19:27</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1042</v>
+        <v>1751</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0:17:22</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4776,19 +4776,19 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=flipfault</t>
+          <t>https://www.nationstates.net/region=salmegia</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Rebels of the Imperium</t>
+          <t>The Empire Of The Magisterium</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4797,19 +4797,19 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>695</v>
+        <v>1169</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0:11:35</t>
+          <t>0:19:29</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1043</v>
+        <v>1753</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0:17:23</t>
+          <t>0:29:13</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4817,40 +4817,40 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rebels_of_the_imperium</t>
+          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>The 8th Grade Isles</t>
+          <t>Agia Germania Anest</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>699</v>
+        <v>1169</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0:11:39</t>
+          <t>0:19:29</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1049</v>
+        <v>1753</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0:17:29</t>
+          <t>0:29:13</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_8th_grade_isles</t>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -4870,28 +4870,28 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Open Ocean 9</t>
+          <t>accompaniment</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>775</v>
+        <v>1170</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0:12:55</t>
+          <t>0:19:30</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1163</v>
+        <v>1755</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0:19:23</t>
+          <t>0:29:15</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4899,81 +4899,81 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=open_ocean_9</t>
+          <t>https://www.nationstates.net/region=accompaniment</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>The Carrot Patch</t>
+          <t>Roar</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>976</v>
+        <v>1171</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0:16:16</t>
+          <t>0:19:31</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1464</v>
+        <v>1756</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0:24:24</t>
+          <t>0:29:16</t>
         </is>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_carrot_patch</t>
+          <t>https://www.nationstates.net/region=roar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Dutch Waltuh Union</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1004</v>
+        <v>1171</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0:16:44</t>
+          <t>0:19:31</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1506</v>
+        <v>1757</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0:25:06</t>
+          <t>0:29:17</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4981,19 +4981,19 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dutch_waltuh_union</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Greater Soviet Union</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5002,19 +5002,19 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1005</v>
+        <v>1172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0:16:45</t>
+          <t>0:19:32</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1507</v>
+        <v>1758</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0:25:07</t>
+          <t>0:29:18</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -5022,40 +5022,40 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_soviet_union</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Les Gemeaux Vierge Verseau</t>
+          <t>Cosmopolitan Convention</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1006</v>
+        <v>1173</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0:16:46</t>
+          <t>0:19:33</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1509</v>
+        <v>1760</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0:25:09</t>
+          <t>0:29:20</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -5063,40 +5063,40 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=les_gemeaux_vierge_verseau</t>
+          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Barataria Bay</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1007</v>
+        <v>1175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0:16:47</t>
+          <t>0:19:35</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1511</v>
+        <v>1762</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0:25:11</t>
+          <t>0:29:22</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -5104,19 +5104,19 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=barataria_bay</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>The Thicc Continent</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5125,19 +5125,19 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1014</v>
+        <v>1175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0:16:54</t>
+          <t>0:19:35</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1521</v>
+        <v>1763</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0:25:21</t>
+          <t>0:29:23</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -5145,40 +5145,40 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_thicc_continent</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Cyberius Confederation</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1015</v>
+        <v>1178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0:16:55</t>
+          <t>0:19:38</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1522</v>
+        <v>1767</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0:25:22</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -5186,40 +5186,40 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Coffee House</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1091</v>
+        <v>1267</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0:18:11</t>
+          <t>0:21:07</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1636</v>
+        <v>1901</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0:27:16</t>
+          <t>0:31:41</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -5227,40 +5227,40 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coffee_house</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Land of Places</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1118</v>
+        <v>1292</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0:18:38</t>
+          <t>0:21:32</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1677</v>
+        <v>1937</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0:27:57</t>
+          <t>0:32:17</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -5268,40 +5268,40 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=land_of_places</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Nowhere</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1120</v>
+        <v>1371</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0:18:40</t>
+          <t>0:22:51</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1680</v>
+        <v>2056</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0:28:00</t>
+          <t>0:34:16</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -5309,40 +5309,40 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=nowhere</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>SALMEGIA</t>
+          <t>StArry Nuggets</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1121</v>
+        <v>1757</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0:18:41</t>
+          <t>0:29:17</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1682</v>
+        <v>2636</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0:28:02</t>
+          <t>0:43:56</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=salmegia</t>
+          <t>https://www.nationstates.net/region=starry_nuggets</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>The Empire Of The Magisterium</t>
+          <t>The Kibble Kingdom</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5371,19 +5371,19 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1123</v>
+        <v>1784</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:29:44</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1684</v>
+        <v>2676</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:44:36</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -5391,19 +5391,19 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_empire_of_the_magisterium</t>
+          <t>https://www.nationstates.net/region=the_kibble_kingdom</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Agia Germania Anest</t>
+          <t>F1 talker</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1123</v>
+        <v>1866</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:31:06</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1685</v>
+        <v>2799</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0:28:05</t>
+          <t>0:46:39</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -5432,40 +5432,40 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
+          <t>https://www.nationstates.net/region=f1_talker</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>accompaniment</t>
+          <t>The Estamindian Island Chain</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1124</v>
+        <v>1892</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1686</v>
+        <v>2837</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0:28:06</t>
+          <t>0:47:17</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5473,40 +5473,40 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accompaniment</t>
+          <t>https://www.nationstates.net/region=the_estamindian_island_chain</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Roar</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1125</v>
+        <v>1902</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:31:42</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1687</v>
+        <v>2854</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0:28:07</t>
+          <t>0:47:34</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5514,19 +5514,19 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=roar</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>Richardsonson</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5535,19 +5535,19 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1125</v>
+        <v>1931</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0:18:45</t>
+          <t>0:32:11</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1688</v>
+        <v>2897</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0:28:08</t>
+          <t>0:48:17</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5555,40 +5555,40 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=richardsonson</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1126</v>
+        <v>2261</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:37:41</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1689</v>
+        <v>3391</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0:28:09</t>
+          <t>0:56:31</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5596,40 +5596,40 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Cosmopolitan Convention</t>
+          <t>raiding am I right</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1128</v>
+        <v>2295</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0:18:48</t>
+          <t>0:38:15</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1692</v>
+        <v>3443</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0:28:12</t>
+          <t>0:57:23</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5637,40 +5637,40 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cosmopolitan_convention</t>
+          <t>https://www.nationstates.net/region=raiding_am_i_right</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1129</v>
+        <v>2306</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0:18:49</t>
+          <t>0:38:26</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1694</v>
+        <v>3460</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0:28:14</t>
+          <t>0:57:40</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5678,40 +5678,40 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1130</v>
+        <v>2312</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:38:32</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1695</v>
+        <v>3468</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0:28:15</t>
+          <t>0:57:48</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5719,19 +5719,19 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5740,19 +5740,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1132</v>
+        <v>2645</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:44:05</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1699</v>
+        <v>3968</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0:28:19</t>
+          <t>1:06:08</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5760,19 +5760,19 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5781,19 +5781,19 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1226</v>
+        <v>2660</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0:20:26</t>
+          <t>0:44:20</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1839</v>
+        <v>3989</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0:30:39</t>
+          <t>1:06:29</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5801,40 +5801,40 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+    